--- a/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FC8AFE-9325-490C-A153-00DB5A5FA631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D91BE8D-1870-4A7A-8E48-85442C8EE583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,9 +389,6 @@
     <t>CBA Email with PDF Attachment</t>
   </si>
   <si>
-    <t>IwantToTest@nowhere.com.test</t>
-  </si>
-  <si>
     <t>ON</t>
   </si>
   <si>
@@ -1113,6 +1110,9 @@
   </si>
   <si>
     <t>01-Jul-2019</t>
+  </si>
+  <si>
+    <t>phamv@cba.com.au</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1273,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1363,6 +1363,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1691,9 +1694,9 @@
   <dimension ref="A1:CG23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BL1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="D17" sqref="D17"/>
-      <selection pane="topRight" activeCell="BP8" sqref="BP8"/>
+      <selection pane="topRight" activeCell="BU11" sqref="BU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1742,7 +1745,7 @@
     <col min="44" max="44" width="23.5703125" style="35" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="21" style="35" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="29" style="35" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="28" style="35" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.140625" style="35" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="23.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="23" style="35" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="32.7109375" style="35" bestFit="1" customWidth="1"/>
@@ -1780,7 +1783,7 @@
     <col min="82" max="82" width="16.140625" style="35" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="7.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="16.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="9.140625" style="35" customWidth="1"/>
+    <col min="85" max="85" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="86" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
@@ -2001,22 +2004,22 @@
       <c r="BT1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="39" t="s">
+      <c r="BU1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="39" t="s">
+      <c r="BV1" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="39" t="s">
+      <c r="BW1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="39" t="s">
+      <c r="BX1" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="40" t="s">
+      <c r="BY1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="40" t="s">
+      <c r="BZ1" s="49" t="s">
         <v>77</v>
       </c>
       <c r="CA1" s="39" t="s">
@@ -2175,88 +2178,88 @@
         <v>119</v>
       </c>
       <c r="AU2" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="AV2" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="AV2" s="34" t="s">
-        <v>121</v>
-      </c>
       <c r="AW2" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AX2" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AY2" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AZ2" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BA2" s="34" t="s">
         <v>99</v>
       </c>
       <c r="BB2" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC2" s="34" t="s">
         <v>122</v>
-      </c>
-      <c r="BC2" s="34" t="s">
-        <v>123</v>
       </c>
       <c r="BD2" s="34" t="s">
         <v>87</v>
       </c>
       <c r="BE2" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF2" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="BF2" s="34" t="s">
+      <c r="BG2" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH2" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI2" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ2" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK2" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL2" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM2" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN2" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="BG2" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH2" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI2" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ2" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK2" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL2" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM2" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN2" s="34" t="s">
+      <c r="BO2" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="BO2" s="34" t="s">
+      <c r="BP2" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="BP2" s="34" t="s">
+      <c r="BQ2" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="BQ2" s="34" t="s">
+      <c r="BR2" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="BR2" s="34" t="s">
+      <c r="BS2" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT2" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU2" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="BS2" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="BT2" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="BU2" s="34" t="s">
+      <c r="BV2" s="34" t="s">
         <v>131</v>
-      </c>
-      <c r="BV2" s="34" t="s">
-        <v>132</v>
       </c>
       <c r="BW2" s="34" t="s">
         <v>87</v>
@@ -2265,56 +2268,56 @@
         <v>87</v>
       </c>
       <c r="BY2" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="BZ2" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="CA2" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="BZ2" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="CA2" s="34" t="s">
+      <c r="CB2" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="CC2" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="CD2" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="CB2" s="34" t="s">
+      <c r="CE2" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="CF2" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="CC2" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="CD2" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="CE2" s="34" t="s">
+      <c r="CG2" s="42" t="s">
         <v>136</v>
-      </c>
-      <c r="CF2" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="CG2" s="42" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AU2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AU2" r:id="rId1" display="IwantToTest@nowhere.com.test" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
@@ -2393,136 +2396,136 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2530,115 +2533,115 @@
         <v>85</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>111</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="O2" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="P2" s="19" t="s">
         <v>109</v>
       </c>
       <c r="Q2" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="R2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="S2" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="T2" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="U2" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="V2" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="V2" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA2" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="Z2" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF2" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="AD2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="AH2" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="AK2" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AL2" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AM2" s="15">
         <v>1</v>
@@ -2647,22 +2650,22 @@
         <v>11</v>
       </c>
       <c r="AO2" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP2" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AQ2" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="AQ2" s="16" t="s">
+      <c r="AR2" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="AR2" s="17" t="s">
+      <c r="AS2" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="AS2" s="31" t="s">
-        <v>214</v>
-      </c>
       <c r="AT2" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2672,7 +2675,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -2762,55 +2765,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2818,58 +2821,58 @@
         <v>85</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
         <v>233</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>234</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" t="s">
         <v>237</v>
       </c>
-      <c r="G2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="I2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" t="s">
         <v>240</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>241</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>242</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>241</v>
+      </c>
+      <c r="P2" t="s">
         <v>243</v>
       </c>
-      <c r="O2" t="s">
-        <v>242</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>191</v>
+      </c>
+      <c r="R2" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="Q2" t="s">
-        <v>192</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>245</v>
-      </c>
       <c r="S2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2921,52 +2924,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>260</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -2974,60 +2977,60 @@
         <v>85</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="J2" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L2" s="21">
         <v>2</v>
       </c>
       <c r="M2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="O2" s="21" t="s">
+      <c r="P2" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="Q2" t="s">
         <v>271</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="21" t="s">
         <v>272</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3074,55 +3077,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -3130,58 +3133,58 @@
         <v>85</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" t="s">
         <v>275</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>276</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="G2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>281</v>
-      </c>
       <c r="L2" t="s">
+        <v>240</v>
+      </c>
+      <c r="M2" t="s">
         <v>241</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>242</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>241</v>
+      </c>
+      <c r="P2" t="s">
         <v>243</v>
       </c>
-      <c r="O2" t="s">
-        <v>242</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>191</v>
+      </c>
+      <c r="R2" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="Q2" t="s">
-        <v>192</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>245</v>
-      </c>
       <c r="S2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3270,160 +3273,160 @@
         <v>1</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>248</v>
-      </c>
       <c r="F1" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="U1" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="V1" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="W1" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="X1" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="Y1" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Z1" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="AA1" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AB1" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AC1" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AD1" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="AD1" s="29" t="s">
+      <c r="AE1" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="AE1" s="29" t="s">
+      <c r="AF1" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="AF1" s="29" t="s">
+      <c r="AG1" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="AG1" s="29" t="s">
+      <c r="AH1" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="AH1" s="29" t="s">
+      <c r="AI1" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="AI1" s="29" t="s">
+      <c r="AJ1" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="AJ1" s="29" t="s">
+      <c r="AK1" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="AK1" s="29" t="s">
+      <c r="AL1" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="AL1" s="29" t="s">
+      <c r="AM1" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="AM1" s="29" t="s">
+      <c r="AN1" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="AN1" s="29" t="s">
+      <c r="AO1" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="AO1" s="29" t="s">
+      <c r="AP1" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="AP1" s="29" t="s">
+      <c r="AQ1" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="AQ1" s="29" t="s">
+      <c r="AR1" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="AR1" s="29" t="s">
+      <c r="AS1" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="AS1" s="29" t="s">
+      <c r="AT1" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="AT1" s="29" t="s">
+      <c r="AU1" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="AU1" s="29" t="s">
+      <c r="AV1" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="AV1" s="29" t="s">
+      <c r="AW1" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="AW1" s="29" t="s">
-        <v>325</v>
-      </c>
       <c r="AX1" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="AY1" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="AY1" s="24" t="s">
+      <c r="AZ1" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="AZ1" s="24" t="s">
+      <c r="BA1" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="BA1" s="24" t="s">
+      <c r="BB1" s="24" t="s">
         <v>260</v>
-      </c>
-      <c r="BB1" s="24" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
@@ -3431,28 +3434,28 @@
         <v>85</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" t="s">
         <v>326</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>327</v>
       </c>
-      <c r="G2" t="s">
-        <v>328</v>
-      </c>
       <c r="H2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -3464,22 +3467,22 @@
         <v>0</v>
       </c>
       <c r="M2" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="O2" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="N2" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="O2" s="27" t="s">
+      <c r="P2" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="Q2" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="Q2" s="28" t="s">
-        <v>332</v>
-      </c>
       <c r="R2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -3488,28 +3491,28 @@
         <v>0</v>
       </c>
       <c r="U2" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="X2" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="Y2" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z2" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="W2" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="X2" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y2" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="Z2" s="28" t="s">
+      <c r="AA2" t="s">
         <v>334</v>
       </c>
-      <c r="AA2" t="s">
-        <v>335</v>
-      </c>
       <c r="AB2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -3521,28 +3524,28 @@
         <v>0</v>
       </c>
       <c r="AF2" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG2" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AH2" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AI2" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AJ2" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AK2" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AL2" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AM2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AN2">
         <v>1</v>
@@ -3551,48 +3554,48 @@
         <v>0</v>
       </c>
       <c r="AP2" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AQ2" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="AR2" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS2" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT2" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="AU2" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV2" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="AW2" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="AR2" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AS2" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="AT2" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="AU2" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="AV2" s="28" t="s">
+      <c r="AX2" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="AW2" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="AX2" s="21" t="s">
-        <v>337</v>
-      </c>
       <c r="AY2" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="AZ2" s="21" t="s">
+      <c r="BA2" t="s">
         <v>271</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" s="21" t="s">
         <v>272</v>
-      </c>
-      <c r="BB2" s="21" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3633,40 +3636,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3674,43 +3677,43 @@
         <v>85</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" t="s">
         <v>350</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>351</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3742,10 +3745,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>356</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3753,13 +3756,13 @@
         <v>85</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
         <v>358</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
@@ -2338,7 +2338,7 @@
       </c>
       <c r="E2" s="57" t="inlineStr">
         <is>
-          <t>REVOLVING CASH ADV FAC28114</t>
+          <t>REVOLVING CASH ADV FAC56158</t>
         </is>
       </c>
       <c r="F2" s="56" t="inlineStr">

--- a/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
@@ -8,28 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47ADB485-97B4-415B-88D5-CB9936317830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09406FC-6F72-47A4-80ED-415FFB180E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="2730" windowWidth="28740" windowHeight="12630" tabRatio="877" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
     <sheet name="CRED01_DealSetup" sheetId="2" r:id="rId2"/>
     <sheet name="CRED02_FacilitySetup" sheetId="3" r:id="rId3"/>
     <sheet name="CRED08_OngoingFeeSetup" sheetId="4" r:id="rId4"/>
-    <sheet name="CRED02_FacilitySetup_A" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="CRED08_OngoingFeeSetup_A" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="CRED02_FacilitySetup_B" sheetId="7" state="hidden" r:id="rId7"/>
-    <sheet name="CRED08_OngoingFeeSetup_B" sheetId="8" state="hidden" r:id="rId8"/>
-    <sheet name="SYND02_PrimaryAllocation" sheetId="9" state="hidden" r:id="rId9"/>
-    <sheet name="CRED01_DealPricingSetup" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="SYND02_PrimaryAllocation" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="368">
   <si>
     <t>rowid</t>
   </si>
@@ -571,10 +566,10 @@
     <t>LLA SYND_</t>
   </si>
   <si>
-    <t>LLA SYND DEAL AUD 500M 23NOV1840109</t>
-  </si>
-  <si>
-    <t>LLA SYND_40109</t>
+    <t>LLA SYND DEAL AUD 500M 23NOV1822142</t>
+  </si>
+  <si>
+    <t>LLA SYND_22142</t>
   </si>
   <si>
     <t>Global</t>
@@ -712,7 +707,7 @@
     <t>REVOLVING CASH ADV FAC</t>
   </si>
   <si>
-    <t>REVOLVING CASH ADV FAC56158</t>
+    <t>REVOLVING CASH ADV FAC29122</t>
   </si>
   <si>
     <t>Revolver</t>
@@ -724,10 +719,10 @@
     <t>734</t>
   </si>
   <si>
-    <t>07-Apr-2025</t>
-  </si>
-  <si>
-    <t>04-Apr-2023</t>
+    <t>15-Jun-2025</t>
+  </si>
+  <si>
+    <t>12-Jun-2023</t>
   </si>
   <si>
     <t>Loan</t>
@@ -961,283 +956,97 @@
     <t>BBSY</t>
   </si>
   <si>
-    <t>Facility_SGAlias</t>
-  </si>
-  <si>
-    <t>Establish Capitalisation Facility</t>
-  </si>
-  <si>
-    <t>CAPITALISATION_FAC_</t>
-  </si>
-  <si>
-    <t>CAPITALISATION_FAC_10132</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>38,200,000.00</t>
-  </si>
-  <si>
-    <t>17-Dec-2019</t>
-  </si>
-  <si>
-    <t>15-Sep-2020</t>
-  </si>
-  <si>
-    <t>17-Dec-2024</t>
-  </si>
-  <si>
-    <t>Commonwealth Bank of Australia</t>
-  </si>
-  <si>
-    <t>NON AGENCY</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItem</t>
-  </si>
-  <si>
-    <t>Facility_PercentWhole</t>
-  </si>
-  <si>
-    <t>Facility_Percent</t>
-  </si>
-  <si>
-    <t>Interest_AddItem</t>
-  </si>
-  <si>
-    <t>Interest_OptionName</t>
-  </si>
-  <si>
-    <t>Interest_SpreadAmt</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode</t>
-  </si>
-  <si>
-    <t>OngoingFee_EffectiveDate</t>
-  </si>
-  <si>
-    <t>OngoingFee_ActualDate</t>
-  </si>
-  <si>
-    <t>OngoingFee_AdjustedDueDate</t>
-  </si>
-  <si>
-    <t>OngoingFee_Accrue</t>
-  </si>
-  <si>
-    <t>OngoingFee_AccrualEndDate</t>
-  </si>
-  <si>
-    <t>Establish Commitment</t>
-  </si>
-  <si>
-    <t>Commitment Fee</t>
-  </si>
-  <si>
-    <t>0.8%</t>
-  </si>
-  <si>
-    <t>0.800000</t>
-  </si>
-  <si>
-    <t>01-Jan-2020</t>
-  </si>
-  <si>
-    <t>02-Jan-2020</t>
-  </si>
-  <si>
-    <t>to the actual due date</t>
-  </si>
-  <si>
-    <t>31-Dec-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Establish CA Facility</t>
-  </si>
-  <si>
-    <t>REV_CASH_ADVANCE_FAC_</t>
-  </si>
-  <si>
-    <t>REV_CASH_ADVANCE_FAC_12122</t>
-  </si>
-  <si>
-    <t>112,000,000.00</t>
-  </si>
-  <si>
-    <t>22-Dec-2016</t>
-  </si>
-  <si>
-    <t>29-Jul-2023</t>
-  </si>
-  <si>
-    <t>29-Aug-2023</t>
-  </si>
-  <si>
-    <t>OngoingFee_Item</t>
-  </si>
-  <si>
-    <t>OngoingFee_ItemType</t>
-  </si>
-  <si>
-    <t>FinancialRatio_RatioType</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MnemonicStatus1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_GreaterThan1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_LessThan1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MinimumValue1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MaximumValue1</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItem1</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItemType1</t>
-  </si>
-  <si>
-    <t>FormulaCategory_SpreadType1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MnemonicStatus2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_GreaterThan2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_LessThan2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MinimumValue2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MaximumValue2</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItem2</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItemType2</t>
-  </si>
-  <si>
-    <t>FormulaCategory_SpreadType2</t>
-  </si>
-  <si>
-    <t>FormulaCategory_Type</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MnemonicStatus1</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_GreaterThan1</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_LessThan1</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MinimumValue1</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MaximumValue1</t>
-  </si>
-  <si>
-    <t>Interest_AfterItem1</t>
-  </si>
-  <si>
-    <t>Interest_AfterItemType1</t>
-  </si>
-  <si>
-    <t>Interest_OptionName1</t>
-  </si>
-  <si>
-    <t>Interest_RateBasis1</t>
-  </si>
-  <si>
-    <t>Interest_FormulaText1</t>
-  </si>
-  <si>
-    <t>Interest_Facility_Percent1</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MnemonicStatus2</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_GreaterThan2</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_LessThan2</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MinimumValue2</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MaximumValue2</t>
-  </si>
-  <si>
-    <t>Interest_AfterItem2</t>
-  </si>
-  <si>
-    <t>Interest_AfterItemType2</t>
-  </si>
-  <si>
-    <t>Interest_OptionName2</t>
-  </si>
-  <si>
-    <t>Interest_RateBasis2</t>
-  </si>
-  <si>
-    <t>Interest_FormulaText2</t>
-  </si>
-  <si>
-    <t>Interest_Facility_Percent2</t>
-  </si>
-  <si>
-    <t>Establish Line Fee</t>
-  </si>
-  <si>
-    <t>Matrix</t>
-  </si>
-  <si>
-    <t>Financial Ratio</t>
-  </si>
-  <si>
-    <t>Leverage Ratio (LR)</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Percent</t>
-  </si>
-  <si>
-    <t>0.725000</t>
-  </si>
-  <si>
-    <t>Maximum</t>
-  </si>
-  <si>
-    <t>0.775000</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>01-Oct-2019</t>
+    <t>Primary_Lender1</t>
+  </si>
+  <si>
+    <t>Primary_Lender2</t>
+  </si>
+  <si>
+    <t>Primary_LenderLoc1</t>
+  </si>
+  <si>
+    <t>Primary_LenderLoc2</t>
+  </si>
+  <si>
+    <t>Primary_RiskBook1</t>
+  </si>
+  <si>
+    <t>Primary_RiskBook2</t>
+  </si>
+  <si>
+    <t>Primary_TransactionType</t>
+  </si>
+  <si>
+    <t>Primary_PctOfDeal1</t>
+  </si>
+  <si>
+    <t>Primary_PctOfDeal2</t>
+  </si>
+  <si>
+    <t>Primary_BuySellPrice</t>
+  </si>
+  <si>
+    <t>Expected_CloseDate</t>
+  </si>
+  <si>
+    <t>Primary_Contact1</t>
+  </si>
+  <si>
+    <t>Primary_Contact2</t>
+  </si>
+  <si>
+    <t>Primary_SGAlias1</t>
+  </si>
+  <si>
+    <t>Primary_SGAlias2</t>
+  </si>
+  <si>
+    <t>AdminAgent_SGAlias_Secondary</t>
+  </si>
+  <si>
+    <t>Primary_Portfolio</t>
+  </si>
+  <si>
+    <t>Primary_PortfolioBranch</t>
+  </si>
+  <si>
+    <t>Primary_PortfolioAllocation1</t>
+  </si>
+  <si>
+    <t>Primary_PortfolioAllocation2</t>
+  </si>
+  <si>
+    <t>Primary_PortfolioExpiryDate</t>
+  </si>
+  <si>
+    <t>Primary_CircledDate</t>
+  </si>
+  <si>
+    <t>Expiry_Date</t>
+  </si>
+  <si>
+    <t>PortfolioBranch</t>
+  </si>
+  <si>
+    <t>PortfolioAllocation</t>
+  </si>
+  <si>
+    <t>DefaultCurrency</t>
+  </si>
+  <si>
+    <t>BorrowerServicingGroup</t>
+  </si>
+  <si>
+    <t>GlobalLimit</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>BorrowerPercent</t>
+  </si>
+  <si>
+    <t>CustomerServicingGroupCurrency</t>
   </si>
   <si>
     <t>Primary_RiskBook</t>
@@ -1246,64 +1055,79 @@
     <t>Primaries_TransactionType</t>
   </si>
   <si>
-    <t>Primary_PctOfDeal</t>
-  </si>
-  <si>
-    <t>Primary_BuySellPrice</t>
-  </si>
-  <si>
-    <t>Primary_ExpectedCloseDate</t>
-  </si>
-  <si>
-    <t>Primary_Contact</t>
-  </si>
-  <si>
-    <t>Primary_SGAlias</t>
-  </si>
-  <si>
-    <t>Primary_CircledDate</t>
-  </si>
-  <si>
-    <t>Lender_Hostbank</t>
-  </si>
-  <si>
-    <t>Primary_Portfolio</t>
-  </si>
-  <si>
-    <t>Primary_PortfolioBranch</t>
-  </si>
-  <si>
-    <t>Primary_ExpenseCode</t>
-  </si>
-  <si>
-    <t>Setup Primaries</t>
-  </si>
-  <si>
-    <t>Technology, Media, Health and Education</t>
+    <t>Primary_Comment</t>
+  </si>
+  <si>
+    <t>Primary_PortfolioAllocation</t>
+  </si>
+  <si>
+    <t>PrimaryFacility1_Allocation</t>
+  </si>
+  <si>
+    <t>FundReceiverDetailCustomer</t>
+  </si>
+  <si>
+    <t>servicingGroupMember</t>
+  </si>
+  <si>
+    <t>Establish Primaries</t>
+  </si>
+  <si>
+    <t>LEND01292020</t>
   </si>
   <si>
     <t>Origination</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>26-Nov-2018</t>
+  </si>
+  <si>
+    <t>AGENCY,  Lending and Leasing</t>
+  </si>
+  <si>
+    <t>KESO, MR KUYA</t>
+  </si>
+  <si>
+    <t>LENDING</t>
+  </si>
+  <si>
+    <t>KK</t>
   </si>
   <si>
     <t>Hold for Investment - Australia</t>
   </si>
   <si>
-    <t>TM_COL</t>
-  </si>
-  <si>
-    <t>InterestPricingOption</t>
-  </si>
-  <si>
-    <t>Pricing_MatrixChangeAppMethod</t>
-  </si>
-  <si>
-    <t>Update Deal Pricing</t>
+    <t>ZOE</t>
+  </si>
+  <si>
+    <t>Commonwealth Bank Australia - DBU</t>
+  </si>
+  <si>
+    <t>Add Comment</t>
+  </si>
+  <si>
+    <t>150,000,000.00</t>
+  </si>
+  <si>
+    <t>Commonwealth Bank of Australia -DBU</t>
+  </si>
+  <si>
+    <t>100,000.00</t>
+  </si>
+  <si>
+    <t>Loan,  Operations</t>
+  </si>
+  <si>
+    <t>13-Jun-2023</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1380,8 +1204,21 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1397,12 +1234,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,36 +1283,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1494,7 +1301,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1527,13 +1334,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -1590,6 +1397,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1926,618 +1763,618 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="38.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="26" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="26" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" style="26" customWidth="1"/>
-    <col min="13" max="13" width="23" style="26" customWidth="1"/>
-    <col min="14" max="14" width="17" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" style="26" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="26" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="26" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" style="26" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="15.28515625" style="26" customWidth="1"/>
-    <col min="27" max="27" width="10.42578125" style="26" customWidth="1"/>
-    <col min="28" max="28" width="16" style="26" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.140625" style="26" customWidth="1"/>
-    <col min="31" max="31" width="9.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="34.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28" style="26" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21" style="26" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="24.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="27.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21" style="26" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="29" style="26" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="23.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23" style="26" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="32.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="31.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="28.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14" style="26" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="25.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="22.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16" style="26" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="26" style="26" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="26.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="22.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="35.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="34.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="31.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22" style="26" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="17.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="28.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="25.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="19.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="28.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="20.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="21.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="22" style="26" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="24" style="26" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="21.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="25.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="7.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="16.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="7.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="16.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="8.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="86" max="97" width="9.140625" style="26" customWidth="1"/>
-    <col min="98" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="6.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="6" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="23" style="6" customWidth="1"/>
+    <col min="14" max="14" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="15.28515625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.140625" style="6" customWidth="1"/>
+    <col min="31" max="31" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="27.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="29" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="32.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="31.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="25.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="26.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="22.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="35.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="34.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="31.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22" style="6" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="20.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="22" style="6" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="24" style="6" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="21.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="86" max="103" width="9.140625" style="6" customWidth="1"/>
+    <col min="104" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AB1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AD1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AE1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AF1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AG1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AH1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AI1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="29" t="s">
+      <c r="AK1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="32" t="s">
+      <c r="AL1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="31" t="s">
+      <c r="AM1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="30" t="s">
+      <c r="AN1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AO1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="30" t="s">
+      <c r="AP1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="30" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="30" t="s">
+      <c r="AR1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="30" t="s">
+      <c r="AS1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="30" t="s">
+      <c r="AT1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="30" t="s">
+      <c r="AU1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="30" t="s">
+      <c r="AV1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="30" t="s">
+      <c r="AW1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="30" t="s">
+      <c r="AX1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="30" t="s">
+      <c r="AY1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="30" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="30" t="s">
+      <c r="BA1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="30" t="s">
+      <c r="BB1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="30" t="s">
+      <c r="BC1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="30" t="s">
+      <c r="BD1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="30" t="s">
+      <c r="BE1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="30" t="s">
+      <c r="BF1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="30" t="s">
+      <c r="BG1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="30" t="s">
+      <c r="BH1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="30" t="s">
+      <c r="BI1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="30" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="30" t="s">
+      <c r="BK1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="30" t="s">
+      <c r="BL1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="30" t="s">
+      <c r="BM1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="30" t="s">
+      <c r="BN1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="30" t="s">
+      <c r="BO1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="30" t="s">
+      <c r="BP1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="30" t="s">
+      <c r="BQ1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="30" t="s">
+      <c r="BR1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="30" t="s">
+      <c r="BS1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="30" t="s">
+      <c r="BT1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="40" t="s">
+      <c r="BU1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="40" t="s">
+      <c r="BV1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="40" t="s">
+      <c r="BW1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="40" t="s">
+      <c r="BX1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="40" t="s">
+      <c r="BY1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="40" t="s">
+      <c r="BZ1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="30" t="s">
+      <c r="CA1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="30" t="s">
+      <c r="CB1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="30" t="s">
+      <c r="CC1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="30" t="s">
+      <c r="CD1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="30" t="s">
+      <c r="CE1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="30" t="s">
+      <c r="CF1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="30" t="s">
+      <c r="CG1" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="13">
         <v>655544444</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="R2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="T2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="U2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="34">
+      <c r="V2" s="14">
         <v>2000</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="W2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="34" t="s">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="34" t="s">
+      <c r="AB2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AC2" s="34" t="s">
+      <c r="AC2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" s="34" t="s">
+      <c r="AD2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="AE2" s="34" t="s">
+      <c r="AE2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AF2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AG2" s="25" t="s">
+      <c r="AG2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AI2" s="25" t="s">
+      <c r="AI2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AJ2" s="25" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AK2" s="35" t="s">
+      <c r="AK2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="AL2" s="25" t="s">
+      <c r="AL2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AM2" s="25" t="s">
+      <c r="AM2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AN2" s="25" t="s">
+      <c r="AN2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AO2" s="25" t="s">
+      <c r="AO2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AP2" s="25" t="s">
+      <c r="AP2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AQ2" s="25">
+      <c r="AQ2" s="5">
         <v>131100</v>
       </c>
-      <c r="AR2" s="25" t="s">
+      <c r="AR2" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AS2" s="25" t="s">
+      <c r="AS2" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AT2" s="25" t="s">
+      <c r="AT2" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AU2" s="39" t="s">
+      <c r="AU2" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="AV2" s="25" t="s">
+      <c r="AV2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AW2" s="25" t="s">
+      <c r="AW2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AX2" s="25" t="s">
+      <c r="AX2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AY2" s="25" t="s">
+      <c r="AY2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AZ2" s="25" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="BA2" s="25" t="s">
+      <c r="BA2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="BB2" s="25" t="s">
+      <c r="BB2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="BC2" s="25" t="s">
+      <c r="BC2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="BD2" s="25" t="s">
+      <c r="BD2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="BE2" s="25" t="s">
+      <c r="BE2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="BF2" s="25" t="s">
+      <c r="BF2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="BG2" s="25" t="s">
+      <c r="BG2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="BH2" s="25" t="s">
+      <c r="BH2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="BI2" s="25" t="s">
+      <c r="BI2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="BJ2" s="25" t="s">
+      <c r="BJ2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="BK2" s="25" t="s">
+      <c r="BK2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="BL2" s="25" t="s">
+      <c r="BL2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="BM2" s="25" t="s">
+      <c r="BM2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="BN2" s="25" t="s">
+      <c r="BN2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="BO2" s="25" t="s">
+      <c r="BO2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="BP2" s="25" t="s">
+      <c r="BP2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BQ2" s="25" t="s">
+      <c r="BQ2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="BR2" s="25" t="s">
+      <c r="BR2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="BS2" s="25" t="s">
+      <c r="BS2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="BT2" s="25" t="s">
+      <c r="BT2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="BU2" s="25" t="s">
+      <c r="BU2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="BV2" s="25" t="s">
+      <c r="BV2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="BW2" s="25" t="s">
+      <c r="BW2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="BX2" s="25" t="s">
+      <c r="BX2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="BY2" s="25" t="s">
+      <c r="BY2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="BZ2" s="25" t="s">
+      <c r="BZ2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="CA2" s="25" t="s">
+      <c r="CA2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="CB2" s="25" t="s">
+      <c r="CB2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="CC2" s="33" t="s">
+      <c r="CC2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="CD2" s="25" t="s">
+      <c r="CD2" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="CE2" s="25" t="s">
+      <c r="CE2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="CF2" s="33" t="s">
+      <c r="CF2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="CG2" s="33" t="s">
+      <c r="CG2" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="7" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2548,54 +2385,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="38.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2612,293 +2401,293 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="50.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31" style="42" customWidth="1"/>
-    <col min="18" max="18" width="21" style="42" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25" style="42" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="35.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="35.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="36" max="47" width="9.140625" style="42" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="6.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="50.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31" style="22" customWidth="1"/>
+    <col min="18" max="18" width="21" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25" style="22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="35.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="36" max="53" width="9.140625" style="22" customWidth="1"/>
+    <col min="54" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="41" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:35" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="Z1" s="43" t="s">
+      <c r="Z1" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="AA1" s="43" t="s">
+      <c r="AA1" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="AB1" s="43" t="s">
+      <c r="AB1" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="AC1" s="43" t="s">
+      <c r="AC1" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="AD1" s="43" t="s">
+      <c r="AD1" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="AE1" s="43" t="s">
+      <c r="AE1" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="AF1" s="43" t="s">
+      <c r="AF1" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="AG1" s="43" t="s">
+      <c r="AG1" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="AH1" s="44" t="s">
+      <c r="AH1" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="AI1" s="44" t="s">
+      <c r="AI1" s="24" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="Q2" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="S2" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="W2" s="49" t="s">
+      <c r="W2" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="X2" s="49" t="s">
+      <c r="X2" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="Y2" s="49" t="s">
+      <c r="Y2" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="Z2" s="45" t="s">
+      <c r="Z2" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="AA2" s="45" t="s">
+      <c r="AA2" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="AB2" s="45" t="s">
+      <c r="AB2" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="AC2" s="45" t="s">
+      <c r="AC2" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="AD2" s="45" t="s">
+      <c r="AD2" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="AE2" s="45" t="s">
+      <c r="AE2" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="AF2" s="45" t="s">
+      <c r="AF2" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="AG2" s="45" t="s">
+      <c r="AG2" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="AH2" s="46" t="s">
+      <c r="AH2" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="AI2" s="46" t="s">
+      <c r="AI2" s="26" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2917,226 +2706,226 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="54" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="54" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="54" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="54" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.28515625" style="54" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" style="54" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="54" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" style="54" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" style="54" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" style="54" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" style="54" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" style="54" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" style="54" customWidth="1"/>
-    <col min="22" max="22" width="25.5703125" style="54" customWidth="1"/>
-    <col min="23" max="23" width="24.42578125" style="54" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" style="54" customWidth="1"/>
-    <col min="25" max="25" width="19.42578125" style="54" customWidth="1"/>
-    <col min="26" max="26" width="21.7109375" style="54" customWidth="1"/>
-    <col min="27" max="27" width="36.28515625" style="54" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.7109375" style="54" customWidth="1"/>
-    <col min="30" max="30" width="6" style="55" bestFit="1" customWidth="1"/>
-    <col min="31" max="35" width="9.140625" style="55" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="55"/>
+    <col min="1" max="1" width="6.140625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="34" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="34" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="34" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="34" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" style="34" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" style="34" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="34" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" style="34" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" style="34" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" style="34" customWidth="1"/>
+    <col min="22" max="22" width="25.5703125" style="34" customWidth="1"/>
+    <col min="23" max="23" width="24.42578125" style="34" customWidth="1"/>
+    <col min="24" max="24" width="20.85546875" style="34" customWidth="1"/>
+    <col min="25" max="25" width="19.42578125" style="34" customWidth="1"/>
+    <col min="26" max="26" width="21.7109375" style="34" customWidth="1"/>
+    <col min="27" max="27" width="36.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.7109375" style="34" customWidth="1"/>
+    <col min="30" max="30" width="6" style="35" bestFit="1" customWidth="1"/>
+    <col min="31" max="41" width="9.140625" style="35" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:30" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="X1" s="31" t="s">
+      <c r="X1" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AB1" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AD1" s="10" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="P2" s="57" t="s">
+      <c r="P2" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="Q2" s="57" t="s">
+      <c r="Q2" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="R2" s="58" t="s">
+      <c r="R2" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="U2" s="35" t="s">
+      <c r="U2" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="V2" s="56" t="s">
+      <c r="V2" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="W2" s="56" t="s">
+      <c r="W2" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="Y2" s="56" t="s">
+      <c r="Y2" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AC2" s="56" t="s">
+      <c r="AC2" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="AD2" s="56" t="s">
+      <c r="AD2" s="36" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3151,311 +2940,311 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="24" max="29" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16" style="55" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="22.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="16.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="8.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="55" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="6.140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="10.42578125" style="55" customWidth="1"/>
-    <col min="48" max="16384" width="10.42578125" style="55"/>
+    <col min="1" max="1" width="6.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="24" max="29" width="10.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="22.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="35" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="46" max="53" width="10.42578125" style="35" customWidth="1"/>
+    <col min="54" max="16384" width="10.42578125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="61" t="s">
+      <c r="O1" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="Q1" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="U1" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="V1" s="61" t="s">
+      <c r="V1" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="W1" s="61" t="s">
+      <c r="W1" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="X1" s="61" t="s">
+      <c r="X1" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="Y1" s="61" t="s">
+      <c r="Y1" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="Z1" s="61" t="s">
+      <c r="Z1" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="AA1" s="61" t="s">
+      <c r="AA1" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="AB1" s="61" t="s">
+      <c r="AB1" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="AC1" s="61" t="s">
+      <c r="AC1" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="AD1" s="61" t="s">
+      <c r="AD1" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="AE1" s="61" t="s">
+      <c r="AE1" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="AF1" s="61" t="s">
+      <c r="AF1" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="AG1" s="61" t="s">
+      <c r="AG1" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="AH1" s="61" t="s">
+      <c r="AH1" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="AI1" s="61" t="s">
+      <c r="AI1" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="AJ1" s="61" t="s">
+      <c r="AJ1" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="AK1" s="61" t="s">
+      <c r="AK1" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="AL1" s="61" t="s">
+      <c r="AL1" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="AM1" s="61" t="s">
+      <c r="AM1" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="AN1" s="61" t="s">
+      <c r="AN1" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="AO1" s="61" t="s">
+      <c r="AO1" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="AP1" s="61" t="s">
+      <c r="AP1" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="AQ1" s="61" t="s">
+      <c r="AQ1" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="AR1" s="61" t="s">
+      <c r="AR1" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="AS1" s="61" t="s">
+      <c r="AS1" s="41" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="AC2" s="25" t="s">
+      <c r="AC2" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AD2" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="AE2" s="66" t="s">
+      <c r="AE2" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="AF2" s="66" t="s">
+      <c r="AF2" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="AG2" s="66" t="s">
+      <c r="AG2" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="AI2" s="66" t="s">
+      <c r="AI2" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="AJ2" s="66" t="s">
+      <c r="AJ2" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="AK2" s="66" t="s">
+      <c r="AK2" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="AL2" s="66" t="s">
+      <c r="AL2" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="AM2" s="66" t="s">
+      <c r="AM2" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="AN2" s="66" t="s">
+      <c r="AN2" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="AO2" s="66" t="s">
+      <c r="AO2" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="AP2" s="66" t="s">
+      <c r="AP2" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="AQ2" s="66" t="s">
+      <c r="AQ2" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="AR2" s="66" t="s">
+      <c r="AR2" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="AS2" s="66" t="s">
+      <c r="AS2" s="46" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3467,998 +3256,376 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AQ3" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="6" customWidth="1"/>
+    <col min="8" max="8" width="21" style="52" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" style="52" customWidth="1"/>
+    <col min="12" max="13" width="19.42578125" style="52" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="52" customWidth="1"/>
+    <col min="18" max="19" width="17.5703125" style="52" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.7109375" style="52" customWidth="1"/>
+    <col min="22" max="22" width="18.85546875" style="52" customWidth="1"/>
+    <col min="23" max="23" width="26.28515625" style="52" customWidth="1"/>
+    <col min="24" max="24" width="34.85546875" style="52" customWidth="1"/>
+    <col min="25" max="26" width="27.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="34.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.7109375" style="6" customWidth="1"/>
+    <col min="37" max="37" width="26.28515625" style="6" customWidth="1"/>
+    <col min="38" max="38" width="18.140625" style="6" customWidth="1"/>
+    <col min="39" max="39" width="26.28515625" style="6" customWidth="1"/>
+    <col min="40" max="40" width="34.85546875" style="6" customWidth="1"/>
+    <col min="41" max="41" width="26.5703125" style="6" customWidth="1"/>
+    <col min="42" max="42" width="26.42578125" style="6" customWidth="1"/>
+    <col min="43" max="43" width="27.28515625" style="6" customWidth="1"/>
+    <col min="44" max="44" width="20" style="6" customWidth="1"/>
+    <col min="45" max="45" width="11.85546875" style="6" customWidth="1"/>
+    <col min="46" max="46" width="36.140625" style="6" customWidth="1"/>
+    <col min="47" max="47" width="18.140625" style="6" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" style="53" customWidth="1"/>
+    <col min="49" max="49" width="11.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="35.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="52" max="57" width="9.140625" style="35" customWidth="1"/>
+    <col min="58" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:51" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>223</v>
+      <c r="F1" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="O1" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="P1" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q1" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="R1" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="S1" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="T1" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="U1" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="V1" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="W1" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="X1" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y1" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z1" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA1" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB1" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC1" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD1" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE1" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF1" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="AG1" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="AH1" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="AI1" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX1" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="K2" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="O2" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="T2" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y2" s="55">
+        <v>150000000</v>
+      </c>
+      <c r="Z2" s="55">
+        <v>350000000</v>
+      </c>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="H2" t="s">
-        <v>316</v>
-      </c>
-      <c r="I2" t="s">
-        <v>316</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="L2" t="s">
-        <v>233</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="AE2" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF2" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="N2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="AG2" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="P2" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>320</v>
-      </c>
-      <c r="R2" s="14" t="s">
+      <c r="AH2" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="S2" t="s">
-        <v>236</v>
-      </c>
+      <c r="AI2" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK2" s="50" t="s">
+        <v>350</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO2" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="AP2" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ2" s="56" t="s">
+        <v>367</v>
+      </c>
+      <c r="AR2" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="AU2" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="AV2" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="AW2" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="AX2" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY2" s="50" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="P3" s="54"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" promptTitle="Date Format" prompt="ddmmyy" sqref="H2:J2" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:R26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.140625" style="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="L2" s="13">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>309</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>339</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G26" t="s">
-        <v>341</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" style="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="C2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="G2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="L2" t="s">
-        <v>233</v>
-      </c>
-      <c r="M2" t="s">
-        <v>236</v>
-      </c>
-      <c r="N2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O2" t="s">
-        <v>236</v>
-      </c>
-      <c r="P2" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>320</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="S2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" promptTitle="Date Format" prompt="ddmmyy" sqref="H2:K2" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:BB24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="31.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="39.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="36.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="33.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="38.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="39.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="39.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="36.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="33.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="38.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="39.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="24.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="25.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="29.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="28.140625" style="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB1" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD1" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE1" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF1" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="AG1" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="AH1" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI1" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="AJ1" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="AK1" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="AL1" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="AM1" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="AN1" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="AO1" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="AP1" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="AQ1" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR1" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="AS1" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="AT1" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="AU1" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="AV1" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="AW1" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="AX1" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="AY1" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="AZ1" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="BA1" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="BB1" s="16" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F2" t="s">
-        <v>392</v>
-      </c>
-      <c r="G2" t="s">
-        <v>393</v>
-      </c>
-      <c r="H2" t="s">
-        <v>394</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="R2" t="s">
-        <v>121</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z2" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>401</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="AG2" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH2" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI2" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AJ2" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="AK2" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="AL2" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN2">
-        <v>1</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="AQ2" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="AR2" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="AS2" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT2" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AU2" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="AV2" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="AW2" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="AX2" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="AY2" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="AZ2" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>339</v>
-      </c>
-      <c r="BB2" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G24" t="s">
-        <v>341</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="C2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB80A924-EAF2-4507-B25F-F6B5B72FC7C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B712922-485B-4A93-BE37-D3D4E03C7DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="780" windowWidth="25365" windowHeight="5820" tabRatio="877" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="CRED02_FacilitySetup" sheetId="3" r:id="rId3"/>
     <sheet name="CRED08_OngoingFeeSetup" sheetId="4" r:id="rId4"/>
     <sheet name="SYND02_PrimaryAllocation" sheetId="5" r:id="rId5"/>
+    <sheet name="Correspondence" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="469">
   <si>
     <t>rowid</t>
   </si>
@@ -32,6 +33,9 @@
     <t>Test_Case</t>
   </si>
   <si>
+    <t>Entity</t>
+  </si>
+  <si>
     <t>Enterprise_Prefix</t>
   </si>
   <si>
@@ -119,6 +123,9 @@
     <t>UserZone</t>
   </si>
   <si>
+    <t>Assigned_Branch</t>
+  </si>
+  <si>
     <t>UserBranch</t>
   </si>
   <si>
@@ -245,6 +252,9 @@
     <t>New_Industry_Sector</t>
   </si>
   <si>
+    <t>New_SICCode</t>
+  </si>
+  <si>
     <t>New_Business_Activity</t>
   </si>
   <si>
@@ -287,10 +297,13 @@
     <t>PTY001_QuickPartyOnboarding</t>
   </si>
   <si>
+    <t>AU</t>
+  </si>
+  <si>
     <t>LLA Pty Ltd</t>
   </si>
   <si>
-    <t>1514243</t>
+    <t>1815001</t>
   </si>
   <si>
     <t>Local Private</t>
@@ -341,9 +354,6 @@
     <t>Quick Party Onboarding</t>
   </si>
   <si>
-    <t>AU</t>
-  </si>
-  <si>
     <t>Commonwealth Bank of Australia - DBU</t>
   </si>
   <si>
@@ -362,10 +372,10 @@
     <t>Sydney, NSW,Australia</t>
   </si>
   <si>
-    <t>LLA Pty Ltd 1514243</t>
-  </si>
-  <si>
-    <t>LLA PTY LTD 1514243</t>
+    <t>LLA Pty Ltd 1815001</t>
+  </si>
+  <si>
+    <t>LLA PTY LTD 1815001</t>
   </si>
   <si>
     <t>George</t>
@@ -395,10 +405,10 @@
     <t>DDA (Demand Deposit Acct)</t>
   </si>
   <si>
-    <t>ABC11122223</t>
-  </si>
-  <si>
-    <t>111 22223</t>
+    <t>ABC11122233</t>
+  </si>
+  <si>
+    <t>111 22233</t>
   </si>
   <si>
     <t>AUD</t>
@@ -428,6 +438,9 @@
     <t>LLA Limited</t>
   </si>
   <si>
+    <t>LLA Limited 1514243</t>
+  </si>
+  <si>
     <t>Moody's Investor Services Inc</t>
   </si>
   <si>
@@ -566,10 +579,10 @@
     <t>LLA SYND_</t>
   </si>
   <si>
-    <t>LLA SYND DEAL AUD 500M 23NOV1841158</t>
-  </si>
-  <si>
-    <t>LLA SYND_41158</t>
+    <t>LLA SYND DEAL AUD 500M 23NOV1848124</t>
+  </si>
+  <si>
+    <t>LLA SYND_48125</t>
   </si>
   <si>
     <t>Global</t>
@@ -656,18 +669,18 @@
     <t>Add_To_Facility_MaturityDate</t>
   </si>
   <si>
+    <t>Facility_AgreementDate</t>
+  </si>
+  <si>
+    <t>Facility_EffectiveDate</t>
+  </si>
+  <si>
     <t>Facility_ExpiryDate</t>
   </si>
   <si>
     <t>Facility_MaturityDate</t>
   </si>
   <si>
-    <t>Facility_AgreementDate</t>
-  </si>
-  <si>
-    <t>Facility_EffectiveDate</t>
-  </si>
-  <si>
     <t>Facility_RiskType</t>
   </si>
   <si>
@@ -698,16 +711,13 @@
     <t>Facility_BorrowerMaturity</t>
   </si>
   <si>
-    <t>Entity</t>
-  </si>
-  <si>
     <t>Establish Facility</t>
   </si>
   <si>
     <t>REVOLVING CASH ADV FAC</t>
   </si>
   <si>
-    <t>REVOLVING CASH ADV FAC47128</t>
+    <t>REVOLVING CASH ADV FAC57133</t>
   </si>
   <si>
     <t>Revolver</t>
@@ -719,10 +729,10 @@
     <t>734</t>
   </si>
   <si>
-    <t>15-Jun-2025</t>
-  </si>
-  <si>
-    <t>12-Jun-2023</t>
+    <t>26-Nov-2018</t>
+  </si>
+  <si>
+    <t>22-Oct-2025</t>
   </si>
   <si>
     <t>Loan</t>
@@ -866,6 +876,51 @@
     <t>Code</t>
   </si>
   <si>
+    <t>PayType</t>
+  </si>
+  <si>
+    <t>ActualDueDate</t>
+  </si>
+  <si>
+    <t>AdjustedDueDate</t>
+  </si>
+  <si>
+    <t>CycleFrequency</t>
+  </si>
+  <si>
+    <t>EffectiveDate</t>
+  </si>
+  <si>
+    <t>FloatRateStartDate</t>
+  </si>
+  <si>
+    <t>Accrue</t>
+  </si>
+  <si>
+    <t>CycleNumber</t>
+  </si>
+  <si>
+    <t>Effective_Date</t>
+  </si>
+  <si>
+    <t>Host_Bank</t>
+  </si>
+  <si>
+    <t>Borrower_RemittanceDesc</t>
+  </si>
+  <si>
+    <t>Borrower_RemittanceInstruction</t>
+  </si>
+  <si>
+    <t>Lender_ShortName</t>
+  </si>
+  <si>
+    <t>Lender_RemittanceDesc</t>
+  </si>
+  <si>
+    <t>Lender_RemittanceInstruction</t>
+  </si>
+  <si>
     <t>Establish Ongoing Fee</t>
   </si>
   <si>
@@ -956,6 +1011,42 @@
     <t>BBSY</t>
   </si>
   <si>
+    <t>Pay In Advance</t>
+  </si>
+  <si>
+    <t>01-Jan-2020</t>
+  </si>
+  <si>
+    <t>02-Jan-2020</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>01-Oct-2019</t>
+  </si>
+  <si>
+    <t>to the actual due date</t>
+  </si>
+  <si>
+    <t>27-Dec-2019</t>
+  </si>
+  <si>
+    <t>CB001 - Commonwealth Bank of Australia - DBU</t>
+  </si>
+  <si>
+    <t>11122233</t>
+  </si>
+  <si>
+    <t>LEND01292020</t>
+  </si>
+  <si>
+    <t>1000188515</t>
+  </si>
+  <si>
+    <t>DDA1</t>
+  </si>
+  <si>
     <t>LenderType1</t>
   </si>
   <si>
@@ -1040,9 +1131,6 @@
     <t>Non-Host Bank</t>
   </si>
   <si>
-    <t>LEND01292020</t>
-  </si>
-  <si>
     <t>Origination</t>
   </si>
   <si>
@@ -1055,9 +1143,6 @@
     <t>100</t>
   </si>
   <si>
-    <t>26-Nov-2018</t>
-  </si>
-  <si>
     <t>AGENCY,  Lending and Leasing</t>
   </si>
   <si>
@@ -1073,7 +1158,7 @@
     <t>150,000,000.00</t>
   </si>
   <si>
-    <t>13-Jun-2023</t>
+    <t>21-Oct-2023</t>
   </si>
   <si>
     <t>Commonwealth Bank of Australia -DBU</t>
@@ -1083,14 +1168,279 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Loan_Alias</t>
+  </si>
+  <si>
+    <t>SubAdd_Days</t>
+  </si>
+  <si>
+    <t>Notice_Type</t>
+  </si>
+  <si>
+    <t>Notice_Customer_LegalName</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>NoticeGroup_UserID</t>
+  </si>
+  <si>
+    <t>Notice_Identifier</t>
+  </si>
+  <si>
+    <t>Correlation_ID</t>
+  </si>
+  <si>
+    <t>Thru_Date</t>
+  </si>
+  <si>
+    <t>From_Date</t>
+  </si>
+  <si>
+    <t>Search_By</t>
+  </si>
+  <si>
+    <t>Notice_Method</t>
+  </si>
+  <si>
+    <t>BEO_StartDate</t>
+  </si>
+  <si>
+    <t>BEO_EndDate</t>
+  </si>
+  <si>
+    <t>Customer_IdentifiedBy</t>
+  </si>
+  <si>
+    <t>Zero_TempPath</t>
+  </si>
+  <si>
+    <t>InputFilePath</t>
+  </si>
+  <si>
+    <t>XML_File</t>
+  </si>
+  <si>
+    <t>Temp_File</t>
+  </si>
+  <si>
+    <t>InputJson</t>
+  </si>
+  <si>
+    <t>ExpectedJson</t>
+  </si>
+  <si>
+    <t>OutputFilePath</t>
+  </si>
+  <si>
+    <t>Field_Name</t>
+  </si>
+  <si>
+    <t>OutputAPIResponse</t>
+  </si>
+  <si>
+    <t>messageId</t>
+  </si>
+  <si>
+    <t>CallBack_Status</t>
+  </si>
+  <si>
+    <t>CallBack_Status2</t>
+  </si>
+  <si>
+    <t>errorMessage</t>
+  </si>
+  <si>
+    <t>errorMessage_2</t>
+  </si>
+  <si>
+    <t>Notice_Status</t>
+  </si>
+  <si>
+    <t>WIP_ExceptionQueueDescription</t>
+  </si>
+  <si>
+    <t>XML_NoticeType</t>
+  </si>
+  <si>
+    <t>Loan_PricingOption</t>
+  </si>
+  <si>
+    <t>Balance_Amount</t>
+  </si>
+  <si>
+    <t>Rate_Basis</t>
+  </si>
+  <si>
+    <t>Loan_BaseRate</t>
+  </si>
+  <si>
+    <t>Loan_Spread</t>
+  </si>
+  <si>
+    <t>Notice_AllInRate</t>
+  </si>
+  <si>
+    <t>Notice_Amount</t>
+  </si>
+  <si>
+    <t>Loan_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Loan_MaturityDate</t>
+  </si>
+  <si>
+    <t>Loan_GlobalOriginal</t>
+  </si>
+  <si>
+    <t>Loan_RateSetting_DueDate</t>
+  </si>
+  <si>
+    <t>Loan_RepricingDate</t>
+  </si>
+  <si>
+    <t>EffectiveDate_PrincipalPayment</t>
+  </si>
+  <si>
+    <t>Outstanding_PrincipalPayment</t>
+  </si>
+  <si>
+    <t>EffectiveDate_InterestPayment</t>
+  </si>
+  <si>
+    <t>ProjectedCycleDue_InterestPayment</t>
+  </si>
+  <si>
+    <t>StartDate_Principal</t>
+  </si>
+  <si>
+    <t>EndDate_Principal</t>
+  </si>
+  <si>
+    <t>Days_Principal</t>
+  </si>
+  <si>
+    <t>Principal_Amount</t>
+  </si>
+  <si>
+    <t>StartDate_Interest</t>
+  </si>
+  <si>
+    <t>EndDate_Interest</t>
+  </si>
+  <si>
+    <t>Days_Interest</t>
+  </si>
+  <si>
+    <t>Interest_Amount</t>
+  </si>
+  <si>
+    <t>Fee_Type</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>API_COR_TC02_SENT_Fee Payment Notice</t>
+  </si>
+  <si>
+    <t>Line Fee in Advance Payment Notice</t>
+  </si>
+  <si>
+    <t>George Lippman</t>
+  </si>
+  <si>
+    <t>LOANIQ01</t>
+  </si>
+  <si>
+    <t>I=EMTYCZ</t>
+  </si>
+  <si>
+    <t>LIQ-I=EMTYCZ-I=EMTY8M-6</t>
+  </si>
+  <si>
+    <t>2026-10-19 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2020-10-20 00:00:00.000</t>
+  </si>
+  <si>
+    <t>Notice Identifier</t>
+  </si>
+  <si>
+    <t>2021-01-16 00:13:20.698</t>
+  </si>
+  <si>
+    <t>Legal Name</t>
+  </si>
+  <si>
+    <t>C:\Users\u720589\AppData\Local\Temp\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\API\Input\Correspondence\</t>
+  </si>
+  <si>
+    <t>API_COR_TC02</t>
+  </si>
+  <si>
+    <t>TEMP_API_COR_TC02</t>
+  </si>
+  <si>
+    <t>INPUT_API_COR_TC02</t>
+  </si>
+  <si>
+    <t>EXP_API_COR_TC02</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\API\Output\Correspondence\</t>
+  </si>
+  <si>
+    <t>correlationId</t>
+  </si>
+  <si>
+    <t>API_COR_RESPONSE_TC2</t>
+  </si>
+  <si>
+    <t>SENT</t>
+  </si>
+  <si>
+    <t>Sent</t>
+  </si>
+  <si>
+    <t>FEE INVOICE</t>
+  </si>
+  <si>
+    <t>0.440000%</t>
+  </si>
+  <si>
+    <t>554,520.55</t>
+  </si>
+  <si>
+    <t>Fee Payment Notice</t>
+  </si>
+  <si>
+    <t>MAKAUI03</t>
+  </si>
+  <si>
+    <t>I=EMTYCY</t>
+  </si>
+  <si>
+    <t>LIQ-I=EMTYCY-I=EMTY8M-2</t>
+  </si>
+  <si>
+    <t>2021-01-15 18:14:18.644</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
+    <numFmt numFmtId="165" formatCode="00000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1166,7 +1516,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1194,6 +1544,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,7 +1605,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
@@ -1320,9 +1694,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1370,6 +1741,51 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1695,117 +2111,119 @@
     <tabColor rgb="FF92D050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CG23"/>
+  <dimension ref="A1:CJ23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="CG1" activePane="topRight" state="frozen"/>
       <selection activeCell="D17" sqref="D17"/>
-      <selection pane="topRight" activeCell="AM1" sqref="AM1:AM1048576"/>
+      <selection pane="topRight" activeCell="CK10" sqref="CK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="38.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="6" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="23" style="6" customWidth="1"/>
-    <col min="14" max="14" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="15.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="10.42578125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.140625" style="6" customWidth="1"/>
-    <col min="31" max="31" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="34.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21" style="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="24.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="27.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21" style="6" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="29" style="6" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="23.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="32.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="31.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="25.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="26.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="22.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="35.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="34.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="31.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22" style="6" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="20.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="21.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="22" style="6" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="24" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="6" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="23" style="6" customWidth="1"/>
+    <col min="15" max="15" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="15.28515625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.140625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="34.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="29" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="32.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="31.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="25.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="26.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="35.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="34.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="31.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22" style="6" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="21.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="22" style="6" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="24" style="6" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="21.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="86" max="104" width="9.140625" style="6" customWidth="1"/>
-    <col min="105" max="16384" width="9.140625" style="6"/>
+    <col min="85" max="85" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="89" max="115" width="9.140625" style="6" customWidth="1"/>
+    <col min="116" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -1901,19 +2319,19 @@
       <c r="AJ1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AK1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AL1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AN1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AO1" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AP1" s="10" t="s">
@@ -2009,10 +2427,10 @@
       <c r="BT1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="20" t="s">
+      <c r="BU1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="20" t="s">
+      <c r="BV1" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BW1" s="20" t="s">
@@ -2027,13 +2445,13 @@
       <c r="BZ1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="10" t="s">
+      <c r="CA1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="10" t="s">
+      <c r="CB1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="10" t="s">
+      <c r="CC1" s="11" t="s">
         <v>80</v>
       </c>
       <c r="CD1" s="10" t="s">
@@ -2048,281 +2466,299 @@
       <c r="CG1" s="10" t="s">
         <v>84</v>
       </c>
+      <c r="CH1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="10" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="13">
+        <v>94</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="13">
         <v>655544444</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>94</v>
+      <c r="M2" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="S2" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="V2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="T2" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="V2" s="14">
+      <c r="W2" s="14">
         <v>2000</v>
       </c>
-      <c r="W2" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="X2" s="18"/>
+      <c r="X2" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="AA2" s="18"/>
       <c r="AB2" s="14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AC2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>131100</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW2" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK2" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ2" s="5">
-        <v>131100</v>
-      </c>
-      <c r="AR2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU2" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="BC2" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="BD2" s="5" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="BE2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BI2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="BF2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI2" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="BJ2" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BK2" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL2" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BM2" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BN2" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BO2" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BP2" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BQ2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BR2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="BT2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="BU2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BV2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="BR2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="BS2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BT2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="BU2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="BV2" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="BW2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BX2" s="5" t="s">
-        <v>87</v>
+        <v>134</v>
+      </c>
+      <c r="BX2" s="5">
+        <v>7330</v>
       </c>
       <c r="BY2" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="BZ2" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="CA2" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="CB2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="CC2" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="CC2" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="CD2" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CE2" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CF2" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="CG2" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="CG2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="CH2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="CI2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="CJ2" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="6" t="s">
-        <v>140</v>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="3" t="s">
-        <v>141</v>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="4" t="s">
-        <v>142</v>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="7" t="s">
-        <v>143</v>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AU2" r:id="rId1" display="IwantToTest@nowhere.com.test" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AW2" r:id="rId1" display="IwantToTest@nowhere.com.test" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
@@ -2337,8 +2773,8 @@
   </sheetPr>
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,8 +2814,8 @@
     <col min="33" max="33" width="25.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="13.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="36" max="54" width="9.140625" style="22" customWidth="1"/>
-    <col min="55" max="16384" width="9.140625" style="22"/>
+    <col min="36" max="62" width="9.140625" style="22" customWidth="1"/>
+    <col min="63" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2390,210 +2826,210 @@
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="S1" s="23" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="T1" s="23" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="U1" s="23" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="V1" s="23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W1" s="23" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="X1" s="23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Y1" s="23" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Z1" s="23" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AA1" s="23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AC1" s="23" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AD1" s="23" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AE1" s="23" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AF1" s="23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AG1" s="23" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AH1" s="24" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AI1" s="24" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M2" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="U2" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="T2" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>108</v>
-      </c>
       <c r="V2" s="29" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="W2" s="29" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="X2" s="29" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Y2" s="29" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Z2" s="25" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AB2" s="25" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AC2" s="25" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AD2" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE2" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF2" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="AE2" s="25" t="s">
+      <c r="AG2" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="AF2" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG2" s="25" t="s">
-        <v>193</v>
-      </c>
       <c r="AH2" s="26" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AI2" s="26" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -2607,7 +3043,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -2648,7 +3084,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:E1048576"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2667,10 +3103,10 @@
     <col min="12" max="12" width="21" style="34" customWidth="1"/>
     <col min="13" max="13" width="26.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="34" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" style="34" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" style="34" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" style="34" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" style="34" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="34" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="34" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="34" customWidth="1"/>
     <col min="19" max="19" width="16.85546875" style="34" customWidth="1"/>
     <col min="20" max="20" width="25.5703125" style="34" customWidth="1"/>
     <col min="21" max="21" width="16.85546875" style="34" customWidth="1"/>
@@ -2683,8 +3119,8 @@
     <col min="28" max="28" width="20.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="24.7109375" style="34" customWidth="1"/>
     <col min="30" max="30" width="6" style="35" bestFit="1" customWidth="1"/>
-    <col min="31" max="42" width="9.140625" style="35" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="35"/>
+    <col min="31" max="50" width="9.140625" style="35" customWidth="1"/>
+    <col min="51" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2695,180 +3131,180 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M1" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="U1" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>204</v>
-      </c>
       <c r="V1" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AD1" s="10" t="s">
-        <v>224</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="N2" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="O2" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="P2" s="37" t="s">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="O2" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="P2" s="55" t="s">
+        <v>234</v>
       </c>
       <c r="Q2" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="R2" s="38" t="s">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>235</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="V2" s="36" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="W2" s="36" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y2" s="36" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AC2" s="36" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AD2" s="36" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2880,314 +3316,440 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BH4" sqref="BH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="24" max="29" width="10.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16" style="35" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="22.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="35" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="6.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="46" max="54" width="10.42578125" style="35" customWidth="1"/>
-    <col min="55" max="16384" width="10.42578125" style="35"/>
+    <col min="3" max="3" width="39.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="10.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="10.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="22.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18" style="35" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14" style="35" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="42.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="30.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="64" max="69" width="10.42578125" style="35" customWidth="1"/>
+    <col min="70" max="16384" width="10.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="F1" s="41" t="s">
+      <c r="C1" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="K1" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="L1" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="M1" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="O1" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="P1" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="Q1" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="R1" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="S1" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="T1" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="U1" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="V1" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="W1" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="X1" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="Z1" s="41" t="s">
+      <c r="Y1" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="Z1" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AA1" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AB1" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AC1" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AD1" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="AF1" s="41" t="s">
+      <c r="AE1" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="AG1" s="41" t="s">
+      <c r="AF1" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="AH1" s="41" t="s">
+      <c r="AG1" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="AI1" s="41" t="s">
+      <c r="AH1" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="AJ1" s="41" t="s">
+      <c r="AI1" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="AK1" s="41" t="s">
+      <c r="AJ1" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="AL1" s="41" t="s">
+      <c r="AK1" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="AM1" s="41" t="s">
+      <c r="AL1" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="AN1" s="41" t="s">
+      <c r="AM1" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="AO1" s="41" t="s">
+      <c r="AN1" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="AP1" s="41" t="s">
+      <c r="AO1" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="AQ1" s="41" t="s">
+      <c r="AP1" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="AR1" s="41" t="s">
+      <c r="AQ1" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="AS1" s="41" t="s">
+      <c r="AR1" s="40" t="s">
         <v>279</v>
       </c>
+      <c r="AS1" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT1" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="AU1" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="AV1" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="AW1" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="AX1" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="AY1" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AZ1" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="BA1" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="BB1" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="BC1" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="BD1" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="BE1" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="BF1" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="BG1" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="BH1" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="BI1" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="BK1" s="9" t="s">
+        <v>297</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>196</v>
+    <row r="2" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>300</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>290</v>
+        <v>306</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>135</v>
+        <v>314</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>138</v>
+        <v>316</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>295</v>
+        <v>139</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>297</v>
+        <v>142</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="AE2" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="AF2" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="AG2" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="AG2" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="AH2" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI2" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AK2" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL2" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="AM2" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN2" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="AO2" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP2" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="AH2" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="AI2" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="AJ2" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="AK2" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="AL2" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM2" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN2" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="AO2" s="46" t="s">
-        <v>305</v>
-      </c>
-      <c r="AP2" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="AQ2" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR2" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="AS2" s="46" t="s">
-        <v>309</v>
+      <c r="AQ2" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="AR2" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="AS2" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="AT2" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="AU2" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="AV2" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="AW2" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="AX2" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="AY2" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="AZ2" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="BA2" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="BB2" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="BC2" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD2" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="BF2" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="BG2" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="BH2" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI2" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="BJ2" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="BK2" s="57" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3200,11 +3762,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI1" sqref="AI1:AI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3216,19 +3778,19 @@
     <col min="5" max="5" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="50" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="21" style="51" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" style="51" customWidth="1"/>
-    <col min="12" max="13" width="19.42578125" style="51" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" style="51" customWidth="1"/>
-    <col min="18" max="19" width="21.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" style="51" customWidth="1"/>
-    <col min="21" max="21" width="26.28515625" style="51" customWidth="1"/>
-    <col min="22" max="22" width="34.85546875" style="51" customWidth="1"/>
+    <col min="10" max="10" width="21" style="50" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" style="50" customWidth="1"/>
+    <col min="12" max="13" width="19.42578125" style="50" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="50" customWidth="1"/>
+    <col min="18" max="19" width="21.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" style="50" customWidth="1"/>
+    <col min="21" max="21" width="26.28515625" style="50" customWidth="1"/>
+    <col min="22" max="22" width="34.85546875" style="50" customWidth="1"/>
     <col min="23" max="23" width="17.7109375" style="6" customWidth="1"/>
     <col min="24" max="24" width="26.28515625" style="6" customWidth="1"/>
     <col min="25" max="25" width="34.85546875" style="6" customWidth="1"/>
@@ -3237,12 +3799,12 @@
     <col min="28" max="28" width="20" style="6" customWidth="1"/>
     <col min="29" max="29" width="36.140625" style="6" customWidth="1"/>
     <col min="30" max="30" width="18.140625" style="6" customWidth="1"/>
-    <col min="31" max="31" width="12.7109375" style="52" customWidth="1"/>
-    <col min="32" max="32" width="11.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" style="51" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" style="51" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="23" style="6" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="40" width="9.140625" style="35" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="35"/>
+    <col min="36" max="49" width="9.140625" style="35" customWidth="1"/>
+    <col min="50" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3253,212 +3815,759 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>317</v>
-      </c>
-      <c r="M1" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="N1" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="O1" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="P1" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q1" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="R1" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="S1" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="T1" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="U1" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="V1" s="47" t="s">
-        <v>326</v>
+        <v>345</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="N1" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="O1" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="P1" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q1" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="R1" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="S1" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="T1" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="U1" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="V1" s="46" t="s">
+        <v>356</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>330</v>
+        <v>358</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>360</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="AE1" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AF1" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AG1" s="9" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="AH1" s="9" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F2" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" s="47" t="s">
         <v>337</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>338</v>
-      </c>
       <c r="I2" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="R2" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="T2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="U2" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="W2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="O2" s="50" t="s">
-        <v>343</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="R2" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="X2" s="15" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="Y2" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z2" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA2" s="54" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB2" s="54" t="s">
-        <v>343</v>
-      </c>
-      <c r="AC2" s="49" t="s">
-        <v>350</v>
-      </c>
-      <c r="AD2" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="AE2" s="54" t="s">
-        <v>343</v>
-      </c>
-      <c r="AF2" s="54" t="s">
-        <v>343</v>
-      </c>
-      <c r="AG2" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH2" s="49" t="s">
-        <v>352</v>
+        <v>109</v>
+      </c>
+      <c r="Z2" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA2" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB2" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC2" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD2" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE2" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF2" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG2" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH2" s="48" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="P3" s="53"/>
+      <c r="P3" s="52"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:BK3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="63" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="63" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="21.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="54.5703125" style="63" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" style="63" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" style="63" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5703125" style="63" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="56.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.5703125" style="63" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="30.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="29.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="29.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="34.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18" style="35" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="64" max="116" width="9.140625" style="35" customWidth="1"/>
+    <col min="117" max="16384" width="9.140625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>383</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>387</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>389</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>390</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>394</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC1" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD1" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE1" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="AF1" s="61" t="s">
+        <v>408</v>
+      </c>
+      <c r="AG1" s="60" t="s">
+        <v>409</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ1" s="62" t="s">
+        <v>412</v>
+      </c>
+      <c r="AK1" s="62" t="s">
+        <v>413</v>
+      </c>
+      <c r="AL1" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="AO1" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="AP1" s="58" t="s">
+        <v>417</v>
+      </c>
+      <c r="AQ1" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="AR1" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="AS1" s="58" t="s">
+        <v>420</v>
+      </c>
+      <c r="AT1" s="58" t="s">
+        <v>421</v>
+      </c>
+      <c r="AU1" s="58" t="s">
+        <v>422</v>
+      </c>
+      <c r="AV1" s="58" t="s">
+        <v>423</v>
+      </c>
+      <c r="AW1" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="AX1" s="58" t="s">
+        <v>425</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="AZ1" s="58" t="s">
+        <v>427</v>
+      </c>
+      <c r="BA1" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="BB1" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="BC1" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="BD1" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="BE1" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="BF1" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="BG1" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="BH1" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI1" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ1" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="BK1" s="58" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="65"/>
+      <c r="F2" s="44">
+        <v>1095</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="M2" s="66" t="s">
+        <v>445</v>
+      </c>
+      <c r="N2" s="66" t="s">
+        <v>446</v>
+      </c>
+      <c r="O2" s="67" t="s">
+        <v>447</v>
+      </c>
+      <c r="P2" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="66" t="s">
+        <v>448</v>
+      </c>
+      <c r="R2" s="66" t="s">
+        <v>448</v>
+      </c>
+      <c r="S2" s="67" t="s">
+        <v>449</v>
+      </c>
+      <c r="T2" s="67" t="s">
+        <v>450</v>
+      </c>
+      <c r="U2" s="67" t="s">
+        <v>451</v>
+      </c>
+      <c r="V2" s="67" t="s">
+        <v>452</v>
+      </c>
+      <c r="W2" s="67" t="s">
+        <v>453</v>
+      </c>
+      <c r="X2" s="67" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y2" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z2" s="67" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA2" s="67" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB2" s="67" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="67" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="67" t="s">
+        <v>460</v>
+      </c>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM2" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN2" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="AR2" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="44"/>
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44" t="s">
+        <v>464</v>
+      </c>
+      <c r="BK2" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="44">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="44">
+        <v>1095</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>465</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>445</v>
+      </c>
+      <c r="N3" s="66" t="s">
+        <v>446</v>
+      </c>
+      <c r="O3" s="67" t="s">
+        <v>447</v>
+      </c>
+      <c r="P3" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q3" s="66" t="s">
+        <v>468</v>
+      </c>
+      <c r="R3" s="66" t="s">
+        <v>468</v>
+      </c>
+      <c r="S3" s="67" t="s">
+        <v>449</v>
+      </c>
+      <c r="T3" s="67" t="s">
+        <v>450</v>
+      </c>
+      <c r="U3" s="67" t="s">
+        <v>451</v>
+      </c>
+      <c r="V3" s="67" t="s">
+        <v>452</v>
+      </c>
+      <c r="W3" s="67" t="s">
+        <v>453</v>
+      </c>
+      <c r="X3" s="67" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y3" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z3" s="67" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA3" s="67" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB3" s="67" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="67" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="67" t="s">
+        <v>460</v>
+      </c>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM3" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN3" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="AR3" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="AS3" s="44"/>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="44"/>
+      <c r="BE3" s="44"/>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="44"/>
+      <c r="BH3" s="44"/>
+      <c r="BI3" s="44"/>
+      <c r="BJ3" s="44" t="s">
+        <v>464</v>
+      </c>
+      <c r="BK3" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2595" yWindow="1470" windowWidth="25365" windowHeight="5820" tabRatio="877" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="315" yWindow="345" windowWidth="11340" windowHeight="10275" tabRatio="877" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED02_FacilitySetup" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED08_OngoingFeeSetup" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SYND02_PrimaryAllocation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correspondence" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV01_LoanDrawdown" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correspondence" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -178,7 +179,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -186,8 +187,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
@@ -366,8 +368,26 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Hyperlink 2" xfId="2"/>
@@ -375,6 +395,7 @@
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 3 2" xfId="5"/>
     <cellStyle name="Normal 3 2 2" xfId="6"/>
+    <cellStyle name="Normal 3 3" xfId="7"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -685,7 +706,7 @@
   <dimension ref="A1:CK23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="CF1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="BX1" activePane="topRight" state="frozen"/>
       <selection activeCell="D17" sqref="D17"/>
       <selection pane="topRight" activeCell="BI5" sqref="BI5"/>
     </sheetView>
@@ -778,8 +799,8 @@
     <col width="7.85546875" bestFit="1" customWidth="1" style="6" min="87" max="87"/>
     <col width="16.42578125" bestFit="1" customWidth="1" style="6" min="88" max="88"/>
     <col width="8.85546875" bestFit="1" customWidth="1" style="6" min="89" max="89"/>
-    <col width="9.140625" customWidth="1" style="6" min="90" max="121"/>
-    <col width="9.140625" customWidth="1" style="6" min="122" max="16384"/>
+    <col width="9.140625" customWidth="1" style="6" min="90" max="125"/>
+    <col width="9.140625" customWidth="1" style="6" min="126" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1252,7 +1273,7 @@
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>2312351</t>
+          <t>1711726</t>
         </is>
       </c>
       <c r="F2" s="5" t="inlineStr">
@@ -1416,12 +1437,12 @@
       </c>
       <c r="AO2" s="5" t="inlineStr">
         <is>
-          <t>LLA Pty Ltd 2312351</t>
+          <t>LLA Pty Ltd 1711726</t>
         </is>
       </c>
       <c r="AP2" s="5" t="inlineStr">
         <is>
-          <t>LLA PTY LTD 2312351</t>
+          <t>LLA PTY LTD 1711726</t>
         </is>
       </c>
       <c r="AQ2" s="5" t="inlineStr">
@@ -1704,7 +1725,7 @@
   <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1744,8 +1765,8 @@
     <col width="25.85546875" bestFit="1" customWidth="1" style="22" min="33" max="33"/>
     <col width="13.140625" bestFit="1" customWidth="1" style="22" min="34" max="34"/>
     <col width="11.5703125" bestFit="1" customWidth="1" style="22" min="35" max="35"/>
-    <col width="9.140625" customWidth="1" style="22" min="36" max="67"/>
-    <col width="9.140625" customWidth="1" style="22" min="68" max="16384"/>
+    <col width="9.140625" customWidth="1" style="22" min="36" max="71"/>
+    <col width="9.140625" customWidth="1" style="22" min="72" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customFormat="1" customHeight="1" s="21">
@@ -1948,12 +1969,12 @@
       </c>
       <c r="E2" s="29" t="inlineStr">
         <is>
-          <t>LLA SYND DEAL AUD 500M 23NOV1825144</t>
+          <t>LLA SYND DEAL AUD 500M 23NOV1858142</t>
         </is>
       </c>
       <c r="F2" s="29" t="inlineStr">
         <is>
-          <t>LLA SYND_25145</t>
+          <t>LLA SYND_58143</t>
         </is>
       </c>
       <c r="G2" s="29" t="inlineStr">
@@ -2153,47 +2174,47 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="34" min="1" max="1"/>
+    <col width="6.5703125" bestFit="1" customWidth="1" style="34" min="1" max="1"/>
     <col width="15.42578125" bestFit="1" customWidth="1" style="34" min="2" max="2"/>
     <col width="26.7109375" bestFit="1" customWidth="1" style="34" min="3" max="3"/>
     <col width="39.5703125" bestFit="1" customWidth="1" style="34" min="4" max="4"/>
     <col width="31.85546875" bestFit="1" customWidth="1" style="34" min="5" max="5"/>
-    <col width="14.42578125" customWidth="1" style="34" min="6" max="6"/>
+    <col width="14.7109375" bestFit="1" customWidth="1" style="34" min="6" max="6"/>
     <col width="13.140625" customWidth="1" style="34" min="7" max="7"/>
-    <col width="24.7109375" customWidth="1" style="34" min="8" max="8"/>
-    <col width="16.85546875" customWidth="1" style="34" min="9" max="9"/>
+    <col width="25.7109375" bestFit="1" customWidth="1" style="34" min="8" max="8"/>
+    <col width="17.140625" bestFit="1" customWidth="1" style="34" min="9" max="9"/>
     <col width="23.140625" bestFit="1" customWidth="1" style="34" min="10" max="10"/>
     <col width="36.28515625" bestFit="1" customWidth="1" style="34" min="11" max="11"/>
     <col width="21" customWidth="1" style="34" min="12" max="12"/>
     <col width="26.85546875" bestFit="1" customWidth="1" style="35" min="13" max="13"/>
-    <col width="28.42578125" bestFit="1" customWidth="1" style="35" min="14" max="14"/>
-    <col width="23.140625" customWidth="1" style="34" min="15" max="15"/>
+    <col width="28.7109375" bestFit="1" customWidth="1" style="35" min="14" max="14"/>
+    <col width="23.5703125" bestFit="1" customWidth="1" style="34" min="15" max="15"/>
     <col width="20.7109375" customWidth="1" style="34" min="16" max="16"/>
     <col width="18.7109375" customWidth="1" style="34" min="17" max="17"/>
     <col width="20.28515625" customWidth="1" style="34" min="18" max="18"/>
-    <col width="16.85546875" customWidth="1" style="34" min="19" max="19"/>
-    <col width="25.5703125" customWidth="1" style="34" min="20" max="20"/>
-    <col width="16.85546875" customWidth="1" style="34" min="21" max="21"/>
+    <col width="17.140625" bestFit="1" customWidth="1" style="34" min="19" max="19"/>
+    <col width="26" bestFit="1" customWidth="1" style="34" min="20" max="20"/>
+    <col width="17.140625" bestFit="1" customWidth="1" style="34" min="21" max="21"/>
     <col width="25.5703125" customWidth="1" style="34" min="22" max="22"/>
-    <col width="24.42578125" customWidth="1" style="34" min="23" max="23"/>
-    <col width="20.85546875" customWidth="1" style="34" min="24" max="24"/>
+    <col width="25" bestFit="1" customWidth="1" style="34" min="23" max="23"/>
+    <col width="21.85546875" bestFit="1" customWidth="1" style="34" min="24" max="24"/>
     <col width="19.42578125" customWidth="1" style="34" min="25" max="25"/>
-    <col width="21.7109375" customWidth="1" style="34" min="26" max="26"/>
+    <col width="22.140625" bestFit="1" customWidth="1" style="34" min="26" max="26"/>
     <col width="36.28515625" bestFit="1" customWidth="1" style="34" min="27" max="27"/>
     <col width="20.140625" bestFit="1" customWidth="1" style="34" min="28" max="28"/>
-    <col width="24.7109375" customWidth="1" style="34" min="29" max="29"/>
-    <col width="6" bestFit="1" customWidth="1" style="35" min="30" max="30"/>
-    <col width="9.140625" customWidth="1" style="35" min="31" max="55"/>
-    <col width="9.140625" customWidth="1" style="35" min="56" max="16384"/>
+    <col width="25.28515625" bestFit="1" customWidth="1" style="34" min="29" max="29"/>
+    <col width="6.140625" bestFit="1" customWidth="1" style="35" min="30" max="30"/>
+    <col width="9.140625" customWidth="1" style="35" min="31" max="59"/>
+    <col width="9.140625" customWidth="1" style="35" min="60" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="32">
@@ -2366,12 +2387,12 @@
       </c>
       <c r="D2" s="37" t="inlineStr">
         <is>
-          <t>LLA SYND DEAL AUD 500M 23NOV1825144</t>
+          <t>LLA SYND DEAL AUD 500M 23NOV1858142</t>
         </is>
       </c>
       <c r="E2" s="37" t="inlineStr">
         <is>
-          <t>REVOLVING CASH ADV FAC35119</t>
+          <t>REVOLVING CASH ADV FAC05119</t>
         </is>
       </c>
       <c r="F2" s="36" t="inlineStr">
@@ -2466,7 +2487,7 @@
       </c>
       <c r="X2" s="5" t="inlineStr">
         <is>
-          <t>LLA PTY LTD 2312351</t>
+          <t>LLA PTY LTD 1711726</t>
         </is>
       </c>
       <c r="Y2" s="36" t="inlineStr">
@@ -2486,7 +2507,7 @@
       </c>
       <c r="AB2" s="5" t="inlineStr">
         <is>
-          <t>LLA PTY LTD 2312351</t>
+          <t>LLA PTY LTD 1711726</t>
         </is>
       </c>
       <c r="AC2" s="36" t="inlineStr">
@@ -2513,58 +2534,60 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:BM2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" bestFit="1" customWidth="1" style="35" min="1" max="1"/>
-    <col width="20.140625" bestFit="1" customWidth="1" style="35" min="2" max="2"/>
-    <col width="39.5703125" bestFit="1" customWidth="1" style="34" min="3" max="3"/>
-    <col width="31.85546875" bestFit="1" customWidth="1" style="34" min="4" max="4"/>
-    <col width="15.5703125" bestFit="1" customWidth="1" style="35" min="5" max="5"/>
-    <col width="14.5703125" bestFit="1" customWidth="1" style="35" min="6" max="6"/>
-    <col width="21.7109375" bestFit="1" customWidth="1" style="35" min="7" max="7"/>
-    <col width="17.85546875" bestFit="1" customWidth="1" style="35" min="8" max="8"/>
-    <col width="22.42578125" bestFit="1" customWidth="1" style="35" min="9" max="9"/>
-    <col width="10.7109375" bestFit="1" customWidth="1" style="35" min="10" max="13"/>
-    <col width="25.85546875" bestFit="1" customWidth="1" style="35" min="14" max="14"/>
-    <col width="20.140625" bestFit="1" customWidth="1" style="35" min="15" max="15"/>
-    <col width="10.5703125" bestFit="1" customWidth="1" style="35" min="16" max="17"/>
-    <col width="11.140625" bestFit="1" customWidth="1" style="35" min="18" max="19"/>
-    <col width="9.7109375" bestFit="1" customWidth="1" style="35" min="20" max="25"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" style="35" min="26" max="31"/>
-    <col width="16" bestFit="1" customWidth="1" style="35" min="32" max="32"/>
-    <col width="22.85546875" bestFit="1" customWidth="1" style="35" min="33" max="35"/>
-    <col width="19.7109375" bestFit="1" customWidth="1" style="35" min="36" max="36"/>
-    <col width="16.7109375" bestFit="1" customWidth="1" style="35" min="37" max="39"/>
-    <col width="18.42578125" bestFit="1" customWidth="1" style="35" min="40" max="40"/>
-    <col width="12.28515625" bestFit="1" customWidth="1" style="35" min="41" max="41"/>
-    <col width="17.85546875" bestFit="1" customWidth="1" style="35" min="42" max="42"/>
-    <col width="8.5703125" bestFit="1" customWidth="1" style="35" min="43" max="45"/>
-    <col width="18" bestFit="1" customWidth="1" style="35" min="46" max="46"/>
-    <col width="6.140625" bestFit="1" customWidth="1" style="35" min="47" max="47"/>
-    <col width="14" bestFit="1" customWidth="1" style="35" min="48" max="48"/>
-    <col width="14.5703125" bestFit="1" customWidth="1" style="35" min="49" max="49"/>
-    <col width="16.7109375" bestFit="1" customWidth="1" style="35" min="50" max="50"/>
-    <col width="15.7109375" bestFit="1" customWidth="1" style="35" min="51" max="51"/>
-    <col width="12.85546875" bestFit="1" customWidth="1" style="35" min="52" max="52"/>
-    <col width="18.42578125" bestFit="1" customWidth="1" style="35" min="53" max="53"/>
-    <col width="19.28515625" bestFit="1" customWidth="1" style="35" min="54" max="54"/>
-    <col width="13.28515625" bestFit="1" customWidth="1" style="35" min="55" max="55"/>
-    <col width="14" bestFit="1" customWidth="1" style="6" min="56" max="56"/>
-    <col width="42.42578125" bestFit="1" customWidth="1" style="35" min="57" max="57"/>
-    <col width="20.85546875" bestFit="1" customWidth="1" style="6" min="58" max="58"/>
-    <col width="25.5703125" bestFit="1" customWidth="1" style="6" min="59" max="59"/>
-    <col width="30.85546875" bestFit="1" customWidth="1" style="6" min="60" max="60"/>
-    <col width="18.85546875" bestFit="1" customWidth="1" style="6" min="61" max="61"/>
-    <col width="23.42578125" bestFit="1" customWidth="1" style="6" min="62" max="62"/>
-    <col width="28.7109375" bestFit="1" customWidth="1" style="6" min="63" max="63"/>
-    <col width="10.42578125" customWidth="1" style="35" min="64" max="74"/>
-    <col width="10.42578125" customWidth="1" style="35" min="75" max="16384"/>
+    <col width="6.42578125" bestFit="1" customWidth="1" style="35" min="1" max="1"/>
+    <col width="21" bestFit="1" customWidth="1" style="35" min="2" max="2"/>
+    <col width="41.28515625" bestFit="1" customWidth="1" style="34" min="3" max="3"/>
+    <col width="33.140625" bestFit="1" customWidth="1" style="34" min="4" max="4"/>
+    <col width="16.28515625" bestFit="1" customWidth="1" style="35" min="5" max="5"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="35" min="6" max="6"/>
+    <col width="22.5703125" bestFit="1" customWidth="1" style="35" min="7" max="7"/>
+    <col width="18.5703125" bestFit="1" customWidth="1" style="35" min="8" max="8"/>
+    <col width="23.42578125" bestFit="1" customWidth="1" style="35" min="9" max="9"/>
+    <col width="11.140625" bestFit="1" customWidth="1" style="35" min="10" max="13"/>
+    <col width="27" bestFit="1" customWidth="1" style="35" min="14" max="14"/>
+    <col width="21" bestFit="1" customWidth="1" style="35" min="15" max="15"/>
+    <col width="11" bestFit="1" customWidth="1" style="35" min="16" max="17"/>
+    <col width="11.5703125" bestFit="1" customWidth="1" style="35" min="18" max="19"/>
+    <col width="10.140625" bestFit="1" customWidth="1" style="35" min="20" max="25"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="35" min="26" max="31"/>
+    <col width="16.7109375" bestFit="1" customWidth="1" style="35" min="32" max="32"/>
+    <col width="23.85546875" bestFit="1" customWidth="1" style="35" min="33" max="35"/>
+    <col width="20.5703125" bestFit="1" customWidth="1" style="35" min="36" max="36"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" style="35" min="37" max="39"/>
+    <col width="19.140625" bestFit="1" customWidth="1" style="35" min="40" max="40"/>
+    <col width="12.85546875" bestFit="1" customWidth="1" style="35" min="41" max="41"/>
+    <col width="18.5703125" bestFit="1" customWidth="1" style="35" min="42" max="42"/>
+    <col width="8.85546875" bestFit="1" customWidth="1" style="35" min="43" max="45"/>
+    <col width="18.7109375" bestFit="1" customWidth="1" style="35" min="46" max="46"/>
+    <col width="6.42578125" bestFit="1" customWidth="1" style="35" min="47" max="47"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" style="35" min="48" max="48"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="35" min="49" max="49"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" style="35" min="50" max="50"/>
+    <col width="16.42578125" bestFit="1" customWidth="1" style="35" min="51" max="51"/>
+    <col width="13.42578125" bestFit="1" customWidth="1" style="35" min="52" max="52"/>
+    <col width="19.140625" bestFit="1" customWidth="1" style="35" min="53" max="53"/>
+    <col width="20.140625" bestFit="1" customWidth="1" style="35" min="54" max="54"/>
+    <col width="13.85546875" bestFit="1" customWidth="1" style="35" min="55" max="55"/>
+    <col width="24" bestFit="1" customWidth="1" style="6" min="56" max="56"/>
+    <col width="22.28515625" bestFit="1" customWidth="1" style="6" min="57" max="57"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" style="6" min="58" max="58"/>
+    <col width="44.140625" bestFit="1" customWidth="1" style="35" min="59" max="59"/>
+    <col width="21.7109375" bestFit="1" customWidth="1" style="6" min="60" max="60"/>
+    <col width="26.5703125" bestFit="1" customWidth="1" style="6" min="61" max="61"/>
+    <col width="32.140625" bestFit="1" customWidth="1" style="6" min="62" max="62"/>
+    <col width="19.5703125" bestFit="1" customWidth="1" style="6" min="63" max="63"/>
+    <col width="24.42578125" bestFit="1" customWidth="1" style="6" min="64" max="64"/>
+    <col width="29.85546875" bestFit="1" customWidth="1" style="6" min="65" max="65"/>
+    <col width="10.42578125" customWidth="1" style="35" min="66" max="80"/>
+    <col width="10.42578125" customWidth="1" style="35" min="81" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2845,40 +2868,50 @@
       </c>
       <c r="BD1" s="9" t="inlineStr">
         <is>
+          <t>Expected_CycleDueAmt</t>
+        </is>
+      </c>
+      <c r="BE1" s="9" t="inlineStr">
+        <is>
+          <t>Expected_PaidToDate</t>
+        </is>
+      </c>
+      <c r="BF1" s="9" t="inlineStr">
+        <is>
           <t>Effective_Date</t>
         </is>
       </c>
-      <c r="BE1" s="8" t="inlineStr">
+      <c r="BG1" s="8" t="inlineStr">
         <is>
           <t>Host_Bank</t>
         </is>
       </c>
-      <c r="BF1" s="12" t="inlineStr">
+      <c r="BH1" s="12" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="BG1" s="9" t="inlineStr">
+      <c r="BI1" s="9" t="inlineStr">
         <is>
           <t>Borrower_RemittanceDesc</t>
         </is>
       </c>
-      <c r="BH1" s="9" t="inlineStr">
+      <c r="BJ1" s="9" t="inlineStr">
         <is>
           <t>Borrower_RemittanceInstruction</t>
         </is>
       </c>
-      <c r="BI1" s="9" t="inlineStr">
+      <c r="BK1" s="9" t="inlineStr">
         <is>
           <t>Lender_ShortName</t>
         </is>
       </c>
-      <c r="BJ1" s="9" t="inlineStr">
+      <c r="BL1" s="9" t="inlineStr">
         <is>
           <t>Lender_RemittanceDesc</t>
         </is>
       </c>
-      <c r="BK1" s="9" t="inlineStr">
+      <c r="BM1" s="9" t="inlineStr">
         <is>
           <t>Lender_RemittanceInstruction</t>
         </is>
@@ -2897,12 +2930,12 @@
       </c>
       <c r="C2" s="37" t="inlineStr">
         <is>
-          <t>LLA SYND DEAL AUD 500M 23NOV1825144</t>
+          <t>LLA SYND DEAL AUD 500M 23NOV1858142</t>
         </is>
       </c>
       <c r="D2" s="37" t="inlineStr">
         <is>
-          <t>REVOLVING CASH ADV FAC35119</t>
+          <t>REVOLVING CASH ADV FAC05119</t>
         </is>
       </c>
       <c r="E2" s="43" t="inlineStr">
@@ -3162,40 +3195,50 @@
       </c>
       <c r="BD2" s="57" t="inlineStr">
         <is>
+          <t>-554,520.55</t>
+        </is>
+      </c>
+      <c r="BE2" s="57" t="inlineStr">
+        <is>
+          <t>554,520.55</t>
+        </is>
+      </c>
+      <c r="BF2" s="57" t="inlineStr">
+        <is>
           <t>27-Dec-2019</t>
         </is>
       </c>
-      <c r="BE2" s="5" t="inlineStr">
+      <c r="BG2" s="5" t="inlineStr">
         <is>
           <t>CB001 - Commonwealth Bank of Australia - DBU</t>
         </is>
       </c>
-      <c r="BF2" s="57" t="inlineStr">
-        <is>
-          <t>LLA PTY LTD 2312351</t>
-        </is>
-      </c>
-      <c r="BG2" s="57" t="inlineStr">
+      <c r="BH2" s="57" t="inlineStr">
+        <is>
+          <t>LLA PTY LTD 1711726</t>
+        </is>
+      </c>
+      <c r="BI2" s="57" t="inlineStr">
         <is>
           <t>12233345</t>
         </is>
       </c>
-      <c r="BH2" s="57" t="inlineStr">
+      <c r="BJ2" s="57" t="inlineStr">
         <is>
           <t>ABC12233345</t>
         </is>
       </c>
-      <c r="BI2" s="57" t="inlineStr">
+      <c r="BK2" s="57" t="inlineStr">
         <is>
           <t>LEND01292020</t>
         </is>
       </c>
-      <c r="BJ2" s="57" t="inlineStr">
+      <c r="BL2" s="57" t="inlineStr">
         <is>
           <t>1000188515</t>
         </is>
       </c>
-      <c r="BK2" s="57" t="inlineStr">
+      <c r="BM2" s="57" t="inlineStr">
         <is>
           <t>DDA1</t>
         </is>
@@ -3216,7 +3259,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3253,11 +3296,11 @@
     <col width="11.140625" bestFit="1" customWidth="1" style="51" min="32" max="32"/>
     <col width="23" bestFit="1" customWidth="1" style="6" min="33" max="33"/>
     <col width="18.85546875" bestFit="1" customWidth="1" style="6" min="34" max="34"/>
-    <col width="9.140625" customWidth="1" style="35" min="36" max="54"/>
-    <col width="9.140625" customWidth="1" style="35" min="55" max="16384"/>
+    <col width="9.140625" customWidth="1" style="35" min="36" max="58"/>
+    <col width="9.140625" customWidth="1" style="35" min="59" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customFormat="1" customHeight="1" s="32">
+    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="32">
       <c r="A1" s="8" t="inlineStr">
         <is>
           <t>rowid</t>
@@ -3442,12 +3485,12 @@
       </c>
       <c r="C2" s="37" t="inlineStr">
         <is>
-          <t>LLA SYND DEAL AUD 500M 23NOV1825144</t>
+          <t>LLA SYND DEAL AUD 500M 23NOV1858142</t>
         </is>
       </c>
       <c r="D2" s="37" t="inlineStr">
         <is>
-          <t>REVOLVING CASH ADV FAC35119</t>
+          <t>REVOLVING CASH ADV FAC05119</t>
         </is>
       </c>
       <c r="E2" s="37" t="inlineStr">
@@ -3617,9 +3660,692 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AG4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="6.140625" bestFit="1" customWidth="1" style="35" min="1" max="1"/>
+    <col width="51.28515625" bestFit="1" customWidth="1" style="35" min="2" max="2"/>
+    <col width="11" bestFit="1" customWidth="1" style="35" min="3" max="3"/>
+    <col width="17.5703125" bestFit="1" customWidth="1" style="35" min="4" max="4"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" style="35" min="5" max="5"/>
+    <col width="21.42578125" bestFit="1" customWidth="1" style="35" min="6" max="6"/>
+    <col width="23.5703125" bestFit="1" customWidth="1" style="35" min="7" max="7"/>
+    <col width="18.7109375" bestFit="1" customWidth="1" style="35" min="8" max="8"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" style="35" min="9" max="9"/>
+    <col width="25.28515625" bestFit="1" customWidth="1" style="35" min="10" max="10"/>
+    <col width="23.85546875" bestFit="1" customWidth="1" style="35" min="11" max="11"/>
+    <col width="21.42578125" bestFit="1" customWidth="1" style="35" min="12" max="12"/>
+    <col width="19.7109375" bestFit="1" customWidth="1" style="35" min="13" max="13"/>
+    <col width="20.85546875" bestFit="1" customWidth="1" style="35" min="14" max="14"/>
+    <col width="25.5703125" bestFit="1" customWidth="1" style="35" min="15" max="15"/>
+    <col width="30.85546875" bestFit="1" customWidth="1" style="35" min="16" max="16"/>
+    <col width="18.85546875" bestFit="1" customWidth="1" style="35" min="17" max="17"/>
+    <col width="23.42578125" bestFit="1" customWidth="1" style="35" min="18" max="18"/>
+    <col width="28.7109375" bestFit="1" customWidth="1" style="35" min="19" max="19"/>
+    <col width="14.7109375" bestFit="1" customWidth="1" style="35" min="20" max="20"/>
+    <col width="16.5703125" bestFit="1" customWidth="1" style="35" min="21" max="21"/>
+    <col width="23.85546875" bestFit="1" customWidth="1" style="35" min="22" max="22"/>
+    <col width="26.5703125" bestFit="1" customWidth="1" style="35" min="23" max="23"/>
+    <col width="26" bestFit="1" customWidth="1" style="35" min="24" max="24"/>
+    <col width="26.7109375" bestFit="1" customWidth="1" style="35" min="25" max="25"/>
+    <col width="24.5703125" bestFit="1" customWidth="1" style="35" min="26" max="26"/>
+    <col width="28.5703125" bestFit="1" customWidth="1" style="35" min="27" max="27"/>
+    <col width="19.5703125" bestFit="1" customWidth="1" style="35" min="28" max="28"/>
+    <col width="21.42578125" bestFit="1" customWidth="1" style="35" min="29" max="29"/>
+    <col width="19.85546875" bestFit="1" customWidth="1" style="35" min="30" max="30"/>
+    <col width="31.28515625" bestFit="1" customWidth="1" style="35" min="31" max="31"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" style="35" min="32" max="32"/>
+    <col width="29.140625" bestFit="1" customWidth="1" style="35" min="33" max="33"/>
+    <col width="9.140625" customWidth="1" style="35" min="34" max="35"/>
+    <col width="9.140625" customWidth="1" style="35" min="36" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="68" t="inlineStr">
+        <is>
+          <t>rowid</t>
+        </is>
+      </c>
+      <c r="B1" s="69" t="inlineStr">
+        <is>
+          <t>Test_Case</t>
+        </is>
+      </c>
+      <c r="C1" s="70" t="inlineStr">
+        <is>
+          <t>Loan_Alias</t>
+        </is>
+      </c>
+      <c r="D1" s="71" t="inlineStr">
+        <is>
+          <t>Outstanding_Type</t>
+        </is>
+      </c>
+      <c r="E1" s="71" t="inlineStr">
+        <is>
+          <t>Pricing_Option</t>
+        </is>
+      </c>
+      <c r="F1" s="71" t="inlineStr">
+        <is>
+          <t>Outstanding_Currency</t>
+        </is>
+      </c>
+      <c r="G1" s="71" t="inlineStr">
+        <is>
+          <t>Loan_RequestedAmount</t>
+        </is>
+      </c>
+      <c r="H1" s="71" t="inlineStr">
+        <is>
+          <t>Loan_EffectiveDate</t>
+        </is>
+      </c>
+      <c r="I1" s="71" t="inlineStr">
+        <is>
+          <t>Loan_MaturityDate</t>
+        </is>
+      </c>
+      <c r="J1" s="71" t="inlineStr">
+        <is>
+          <t>Loan_RepricingFrequency</t>
+        </is>
+      </c>
+      <c r="K1" s="71" t="inlineStr">
+        <is>
+          <t>Loan_IntCycleFrequency</t>
+        </is>
+      </c>
+      <c r="L1" s="71" t="inlineStr">
+        <is>
+          <t>Loan_Accrue</t>
+        </is>
+      </c>
+      <c r="M1" s="71" t="inlineStr">
+        <is>
+          <t>Loan_RepricingDate</t>
+        </is>
+      </c>
+      <c r="N1" s="71" t="inlineStr">
+        <is>
+          <t>Borrower_ShortName</t>
+        </is>
+      </c>
+      <c r="O1" s="71" t="inlineStr">
+        <is>
+          <t>Borrower_RemittanceDesc</t>
+        </is>
+      </c>
+      <c r="P1" s="71" t="inlineStr">
+        <is>
+          <t>Borrower_RemittanceInstruction</t>
+        </is>
+      </c>
+      <c r="Q1" s="71" t="inlineStr">
+        <is>
+          <t>Lender_ShortName</t>
+        </is>
+      </c>
+      <c r="R1" s="71" t="inlineStr">
+        <is>
+          <t>Lender_RemittanceDesc</t>
+        </is>
+      </c>
+      <c r="S1" s="71" t="inlineStr">
+        <is>
+          <t>Lender_RemittanceInstruction</t>
+        </is>
+      </c>
+      <c r="T1" s="71" t="inlineStr">
+        <is>
+          <t>Notice_Subject</t>
+        </is>
+      </c>
+      <c r="U1" s="71" t="inlineStr">
+        <is>
+          <t>Notice_Comment</t>
+        </is>
+      </c>
+      <c r="V1" s="71" t="inlineStr">
+        <is>
+          <t>AcceptRate_FromPricing</t>
+        </is>
+      </c>
+      <c r="W1" s="71" t="inlineStr">
+        <is>
+          <t>Expctd_LoanGlobalOriginal</t>
+        </is>
+      </c>
+      <c r="X1" s="71" t="inlineStr">
+        <is>
+          <t>Expctd_LoanGlobalCurrent</t>
+        </is>
+      </c>
+      <c r="Y1" s="71" t="inlineStr">
+        <is>
+          <t>Expctd_LoanHostBankGross</t>
+        </is>
+      </c>
+      <c r="Z1" s="71" t="inlineStr">
+        <is>
+          <t>Expctd_LoanHostBankNet</t>
+        </is>
+      </c>
+      <c r="AA1" s="71" t="inlineStr">
+        <is>
+          <t>Expctd_LoanCurrentBaseRate</t>
+        </is>
+      </c>
+      <c r="AB1" s="71" t="inlineStr">
+        <is>
+          <t>Expctd_LoanSpread</t>
+        </is>
+      </c>
+      <c r="AC1" s="71" t="inlineStr">
+        <is>
+          <t>Expctd_LoanAllInRate</t>
+        </is>
+      </c>
+      <c r="AD1" s="71" t="inlineStr">
+        <is>
+          <t>Loan_PaymentMode</t>
+        </is>
+      </c>
+      <c r="AE1" s="71" t="inlineStr">
+        <is>
+          <t>Expctd_Loan_IntCycleFrequency</t>
+        </is>
+      </c>
+      <c r="AF1" s="71" t="inlineStr">
+        <is>
+          <t>BorrowerBaseRate</t>
+        </is>
+      </c>
+      <c r="AG1" s="71" t="inlineStr">
+        <is>
+          <t>AcceptRate_FromInterpolation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="72" t="inlineStr">
+        <is>
+          <t>Create Drawdown for Capitalization Facility - Outstanding A</t>
+        </is>
+      </c>
+      <c r="C2" s="44" t="inlineStr">
+        <is>
+          <t>60002483</t>
+        </is>
+      </c>
+      <c r="D2" s="44" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="E2" s="44" t="inlineStr">
+        <is>
+          <t>BBSY - Bid</t>
+        </is>
+      </c>
+      <c r="F2" s="44" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="G2" s="65" t="inlineStr">
+        <is>
+          <t>90,000,000.00</t>
+        </is>
+      </c>
+      <c r="H2" s="65" t="inlineStr">
+        <is>
+          <t>16-Dec-2019</t>
+        </is>
+      </c>
+      <c r="I2" s="65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J2" s="44" t="inlineStr">
+        <is>
+          <t>1 Months</t>
+        </is>
+      </c>
+      <c r="K2" s="44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L2" s="44" t="inlineStr">
+        <is>
+          <t>to the adjusted due date</t>
+        </is>
+      </c>
+      <c r="M2" s="65" t="inlineStr">
+        <is>
+          <t>03-Jan-2020</t>
+        </is>
+      </c>
+      <c r="N2" s="57" t="inlineStr">
+        <is>
+          <t>LLA PTY LTD 1711726</t>
+        </is>
+      </c>
+      <c r="O2" s="57" t="inlineStr">
+        <is>
+          <t>12233345</t>
+        </is>
+      </c>
+      <c r="P2" s="57" t="inlineStr">
+        <is>
+          <t>ABC12233345</t>
+        </is>
+      </c>
+      <c r="Q2" s="57" t="inlineStr">
+        <is>
+          <t>LEND01292020</t>
+        </is>
+      </c>
+      <c r="R2" s="57" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="S2" s="57" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="T2" s="73" t="n"/>
+      <c r="U2" s="73" t="n"/>
+      <c r="V2" s="44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W2" s="65" t="inlineStr">
+        <is>
+          <t>90,000,000.00</t>
+        </is>
+      </c>
+      <c r="X2" s="65" t="inlineStr">
+        <is>
+          <t>90,000,000.00</t>
+        </is>
+      </c>
+      <c r="Y2" s="65" t="inlineStr">
+        <is>
+          <t>27,000,000.00</t>
+        </is>
+      </c>
+      <c r="Z2" s="65" t="inlineStr">
+        <is>
+          <t>27,000,000.00</t>
+        </is>
+      </c>
+      <c r="AA2" s="65" t="inlineStr">
+        <is>
+          <t>0.899600%</t>
+        </is>
+      </c>
+      <c r="AB2" s="65" t="inlineStr">
+        <is>
+          <t>0.660000%</t>
+        </is>
+      </c>
+      <c r="AC2" s="65" t="inlineStr">
+        <is>
+          <t>1.559600%</t>
+        </is>
+      </c>
+      <c r="AD2" s="44" t="inlineStr">
+        <is>
+          <t>Pay in Arrears</t>
+        </is>
+      </c>
+      <c r="AE2" s="44" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AF2" s="44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AG2" s="73" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="72" t="inlineStr">
+        <is>
+          <t>Create Drawdown for Capitalization Facility - Outstanding B</t>
+        </is>
+      </c>
+      <c r="C3" s="44" t="inlineStr">
+        <is>
+          <t>60002074</t>
+        </is>
+      </c>
+      <c r="D3" s="44" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="E3" s="44" t="inlineStr">
+        <is>
+          <t>BBSY - Bid</t>
+        </is>
+      </c>
+      <c r="F3" s="44" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="G3" s="65" t="inlineStr">
+        <is>
+          <t>2,900,000.00</t>
+        </is>
+      </c>
+      <c r="H3" s="65" t="inlineStr">
+        <is>
+          <t>18-Dec-2019</t>
+        </is>
+      </c>
+      <c r="I3" s="65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J3" s="44" t="inlineStr">
+        <is>
+          <t>1 Months</t>
+        </is>
+      </c>
+      <c r="K3" s="44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L3" s="44" t="inlineStr">
+        <is>
+          <t>to the adjusted due date</t>
+        </is>
+      </c>
+      <c r="M3" s="65" t="inlineStr">
+        <is>
+          <t>03-Jan-2020</t>
+        </is>
+      </c>
+      <c r="N3" s="57" t="inlineStr">
+        <is>
+          <t>LLA PTY LTD 1711726</t>
+        </is>
+      </c>
+      <c r="O3" s="57" t="inlineStr">
+        <is>
+          <t>12233345</t>
+        </is>
+      </c>
+      <c r="P3" s="57" t="inlineStr">
+        <is>
+          <t>ABC12233345</t>
+        </is>
+      </c>
+      <c r="Q3" s="57" t="inlineStr">
+        <is>
+          <t>LEND01292020</t>
+        </is>
+      </c>
+      <c r="R3" s="57" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="S3" s="57" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="T3" s="73" t="n"/>
+      <c r="U3" s="73" t="n"/>
+      <c r="V3" s="44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W3" s="65" t="inlineStr">
+        <is>
+          <t>2,900,000.00</t>
+        </is>
+      </c>
+      <c r="X3" s="65" t="inlineStr">
+        <is>
+          <t>2,900,000.00</t>
+        </is>
+      </c>
+      <c r="Y3" s="65" t="inlineStr">
+        <is>
+          <t>2,900,000.00</t>
+        </is>
+      </c>
+      <c r="Z3" s="65" t="inlineStr">
+        <is>
+          <t>2,900,000.00</t>
+        </is>
+      </c>
+      <c r="AA3" s="65" t="inlineStr">
+        <is>
+          <t>0.842300%</t>
+        </is>
+      </c>
+      <c r="AB3" s="65" t="inlineStr">
+        <is>
+          <t>0.725000%</t>
+        </is>
+      </c>
+      <c r="AC3" s="65" t="inlineStr">
+        <is>
+          <t>1.567300%</t>
+        </is>
+      </c>
+      <c r="AD3" s="44" t="inlineStr">
+        <is>
+          <t>Pay in Arrears</t>
+        </is>
+      </c>
+      <c r="AE3" s="44" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AF3" s="44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AG3" s="73" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="65" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="72" t="inlineStr">
+        <is>
+          <t>Create Drawdown for Capitalization Facility - Outstanding C</t>
+        </is>
+      </c>
+      <c r="C4" s="44" t="inlineStr">
+        <is>
+          <t>60002074</t>
+        </is>
+      </c>
+      <c r="D4" s="44" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="E4" s="44" t="inlineStr">
+        <is>
+          <t>BBSY - Bid</t>
+        </is>
+      </c>
+      <c r="F4" s="44" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="G4" s="65" t="inlineStr">
+        <is>
+          <t>2,900,000.00</t>
+        </is>
+      </c>
+      <c r="H4" s="65" t="inlineStr">
+        <is>
+          <t>18-Dec-2019</t>
+        </is>
+      </c>
+      <c r="I4" s="65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J4" s="44" t="inlineStr">
+        <is>
+          <t>1 Months</t>
+        </is>
+      </c>
+      <c r="K4" s="44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L4" s="44" t="inlineStr">
+        <is>
+          <t>to the adjusted due date</t>
+        </is>
+      </c>
+      <c r="M4" s="65" t="inlineStr">
+        <is>
+          <t>03-Jan-2020</t>
+        </is>
+      </c>
+      <c r="N4" s="57" t="inlineStr">
+        <is>
+          <t>LLA PTY LTD 1711726</t>
+        </is>
+      </c>
+      <c r="O4" s="57" t="inlineStr">
+        <is>
+          <t>12233345</t>
+        </is>
+      </c>
+      <c r="P4" s="57" t="inlineStr">
+        <is>
+          <t>ABC12233345</t>
+        </is>
+      </c>
+      <c r="Q4" s="57" t="inlineStr">
+        <is>
+          <t>LEND01292020</t>
+        </is>
+      </c>
+      <c r="R4" s="57" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="S4" s="57" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="T4" s="73" t="n"/>
+      <c r="U4" s="73" t="n"/>
+      <c r="V4" s="44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W4" s="65" t="inlineStr">
+        <is>
+          <t>2,900,000.00</t>
+        </is>
+      </c>
+      <c r="X4" s="65" t="inlineStr">
+        <is>
+          <t>2,900,000.00</t>
+        </is>
+      </c>
+      <c r="Y4" s="65" t="inlineStr">
+        <is>
+          <t>2,900,000.00</t>
+        </is>
+      </c>
+      <c r="Z4" s="65" t="inlineStr">
+        <is>
+          <t>2,900,000.00</t>
+        </is>
+      </c>
+      <c r="AA4" s="65" t="inlineStr">
+        <is>
+          <t>0.842300%</t>
+        </is>
+      </c>
+      <c r="AB4" s="65" t="inlineStr">
+        <is>
+          <t>0.725000%</t>
+        </is>
+      </c>
+      <c r="AC4" s="65" t="inlineStr">
+        <is>
+          <t>1.567300%</t>
+        </is>
+      </c>
+      <c r="AD4" s="44" t="inlineStr">
+        <is>
+          <t>Pay in Arrears</t>
+        </is>
+      </c>
+      <c r="AE4" s="44" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AF4" s="44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AG4" s="73" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3684,8 +4410,8 @@
     <col width="15.85546875" bestFit="1" customWidth="1" style="35" min="61" max="61"/>
     <col width="18.28515625" bestFit="1" customWidth="1" style="35" min="62" max="62"/>
     <col width="9.140625" bestFit="1" customWidth="1" style="35" min="63" max="63"/>
-    <col width="9.140625" customWidth="1" style="35" min="64" max="121"/>
-    <col width="9.140625" customWidth="1" style="35" min="122" max="16384"/>
+    <col width="9.140625" customWidth="1" style="35" min="64" max="125"/>
+    <col width="9.140625" customWidth="1" style="35" min="126" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -4018,12 +4744,12 @@
       </c>
       <c r="C2" s="37" t="inlineStr">
         <is>
-          <t>LLA SYND DEAL AUD 500M 23NOV1825144</t>
+          <t>LLA SYND DEAL AUD 500M 23NOV1858142</t>
         </is>
       </c>
       <c r="D2" s="37" t="inlineStr">
         <is>
-          <t>REVOLVING CASH ADV FAC35119</t>
+          <t>REVOLVING CASH ADV FAC05119</t>
         </is>
       </c>
       <c r="E2" s="64" t="n"/>
@@ -4227,12 +4953,12 @@
       </c>
       <c r="C3" s="37" t="inlineStr">
         <is>
-          <t>LLA SYND DEAL AUD 500M 23NOV1825144</t>
+          <t>LLA SYND DEAL AUD 500M 23NOV1858142</t>
         </is>
       </c>
       <c r="D3" s="37" t="inlineStr">
         <is>
-          <t>REVOLVING CASH ADV FAC35119</t>
+          <t>REVOLVING CASH ADV FAC05119</t>
         </is>
       </c>
       <c r="E3" s="64" t="n"/>
@@ -4246,7 +4972,7 @@
       </c>
       <c r="H3" s="44" t="inlineStr">
         <is>
-          <t>LLA PTY LTD 2312351</t>
+          <t>LLA PTY LTD 1711726</t>
         </is>
       </c>
       <c r="I3" s="44" t="inlineStr">

--- a/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91B6F66-83D6-4D76-AC74-4A4C0E642617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C03C99-73AB-4F2B-A022-74AB9BAD836F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="780" windowWidth="28770" windowHeight="5625" tabRatio="877" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="540">
   <si>
     <t>rowid</t>
   </si>
@@ -1315,6 +1315,30 @@
     <t>Create Drawdown for Capitalization Facility - Outstanding B</t>
   </si>
   <si>
+    <t>60002632</t>
+  </si>
+  <si>
+    <t>310,000,000.00</t>
+  </si>
+  <si>
+    <t>08-Nov-2019</t>
+  </si>
+  <si>
+    <t>2 Months</t>
+  </si>
+  <si>
+    <t>06-Jan-2020</t>
+  </si>
+  <si>
+    <t>1.040000%</t>
+  </si>
+  <si>
+    <t>1.700000%</t>
+  </si>
+  <si>
+    <t>Create Drawdown for Capitalization Facility - Outstanding C</t>
+  </si>
+  <si>
     <t>60002074</t>
   </si>
   <si>
@@ -1333,9 +1357,6 @@
     <t>1.567300%</t>
   </si>
   <si>
-    <t>Create Drawdown for Capitalization Facility - Outstanding C</t>
-  </si>
-  <si>
     <t>SubAdd_Days</t>
   </si>
   <si>
@@ -1622,6 +1643,9 @@
   </si>
   <si>
     <t>2021-01-26 15:09:04.979</t>
+  </si>
+  <si>
+    <t>93,000,000.00</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1820,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
@@ -1987,6 +2011,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2409,8 +2436,8 @@
     <col min="87" max="87" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="90" max="135" width="9.140625" style="6" customWidth="1"/>
-    <col min="136" max="16384" width="9.140625" style="6"/>
+    <col min="90" max="137" width="9.140625" style="6" customWidth="1"/>
+    <col min="138" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" x14ac:dyDescent="0.2">
@@ -3023,8 +3050,8 @@
     <col min="33" max="33" width="25.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="13.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="36" max="81" width="9.140625" style="22" customWidth="1"/>
-    <col min="82" max="16384" width="9.140625" style="22"/>
+    <col min="36" max="83" width="9.140625" style="22" customWidth="1"/>
+    <col min="84" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3328,8 +3355,8 @@
     <col min="28" max="28" width="20.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="25.28515625" style="34" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="31" max="69" width="9.140625" style="35" customWidth="1"/>
-    <col min="70" max="16384" width="9.140625" style="35"/>
+    <col min="31" max="71" width="9.140625" style="35" customWidth="1"/>
+    <col min="72" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3577,8 +3604,8 @@
     <col min="63" max="63" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="29.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="66" max="90" width="10.42578125" style="35" customWidth="1"/>
-    <col min="91" max="16384" width="10.42578125" style="35"/>
+    <col min="66" max="92" width="10.42578125" style="35" customWidth="1"/>
+    <col min="93" max="16384" width="10.42578125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.2">
@@ -4026,8 +4053,8 @@
     <col min="32" max="32" width="11.140625" style="51" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="23" style="6" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="68" width="9.140625" style="35" customWidth="1"/>
-    <col min="69" max="16384" width="9.140625" style="35"/>
+    <col min="36" max="70" width="9.140625" style="35" customWidth="1"/>
+    <col min="71" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4252,8 +4279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4291,8 +4318,8 @@
     <col min="31" max="31" width="31.28515625" style="35" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="18.28515625" style="35" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="29.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="34" max="45" width="9.140625" style="35" customWidth="1"/>
-    <col min="46" max="16384" width="9.140625" style="35"/>
+    <col min="34" max="47" width="9.140625" style="35" customWidth="1"/>
+    <col min="48" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
@@ -4520,7 +4547,7 @@
         <v>122</v>
       </c>
       <c r="J3" s="44" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="K3" s="44" t="s">
         <v>122</v>
@@ -4529,7 +4556,7 @@
         <v>418</v>
       </c>
       <c r="M3" s="70" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>118</v>
@@ -4561,25 +4588,25 @@
         <v>430</v>
       </c>
       <c r="Y3" s="70" t="s">
-        <v>430</v>
+        <v>539</v>
       </c>
       <c r="Z3" s="70" t="s">
-        <v>430</v>
-      </c>
-      <c r="AA3" s="70" t="s">
-        <v>432</v>
+        <v>539</v>
+      </c>
+      <c r="AA3" s="73" t="s">
+        <v>434</v>
       </c>
       <c r="AB3" s="70" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="AC3" s="70" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AD3" s="44" t="s">
         <v>426</v>
       </c>
       <c r="AE3" s="44" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AF3" s="44" t="s">
         <v>122</v>
@@ -4591,10 +4618,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="D4" s="44" t="s">
         <v>239</v>
@@ -4606,10 +4633,10 @@
         <v>130</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="H4" s="70" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="I4" s="70" t="s">
         <v>122</v>
@@ -4650,25 +4677,25 @@
         <v>421</v>
       </c>
       <c r="W4" s="70" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="X4" s="70" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="Y4" s="70" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="Z4" s="70" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="AA4" s="70" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="AB4" s="70" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="AC4" s="70" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="AD4" s="44" t="s">
         <v>426</v>
@@ -4691,7 +4718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AX7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+    <sheetView topLeftCell="AK1" workbookViewId="0">
       <selection activeCell="AQ9" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
@@ -4744,8 +4771,8 @@
     <col min="48" max="48" width="19.7109375" style="35" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="20.7109375" style="35" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="9.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="51" max="122" width="9.140625" style="35" customWidth="1"/>
-    <col min="123" max="16384" width="9.140625" style="35"/>
+    <col min="51" max="124" width="9.140625" style="35" customWidth="1"/>
+    <col min="125" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4765,118 +4792,118 @@
         <v>388</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="K1" s="58" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="L1" s="58" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="M1" s="58" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="N1" s="58" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="P1" s="58" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="Q1" s="58" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="R1" s="58" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="AC1" s="71" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="AD1" s="71" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AE1" s="71" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AF1" s="72" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="AG1" s="71" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="AH1" s="8" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="AI1" s="60" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="AJ1" s="60" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="AK1" s="60" t="s">
         <v>246</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="AN1" s="58" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="AO1" s="58" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="AP1" s="58" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="AQ1" s="58" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="AR1" s="58" t="s">
         <v>393</v>
@@ -4885,19 +4912,19 @@
         <v>394</v>
       </c>
       <c r="AT1" s="58" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="AU1" s="58" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="AV1" s="58" t="s">
         <v>398</v>
       </c>
       <c r="AW1" s="8" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="AX1" s="58" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4905,7 +4932,7 @@
         <v>89</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>187</v>
@@ -4918,83 +4945,83 @@
         <v>1095</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="H2" s="57" t="s">
         <v>344</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="J2" s="44" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="K2" s="44" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="L2" s="44" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="M2" s="70" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N2" s="70" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="O2" s="63" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="P2" s="63" t="s">
         <v>124</v>
       </c>
       <c r="Q2" s="70" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="R2" s="70" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="S2" s="63" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="T2" s="63" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="U2" s="63" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="V2" s="63" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="W2" s="63" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="X2" s="63" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="Y2" s="63" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="Z2" s="63" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="AA2" s="63" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="AB2" s="63" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="AC2" s="63"/>
       <c r="AD2" s="63" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="AE2" s="63"/>
       <c r="AF2" s="63"/>
       <c r="AG2" s="63"/>
       <c r="AH2" s="63" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AI2" s="44" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="AJ2" s="62"/>
       <c r="AK2" s="44" t="s">
@@ -5009,7 +5036,7 @@
       <c r="AN2" s="62"/>
       <c r="AO2" s="62"/>
       <c r="AP2" s="44" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="AQ2" s="44" t="s">
         <v>195</v>
@@ -5020,7 +5047,7 @@
       <c r="AU2" s="62"/>
       <c r="AV2" s="62"/>
       <c r="AW2" s="44" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="AX2" s="44" t="s">
         <v>130</v>
@@ -5031,7 +5058,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>187</v>
@@ -5044,83 +5071,83 @@
         <v>1095</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>117</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="J3" s="44" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="L3" s="44" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="M3" s="70" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="N3" s="70" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="O3" s="63" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="P3" s="63" t="s">
         <v>124</v>
       </c>
       <c r="Q3" s="70" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="R3" s="70" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="S3" s="63" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="T3" s="63" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="U3" s="63" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="V3" s="63" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="W3" s="63" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="X3" s="63" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="Y3" s="63" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="Z3" s="63" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="AA3" s="63" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="AB3" s="63" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="AC3" s="63"/>
       <c r="AD3" s="63" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="63"/>
       <c r="AG3" s="63"/>
       <c r="AH3" s="63" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AI3" s="44" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="AJ3" s="62"/>
       <c r="AK3" s="44" t="s">
@@ -5135,7 +5162,7 @@
       <c r="AN3" s="62"/>
       <c r="AO3" s="62"/>
       <c r="AP3" s="44" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="AQ3" s="44" t="s">
         <v>195</v>
@@ -5146,7 +5173,7 @@
       <c r="AU3" s="62"/>
       <c r="AV3" s="62"/>
       <c r="AW3" s="44" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="AX3" s="44" t="s">
         <v>130</v>
@@ -5157,7 +5184,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>187</v>
@@ -5172,83 +5199,83 @@
         <v>1095</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="H4" s="57" t="s">
         <v>344</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="J4" s="44" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="K4" s="44" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="L4" s="44" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="M4" s="70" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N4" s="70" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="O4" s="63" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="P4" s="63" t="s">
         <v>124</v>
       </c>
       <c r="Q4" s="70" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="R4" s="70" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="S4" s="63" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="T4" s="63" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="U4" s="63" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="V4" s="63" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="W4" s="63" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="X4" s="63" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="Y4" s="63" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="Z4" s="63" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="AA4" s="63" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="AB4" s="63" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="AC4" s="63"/>
       <c r="AD4" s="63" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="AE4" s="63"/>
       <c r="AF4" s="63"/>
       <c r="AG4" s="63"/>
       <c r="AH4" s="63" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AI4" s="44" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="AJ4" s="44"/>
       <c r="AK4" s="62"/>
@@ -5276,7 +5303,7 @@
         <v>419</v>
       </c>
       <c r="AW4" s="44" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="AX4" s="44" t="s">
         <v>130</v>
@@ -5287,7 +5314,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>187</v>
@@ -5302,83 +5329,83 @@
         <v>1095</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>117</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="K5" s="44" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="L5" s="44" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="M5" s="70" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N5" s="70" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="O5" s="63" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="P5" s="63" t="s">
         <v>124</v>
       </c>
       <c r="Q5" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="R5" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="S5" s="63" t="s">
+        <v>494</v>
+      </c>
+      <c r="T5" s="63" t="s">
+        <v>495</v>
+      </c>
+      <c r="U5" s="63" t="s">
+        <v>496</v>
+      </c>
+      <c r="V5" s="63" t="s">
         <v>520</v>
       </c>
-      <c r="R5" s="70" t="s">
-        <v>520</v>
-      </c>
-      <c r="S5" s="63" t="s">
-        <v>487</v>
-      </c>
-      <c r="T5" s="63" t="s">
-        <v>488</v>
-      </c>
-      <c r="U5" s="63" t="s">
-        <v>489</v>
-      </c>
-      <c r="V5" s="63" t="s">
-        <v>513</v>
-      </c>
       <c r="W5" s="63" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="X5" s="63" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="Y5" s="63" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="Z5" s="63" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="AA5" s="63" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="AB5" s="63" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="AC5" s="63"/>
       <c r="AD5" s="63" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="AE5" s="63"/>
       <c r="AF5" s="63"/>
       <c r="AG5" s="63"/>
       <c r="AH5" s="63" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="AJ5" s="44"/>
       <c r="AK5" s="62"/>
@@ -5406,7 +5433,7 @@
         <v>419</v>
       </c>
       <c r="AW5" s="44" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="AX5" s="44" t="s">
         <v>130</v>
@@ -5417,7 +5444,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>187</v>
@@ -5432,83 +5459,83 @@
         <v>1095</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="H6" s="57" t="s">
         <v>344</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="J6" s="44" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="K6" s="44" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="L6" s="44" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="M6" s="70" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N6" s="70" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="O6" s="63" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="P6" s="63" t="s">
         <v>124</v>
       </c>
       <c r="Q6" s="70" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="R6" s="70" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="S6" s="63" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="T6" s="63" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="U6" s="63" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="V6" s="63" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="W6" s="63" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="X6" s="63" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="Y6" s="63" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="Z6" s="63" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="AA6" s="63" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="AB6" s="63" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="AC6" s="63"/>
       <c r="AD6" s="63" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="AE6" s="63"/>
       <c r="AF6" s="63"/>
       <c r="AG6" s="63"/>
       <c r="AH6" s="63" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="AJ6" s="44" t="s">
         <v>197</v>
@@ -5530,7 +5557,7 @@
         <v>425</v>
       </c>
       <c r="AQ6" s="44" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="AR6" s="44" t="s">
         <v>416</v>
@@ -5544,7 +5571,7 @@
         <v>419</v>
       </c>
       <c r="AW6" s="44" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="AX6" s="44" t="s">
         <v>130</v>
@@ -5555,7 +5582,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>187</v>
@@ -5570,83 +5597,83 @@
         <v>1095</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="H7" s="44" t="s">
         <v>117</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="J7" s="44" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="K7" s="44" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="L7" s="44" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="M7" s="70" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N7" s="70" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="O7" s="63" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="P7" s="63" t="s">
         <v>124</v>
       </c>
       <c r="Q7" s="70" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="R7" s="70" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="S7" s="63" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="T7" s="63" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="U7" s="63" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="V7" s="63" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="W7" s="63" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="X7" s="63" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="Y7" s="63" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="Z7" s="63" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="AA7" s="63" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="AB7" s="63" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="AC7" s="63"/>
       <c r="AD7" s="63" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="AE7" s="63"/>
       <c r="AF7" s="63"/>
       <c r="AG7" s="63"/>
       <c r="AH7" s="63" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="AJ7" s="44" t="s">
         <v>197</v>
@@ -5668,7 +5695,7 @@
         <v>425</v>
       </c>
       <c r="AQ7" s="44" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="AR7" s="44" t="s">
         <v>416</v>
@@ -5682,7 +5709,7 @@
         <v>419</v>
       </c>
       <c r="AW7" s="44" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="AX7" s="44" t="s">
         <v>130</v>

--- a/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39B9E9B-F17F-4212-BBF8-470D21EDB374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7963FB-602E-47CC-8CE6-F46BACDB3E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="3120" windowWidth="28770" windowHeight="5625" tabRatio="877" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="SYND02_PrimaryAllocation" sheetId="5" r:id="rId5"/>
     <sheet name="SERV01_LoanDrawdown" sheetId="6" r:id="rId6"/>
     <sheet name="SERV29_PaymentFees" sheetId="8" r:id="rId7"/>
-    <sheet name="Correspondence" sheetId="7" r:id="rId8"/>
+    <sheet name="AMCH06_PricingChangeTransaction" sheetId="9" r:id="rId8"/>
+    <sheet name="Correspondence" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="626">
   <si>
     <t>rowid</t>
   </si>
@@ -1687,17 +1688,246 @@
   </si>
   <si>
     <t>RequestedAmount</t>
+  </si>
+  <si>
+    <t>New_ExpiryDate</t>
+  </si>
+  <si>
+    <t>New_MaturityDate</t>
+  </si>
+  <si>
+    <t>26-Nov-2021</t>
+  </si>
+  <si>
+    <t>New_StartDate</t>
+  </si>
+  <si>
+    <t>Standard  Poor's</t>
+  </si>
+  <si>
+    <t>RatingType</t>
+  </si>
+  <si>
+    <t>Pricing_Status</t>
+  </si>
+  <si>
+    <t>TransactionNo_Prefix</t>
+  </si>
+  <si>
+    <t>PricingChange_TransactionNo</t>
+  </si>
+  <si>
+    <t>PricingChange_EffectiveDate</t>
+  </si>
+  <si>
+    <t>PricingChange_Desc</t>
+  </si>
+  <si>
+    <t>OngoingFeeItem</t>
+  </si>
+  <si>
+    <t>OngoingFeeType</t>
+  </si>
+  <si>
+    <t>OngoingFeeItemAfter</t>
+  </si>
+  <si>
+    <t>FormulaCategoryType</t>
+  </si>
+  <si>
+    <t>RateBasis</t>
+  </si>
+  <si>
+    <t>FeeString</t>
+  </si>
+  <si>
+    <t>Created_Event</t>
+  </si>
+  <si>
+    <t>OngoingFeePricingChanged_Event</t>
+  </si>
+  <si>
+    <t>PricingChange_OngoingFeeStr</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode1</t>
+  </si>
+  <si>
+    <t>EVG_PTYLIQ01 Scenario1 Baseline Bilateral</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Ongoing Fee String</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Ongoing Fee Pricing Changed</t>
+  </si>
+  <si>
+    <t>Update interest and ongoing fee pricing matrix.</t>
+  </si>
+  <si>
+    <t>GlobalCurrentRate1</t>
+  </si>
+  <si>
+    <t>GlobalCurrentRate2</t>
+  </si>
+  <si>
+    <t>GlobalCurrentRate3</t>
+  </si>
+  <si>
+    <t>Facility_OngoingFeeRate_SavedStr1</t>
+  </si>
+  <si>
+    <t>Facility_OngoingFeeRate_SavedStr2</t>
+  </si>
+  <si>
+    <t>Facility_OngoingFeeRate_SavedStr3</t>
+  </si>
+  <si>
+    <t>PricingChange_OngoingFeeRate1</t>
+  </si>
+  <si>
+    <t>${SPACE}${SPACE}${SPACE}${SPACE}Global Current X Rate (0.64%)</t>
+  </si>
+  <si>
+    <t>PricingChange_OngoingFeeRate2</t>
+  </si>
+  <si>
+    <t>PricingChange_OngoingFeeRate3</t>
+  </si>
+  <si>
+    <t>${SPACE}${SPACE}${SPACE}${SPACE}Global Current X Rate (0.62%)</t>
+  </si>
+  <si>
+    <t>${SPACE}${SPACE}${SPACE}${SPACE}Global Current X Rate (0.6%)</t>
+  </si>
+  <si>
+    <t>PricingChange_OngoingFeeRate_SavedStr1</t>
+  </si>
+  <si>
+    <t>PricingChange_OngoingFeeRate_SavedStr2</t>
+  </si>
+  <si>
+    <t>PricingChange_OngoingFeeRate_SavedStr3</t>
+  </si>
+  <si>
+    <t>0.6%</t>
+  </si>
+  <si>
+    <t>OngoingFeePercent1</t>
+  </si>
+  <si>
+    <t>OngoingFeePercent2</t>
+  </si>
+  <si>
+    <t>OngoingFeePercent3</t>
+  </si>
+  <si>
+    <t>CurrentGlobalRate1</t>
+  </si>
+  <si>
+    <t>CurrentGlobalRate2</t>
+  </si>
+  <si>
+    <t>CurrentGlobalRate3</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.64%</t>
+  </si>
+  <si>
+    <t>0.62%</t>
+  </si>
+  <si>
+    <t>0.52%</t>
+  </si>
+  <si>
+    <t>0.48%</t>
+  </si>
+  <si>
+    <t>0.44%</t>
+  </si>
+  <si>
+    <t>Interest_CurrentSpread1</t>
+  </si>
+  <si>
+    <t>Interest_OptionName</t>
+  </si>
+  <si>
+    <t>Interest_NewSpread1</t>
+  </si>
+  <si>
+    <t>Interest_CurrentSpread2</t>
+  </si>
+  <si>
+    <t>Interest_CurrentSpread3</t>
+  </si>
+  <si>
+    <t>Interest_NewSpread2</t>
+  </si>
+  <si>
+    <t>Interest_NewSpread3</t>
+  </si>
+  <si>
+    <t>078%</t>
+  </si>
+  <si>
+    <t>0.72%</t>
+  </si>
+  <si>
+    <t>0.66%</t>
+  </si>
+  <si>
+    <t>BBSY - Bid:</t>
+  </si>
+  <si>
+    <t>Computation</t>
+  </si>
+  <si>
+    <t>PricingCode</t>
+  </si>
+  <si>
+    <t>PricingPercent</t>
+  </si>
+  <si>
+    <t>Higher Of</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="00000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1776,6 +2006,18 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1868,7 +2110,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
@@ -2082,6 +2324,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2411,10 +2702,10 @@
   </sheetPr>
   <dimension ref="A1:CK23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BX1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="CC1" activePane="topRight" state="frozen"/>
       <selection activeCell="D17" sqref="D17"/>
-      <selection pane="topRight" activeCell="BI5" sqref="BI5"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3078,8 +3369,8 @@
   </sheetPr>
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE41" sqref="AE41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,13 +3674,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3424,11 +3715,13 @@
     <col min="28" max="28" width="20.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="25.28515625" style="34" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="31" max="72" width="9.140625" style="35" customWidth="1"/>
-    <col min="73" max="16384" width="9.140625" style="35"/>
+    <col min="31" max="31" width="16" style="34" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="33" max="74" width="9.140625" style="35" customWidth="1"/>
+    <col min="75" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3519,8 +3812,14 @@
       <c r="AD1" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="AE1" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>551</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>89</v>
       </c>
@@ -3610,6 +3909,12 @@
       </c>
       <c r="AD2" s="36" t="s">
         <v>91</v>
+      </c>
+      <c r="AE2" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF2" s="56" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -3621,10 +3926,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BM2"/>
+  <dimension ref="A1:BO2"/>
   <sheetViews>
-    <sheetView topLeftCell="BC1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="BH1" sqref="BH1:BM1048576"/>
+    <sheetView topLeftCell="BK1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="BO32" sqref="BO32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3673,11 +3978,13 @@
     <col min="63" max="63" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="29.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="66" max="93" width="10.42578125" style="35" customWidth="1"/>
-    <col min="94" max="16384" width="10.42578125" style="35"/>
+    <col min="66" max="66" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="68" max="95" width="10.42578125" style="35" customWidth="1"/>
+    <col min="96" max="16384" width="10.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3873,8 +4180,14 @@
       <c r="BM1" s="9" t="s">
         <v>302</v>
       </c>
+      <c r="BN1" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="BO1" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
-    <row r="2" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>89</v>
       </c>
@@ -4069,6 +4382,12 @@
       </c>
       <c r="BM2" s="57" t="s">
         <v>346</v>
+      </c>
+      <c r="BN2" s="57" t="s">
+        <v>554</v>
+      </c>
+      <c r="BO2" s="57" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -4084,7 +4403,7 @@
   <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="AG1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4348,7 +4667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AP4" sqref="AP4"/>
     </sheetView>
   </sheetViews>
@@ -4790,8 +5109,8 @@
   </sheetPr>
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4939,6 +5258,347 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB20F3B-2ED7-47D2-8848-9C65E065A712}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AU2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AU8" sqref="AU8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="81" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" style="81" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="18.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="19.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="18.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="20.7109375" style="81" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" style="81" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="60.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="59.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="60.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="59.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="40" style="81" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.28515625" style="81" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="23.42578125" style="81" customWidth="1"/>
+    <col min="42" max="44" width="20.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="23.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="32.140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="18.7109375" style="81"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" s="85" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="82" t="s">
+        <v>557</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>558</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>559</v>
+      </c>
+      <c r="I1" s="82" t="s">
+        <v>560</v>
+      </c>
+      <c r="J1" s="82" t="s">
+        <v>569</v>
+      </c>
+      <c r="K1" s="82" t="s">
+        <v>596</v>
+      </c>
+      <c r="L1" s="82" t="s">
+        <v>597</v>
+      </c>
+      <c r="M1" s="82" t="s">
+        <v>598</v>
+      </c>
+      <c r="N1" s="82" t="s">
+        <v>593</v>
+      </c>
+      <c r="O1" s="82" t="s">
+        <v>594</v>
+      </c>
+      <c r="P1" s="82" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q1" s="82" t="s">
+        <v>577</v>
+      </c>
+      <c r="R1" s="82" t="s">
+        <v>578</v>
+      </c>
+      <c r="S1" s="82" t="s">
+        <v>579</v>
+      </c>
+      <c r="T1" s="82" t="s">
+        <v>565</v>
+      </c>
+      <c r="U1" s="82" t="s">
+        <v>561</v>
+      </c>
+      <c r="V1" s="82" t="s">
+        <v>562</v>
+      </c>
+      <c r="W1" s="82" t="s">
+        <v>563</v>
+      </c>
+      <c r="X1" s="82" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y1" s="82" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z1" s="82" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA1" s="82" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB1" s="82" t="s">
+        <v>582</v>
+      </c>
+      <c r="AC1" s="82" t="s">
+        <v>583</v>
+      </c>
+      <c r="AD1" s="82" t="s">
+        <v>585</v>
+      </c>
+      <c r="AE1" s="82" t="s">
+        <v>586</v>
+      </c>
+      <c r="AF1" s="82" t="s">
+        <v>589</v>
+      </c>
+      <c r="AG1" s="82" t="s">
+        <v>590</v>
+      </c>
+      <c r="AH1" s="82" t="s">
+        <v>591</v>
+      </c>
+      <c r="AI1" s="84" t="s">
+        <v>608</v>
+      </c>
+      <c r="AJ1" s="84" t="s">
+        <v>618</v>
+      </c>
+      <c r="AK1" s="84" t="s">
+        <v>619</v>
+      </c>
+      <c r="AL1" s="84" t="s">
+        <v>620</v>
+      </c>
+      <c r="AM1" s="84" t="s">
+        <v>607</v>
+      </c>
+      <c r="AN1" s="84" t="s">
+        <v>610</v>
+      </c>
+      <c r="AO1" s="84" t="s">
+        <v>611</v>
+      </c>
+      <c r="AP1" s="84" t="s">
+        <v>609</v>
+      </c>
+      <c r="AQ1" s="84" t="s">
+        <v>612</v>
+      </c>
+      <c r="AR1" s="84" t="s">
+        <v>613</v>
+      </c>
+      <c r="AS1" s="84" t="s">
+        <v>570</v>
+      </c>
+      <c r="AT1" s="84" t="s">
+        <v>567</v>
+      </c>
+      <c r="AU1" s="84" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" s="90" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>571</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>576</v>
+      </c>
+      <c r="J2" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="K2" s="93" t="s">
+        <v>604</v>
+      </c>
+      <c r="L2" s="93" t="s">
+        <v>605</v>
+      </c>
+      <c r="M2" s="93" t="s">
+        <v>606</v>
+      </c>
+      <c r="N2" s="96" t="s">
+        <v>599</v>
+      </c>
+      <c r="O2" s="96" t="s">
+        <v>600</v>
+      </c>
+      <c r="P2" s="96" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q2" s="93" t="s">
+        <v>602</v>
+      </c>
+      <c r="R2" s="93" t="s">
+        <v>603</v>
+      </c>
+      <c r="S2" s="93" t="s">
+        <v>592</v>
+      </c>
+      <c r="T2" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="U2" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="V2" s="88" t="s">
+        <v>203</v>
+      </c>
+      <c r="W2" s="88" t="s">
+        <v>322</v>
+      </c>
+      <c r="X2" s="88" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y2" s="88" t="s">
+        <v>573</v>
+      </c>
+      <c r="Z2" s="93" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA2" s="93" t="s">
+        <v>587</v>
+      </c>
+      <c r="AB2" s="93" t="s">
+        <v>588</v>
+      </c>
+      <c r="AC2" s="88" t="s">
+        <v>584</v>
+      </c>
+      <c r="AD2" s="88" t="s">
+        <v>587</v>
+      </c>
+      <c r="AE2" s="88" t="s">
+        <v>588</v>
+      </c>
+      <c r="AF2" s="94">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="AG2" s="94">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="AH2" s="95" t="s">
+        <v>592</v>
+      </c>
+      <c r="AI2" s="89" t="s">
+        <v>617</v>
+      </c>
+      <c r="AJ2" s="89" t="s">
+        <v>621</v>
+      </c>
+      <c r="AK2" s="89" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL2" s="97" t="s">
+        <v>622</v>
+      </c>
+      <c r="AM2" s="91" t="s">
+        <v>614</v>
+      </c>
+      <c r="AN2" s="91" t="s">
+        <v>615</v>
+      </c>
+      <c r="AO2" s="91" t="s">
+        <v>616</v>
+      </c>
+      <c r="AP2" s="91" t="s">
+        <v>623</v>
+      </c>
+      <c r="AQ2" s="91" t="s">
+        <v>624</v>
+      </c>
+      <c r="AR2" s="91" t="s">
+        <v>625</v>
+      </c>
+      <c r="AS2" s="87" t="s">
+        <v>332</v>
+      </c>
+      <c r="AT2" s="88" t="s">
+        <v>574</v>
+      </c>
+      <c r="AU2" s="88" t="s">
+        <v>575</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AX7"/>
   <sheetViews>

--- a/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7963FB-602E-47CC-8CE6-F46BACDB3E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749A57BF-0FCB-48DB-882B-B1CC2D6EEE2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="5040" windowWidth="28770" windowHeight="5625" tabRatio="877" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="628">
   <si>
     <t>rowid</t>
   </si>
@@ -1916,6 +1916,12 @@
   </si>
   <si>
     <t>0.8</t>
+  </si>
+  <si>
+    <t>PricingSign</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -2702,10 +2708,10 @@
   </sheetPr>
   <dimension ref="A1:CK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="CC1" activePane="topRight" state="frozen"/>
       <selection activeCell="D17" sqref="D17"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="topRight" activeCell="CC2" sqref="CC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5262,10 +5268,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AU2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AU8" sqref="AU8"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5297,16 +5303,17 @@
     <col min="36" max="36" width="12.5703125" style="81" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.140625" style="81" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="23.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="23.42578125" style="81" customWidth="1"/>
-    <col min="42" max="44" width="20.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="23.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="32.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="18.7109375" style="81"/>
+    <col min="39" max="39" width="14.5703125" style="81" customWidth="1"/>
+    <col min="40" max="40" width="23.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="23.42578125" style="81" customWidth="1"/>
+    <col min="43" max="45" width="20.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="32.140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="18.7109375" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="85" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" s="85" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
@@ -5422,34 +5429,37 @@
         <v>620</v>
       </c>
       <c r="AM1" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="AN1" s="84" t="s">
         <v>607</v>
       </c>
-      <c r="AN1" s="84" t="s">
+      <c r="AO1" s="84" t="s">
         <v>610</v>
       </c>
-      <c r="AO1" s="84" t="s">
+      <c r="AP1" s="84" t="s">
         <v>611</v>
       </c>
-      <c r="AP1" s="84" t="s">
+      <c r="AQ1" s="84" t="s">
         <v>609</v>
       </c>
-      <c r="AQ1" s="84" t="s">
+      <c r="AR1" s="84" t="s">
         <v>612</v>
       </c>
-      <c r="AR1" s="84" t="s">
+      <c r="AS1" s="84" t="s">
         <v>613</v>
       </c>
-      <c r="AS1" s="84" t="s">
+      <c r="AT1" s="84" t="s">
         <v>570</v>
       </c>
-      <c r="AT1" s="84" t="s">
+      <c r="AU1" s="84" t="s">
         <v>567</v>
       </c>
-      <c r="AU1" s="84" t="s">
+      <c r="AV1" s="84" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="90" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" s="90" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>89</v>
       </c>
@@ -5562,31 +5572,34 @@
       <c r="AL2" s="97" t="s">
         <v>622</v>
       </c>
-      <c r="AM2" s="91" t="s">
+      <c r="AM2" s="97" t="s">
+        <v>627</v>
+      </c>
+      <c r="AN2" s="91" t="s">
         <v>614</v>
       </c>
-      <c r="AN2" s="91" t="s">
+      <c r="AO2" s="91" t="s">
         <v>615</v>
       </c>
-      <c r="AO2" s="91" t="s">
+      <c r="AP2" s="91" t="s">
         <v>616</v>
       </c>
-      <c r="AP2" s="91" t="s">
+      <c r="AQ2" s="91" t="s">
         <v>623</v>
       </c>
-      <c r="AQ2" s="91" t="s">
+      <c r="AR2" s="91" t="s">
         <v>624</v>
       </c>
-      <c r="AR2" s="91" t="s">
+      <c r="AS2" s="91" t="s">
         <v>625</v>
       </c>
-      <c r="AS2" s="87" t="s">
+      <c r="AT2" s="87" t="s">
         <v>332</v>
       </c>
-      <c r="AT2" s="88" t="s">
+      <c r="AU2" s="88" t="s">
         <v>574</v>
       </c>
-      <c r="AU2" s="88" t="s">
+      <c r="AV2" s="88" t="s">
         <v>575</v>
       </c>
     </row>
@@ -5594,7 +5607,7 @@
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
@@ -3411,7 +3411,7 @@
       </c>
       <c r="E8" s="68" t="inlineStr">
         <is>
-          <t>60002919</t>
+          <t>60002936</t>
         </is>
       </c>
       <c r="F8" s="42" t="n">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="E9" s="68" t="inlineStr">
         <is>
-          <t>60002919</t>
+          <t>60002936</t>
         </is>
       </c>
       <c r="F9" s="42" t="n">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="E10" s="68" t="inlineStr">
         <is>
-          <t>60002919</t>
+          <t>60002936</t>
         </is>
       </c>
       <c r="F10" s="42" t="n">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E11" s="68" t="inlineStr">
         <is>
-          <t>60002919</t>
+          <t>60002936</t>
         </is>
       </c>
       <c r="F11" s="42" t="n">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="O2" s="5" t="inlineStr">
         <is>
-          <t>60002919</t>
+          <t>60002936</t>
         </is>
       </c>
       <c r="P2" s="55" t="inlineStr">

--- a/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB5EF7-61BD-45CD-ABF9-0412D5AEB426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C802A6B4-8B5F-460F-AB57-0DE6D4975149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="5835" windowWidth="28770" windowHeight="5640" tabRatio="877" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,15 @@
     <sheet name="SERV29_PaymentFees" sheetId="7" r:id="rId7"/>
     <sheet name="AMCH06_PricingChangeTransaction" sheetId="8" r:id="rId8"/>
     <sheet name="SERV08_ComprehensiveRepricing" sheetId="9" r:id="rId9"/>
-    <sheet name="Correspondence" sheetId="10" r:id="rId10"/>
+    <sheet name="CRED07_UpfrontFee_Payment" sheetId="11" r:id="rId10"/>
+    <sheet name="Correspondence" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="733">
   <si>
     <t>rowid</t>
   </si>
@@ -2210,6 +2211,24 @@
   </si>
   <si>
     <t>RepricingRateSettingNotice_INP_02</t>
+  </si>
+  <si>
+    <t>UpfrontFee_Amount</t>
+  </si>
+  <si>
+    <t>UpfrontFee_EffectiveDate</t>
+  </si>
+  <si>
+    <t>UpfrontFeePayment_Comment</t>
+  </si>
+  <si>
+    <t>Charge Upfront fee</t>
+  </si>
+  <si>
+    <t>Establishment/Extension Fee</t>
+  </si>
+  <si>
+    <t>Charging the Upfront Fee for Extension Fee</t>
   </si>
 </sst>
 </file>
@@ -2221,11 +2240,18 @@
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2405,305 +2431,318 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2713,6 +2752,7 @@
     <cellStyle name="Normal 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 3 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 3 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 3 4" xfId="9" xr:uid="{FB69BA06-E7E6-47C8-B7D4-1B9899D6D674}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3691,11 +3731,104 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2085ABCD-2835-439C-BCD3-8FCFFE06FD81}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="100" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="100" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="100" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="100" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="100" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" style="100" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="100" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="100" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" style="100" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="6.28515625" style="100"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="106" t="s">
+        <v>727</v>
+      </c>
+      <c r="E1" s="106" t="s">
+        <v>728</v>
+      </c>
+      <c r="F1" s="106" t="s">
+        <v>449</v>
+      </c>
+      <c r="G1" s="106" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="106" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" s="106" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="108" t="s">
+        <v>730</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>731</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>732</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>348</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7334,7 +7467,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7488,7 +7621,7 @@
   </sheetPr>
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AL20" sqref="AL20"/>
     </sheetView>
   </sheetViews>
@@ -7837,7 +7970,7 @@
   <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C802A6B4-8B5F-460F-AB57-0DE6D4975149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F692C701-DD6F-40E4-9072-662D53B4CC5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="733">
   <si>
     <t>rowid</t>
   </si>
@@ -3732,10 +3732,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2085ABCD-2835-439C-BCD3-8FCFFE06FD81}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3750,10 +3750,11 @@
     <col min="8" max="8" width="20.85546875" style="100" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5703125" style="100" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" style="100" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="6.28515625" style="100"/>
+    <col min="11" max="11" width="12.28515625" style="100" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="6.28515625" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
@@ -3784,8 +3785,11 @@
       <c r="J1" s="106" t="s">
         <v>302</v>
       </c>
+      <c r="K1" s="106" t="s">
+        <v>552</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="107" t="s">
         <v>89</v>
       </c>
@@ -3815,6 +3819,9 @@
       </c>
       <c r="J2" s="55" t="s">
         <v>128</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FD414E-EE45-4C60-B06A-A3B72AF6056D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7D4EF4-F364-4A80-8F17-7DC85ADCBF6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="848">
   <si>
     <t>rowid</t>
   </si>
@@ -2574,6 +2574,9 @@
   </si>
   <si>
     <t>2021-02-18 21:43:58.594</t>
+  </si>
+  <si>
+    <t>88,500,000.00</t>
   </si>
 </sst>
 </file>
@@ -10181,8 +10184,8 @@
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S1" sqref="S1"/>
+      <pane xSplit="2" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10556,7 +10559,7 @@
         <v>572</v>
       </c>
       <c r="AG3" s="10" t="s">
-        <v>567</v>
+        <v>847</v>
       </c>
       <c r="AH3" s="10" t="s">
         <v>578</v>

--- a/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7D4EF4-F364-4A80-8F17-7DC85ADCBF6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEEC95C-0E5B-47DA-BE21-193841BADBAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="876">
   <si>
     <t>rowid</t>
   </si>
@@ -1757,826 +1757,910 @@
     <t>24-Feb-2020</t>
   </si>
   <si>
+    <t>WBC032916100059</t>
+  </si>
+  <si>
+    <t>0.935000%</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>88,500,000.00</t>
+  </si>
+  <si>
+    <t>714,465.76</t>
+  </si>
+  <si>
+    <t>45,926.71</t>
+  </si>
+  <si>
+    <t>UpfrontFee_Amount</t>
+  </si>
+  <si>
+    <t>UpfrontFee_EffectiveDate</t>
+  </si>
+  <si>
+    <t>UpfrontFeePayment_Comment</t>
+  </si>
+  <si>
+    <t>Charge Upfront fee</t>
+  </si>
+  <si>
+    <t>Establishment/Extension Fee</t>
+  </si>
+  <si>
+    <t>Charging the Upfront Fee for Extension Fee</t>
+  </si>
+  <si>
+    <t>Payment_Type</t>
+  </si>
+  <si>
+    <t>Paperclip_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Paperclip_TransactionDescription</t>
+  </si>
+  <si>
+    <t>Loan_Transaction_Type</t>
+  </si>
+  <si>
+    <t>Loan_Transaction_Type2</t>
+  </si>
+  <si>
+    <t>Cycles_ForLoan</t>
+  </si>
+  <si>
+    <t>Loan_CycleNumber</t>
+  </si>
+  <si>
+    <t>Interest_Due</t>
+  </si>
+  <si>
+    <t>Total_Prepayment_Amount</t>
+  </si>
+  <si>
+    <t>Breakfunding_Reason</t>
+  </si>
+  <si>
+    <t>GLShortName</t>
+  </si>
+  <si>
+    <t>CashFlow_AfterStatus</t>
+  </si>
+  <si>
+    <t>Collect Early Prepayment</t>
+  </si>
+  <si>
+    <t>Paper Clip Payment</t>
+  </si>
+  <si>
+    <t>Early Partial Prepayment</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>50,000,000.00</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Pro Rate based on Principal</t>
+  </si>
+  <si>
+    <t>130,410.95</t>
+  </si>
+  <si>
+    <t>50,130,410.95</t>
+  </si>
+  <si>
+    <t>BBSY - Bid Loan</t>
+  </si>
+  <si>
+    <t>Borrower Decision</t>
+  </si>
+  <si>
+    <t>Special Acc't Pay.</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>12-Jun-2023</t>
+  </si>
+  <si>
+    <t>Deal_Borrower</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Incoming_Amount</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Processing_Area</t>
+  </si>
+  <si>
+    <t>Customer_ServicingGroup</t>
+  </si>
+  <si>
+    <t>Branch_ServicingGroup</t>
+  </si>
+  <si>
+    <t>GL_ShortName</t>
+  </si>
+  <si>
+    <t>Portfolio_Code</t>
+  </si>
+  <si>
+    <t>Borrower_RemittanceDescription</t>
+  </si>
+  <si>
+    <t>IncomingManualCashflowDesc_AwaitingRelease</t>
+  </si>
+  <si>
+    <t>Expected_GLShortName</t>
+  </si>
+  <si>
+    <t>Expected_ExpenseCode</t>
+  </si>
+  <si>
+    <t>GL_Entries_RIMethod</t>
+  </si>
+  <si>
+    <t>GL_Entries_ShortName</t>
+  </si>
+  <si>
+    <t>Manual Cashflow - Incoming</t>
+  </si>
+  <si>
+    <t>CB001</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>Collect breakgain from WBC to distribute to borrow</t>
+  </si>
+  <si>
+    <t>Non-Agency Australia</t>
+  </si>
+  <si>
+    <t>BLACK</t>
+  </si>
+  <si>
+    <t>Breakfunding Event Fee Income</t>
+  </si>
+  <si>
+    <t>Incoming Manual Cashflow / Awaiting Release / Collect breakgain from WBC to distribute to borrow</t>
+  </si>
+  <si>
+    <t>BFEI-Breakfunding Event Fee Income</t>
+  </si>
+  <si>
+    <t>RE_RES-Real Estate Solutions</t>
+  </si>
+  <si>
+    <t>RTGS (AUD)</t>
+  </si>
+  <si>
+    <t>Outgoing_Amount</t>
+  </si>
+  <si>
+    <t>OutgoingManualCashflowDesc_AwaitingRelease</t>
+  </si>
+  <si>
+    <t>Manual Cashflow - Outgoing</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>Distribute break gain to borrower</t>
+  </si>
+  <si>
+    <t>ABC11122223</t>
+  </si>
+  <si>
+    <t>Outgoing Manual Cashflow / Awaiting Release / Distribute break gain to borrower</t>
+  </si>
+  <si>
+    <t>SubAdd_Days</t>
+  </si>
+  <si>
+    <t>Notice_Type</t>
+  </si>
+  <si>
+    <t>Notice_Customer_LegalName</t>
+  </si>
+  <si>
+    <t>Account_Name</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>NoticeGroup_UserID</t>
+  </si>
+  <si>
+    <t>Notice_Identifier</t>
+  </si>
+  <si>
+    <t>Correlation_ID</t>
+  </si>
+  <si>
+    <t>Thru_Date</t>
+  </si>
+  <si>
+    <t>From_Date</t>
+  </si>
+  <si>
+    <t>Search_By</t>
+  </si>
+  <si>
+    <t>Notice_Method</t>
+  </si>
+  <si>
+    <t>BEO_StartDate</t>
+  </si>
+  <si>
+    <t>BEO_EndDate</t>
+  </si>
+  <si>
+    <t>Customer_IdentifiedBy</t>
+  </si>
+  <si>
+    <t>Zero_TempPath</t>
+  </si>
+  <si>
+    <t>InputFilePath</t>
+  </si>
+  <si>
+    <t>XML_File</t>
+  </si>
+  <si>
+    <t>Temp_File</t>
+  </si>
+  <si>
+    <t>InputJson</t>
+  </si>
+  <si>
+    <t>ExpectedJson</t>
+  </si>
+  <si>
+    <t>OutputFilePath</t>
+  </si>
+  <si>
+    <t>Field_Name</t>
+  </si>
+  <si>
+    <t>OutputAPIResponse</t>
+  </si>
+  <si>
+    <t>messageId</t>
+  </si>
+  <si>
+    <t>CallBack_Status</t>
+  </si>
+  <si>
+    <t>CallBack_Status2</t>
+  </si>
+  <si>
+    <t>errorMessage</t>
+  </si>
+  <si>
+    <t>errorMessage_2</t>
+  </si>
+  <si>
+    <t>Notice_Status</t>
+  </si>
+  <si>
+    <t>XML_NoticeType</t>
+  </si>
+  <si>
+    <t>Branch_Description</t>
+  </si>
+  <si>
+    <t>Loan_PricingOption</t>
+  </si>
+  <si>
+    <t>Balance_Amount</t>
+  </si>
+  <si>
+    <t>Rate_Basis</t>
+  </si>
+  <si>
+    <t>Loan_BaseRate</t>
+  </si>
+  <si>
+    <t>Loan_Spread</t>
+  </si>
+  <si>
+    <t>Notice_AllInRate</t>
+  </si>
+  <si>
+    <t>Notice_Amount</t>
+  </si>
+  <si>
+    <t>Loan_GlobalOriginal</t>
+  </si>
+  <si>
+    <t>Loan_RateSetting_DueDate</t>
+  </si>
+  <si>
+    <t>Loan_BorrowerAmount</t>
+  </si>
+  <si>
+    <t>Loan_LenderAmount</t>
+  </si>
+  <si>
+    <t>Loan_PaymentAmount</t>
+  </si>
+  <si>
+    <t>EffectiveDate_PrincipalPayment</t>
+  </si>
+  <si>
+    <t>Outstanding_PrincipalPayment</t>
+  </si>
+  <si>
+    <t>EffectiveDate_InterestPayment</t>
+  </si>
+  <si>
+    <t>ProjectedCycleDue_InterestPayment</t>
+  </si>
+  <si>
+    <t>StartDate_Principal</t>
+  </si>
+  <si>
+    <t>EndDate_Principal</t>
+  </si>
+  <si>
+    <t>Days_Principal</t>
+  </si>
+  <si>
+    <t>Principal_Amount</t>
+  </si>
+  <si>
+    <t>StartDate_Interest</t>
+  </si>
+  <si>
+    <t>EndDate_Interest</t>
+  </si>
+  <si>
+    <t>Days_Interest</t>
+  </si>
+  <si>
+    <t>Interest_Amount</t>
+  </si>
+  <si>
+    <t>SENT_Fee Payment Notice</t>
+  </si>
+  <si>
+    <t>Line Fee in Advance Payment Notice</t>
+  </si>
+  <si>
+    <t>WESTPAC BANKING CORP</t>
+  </si>
+  <si>
+    <t>JOHN BLACK</t>
+  </si>
+  <si>
+    <t>LOANIQ01</t>
+  </si>
+  <si>
+    <t>?JEOJI0F</t>
+  </si>
+  <si>
+    <t>LIQ-?JEOJI0F-?JEOJHWH-2</t>
+  </si>
+  <si>
+    <t>2026-11-22 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2020-11-23 00:00:00.000</t>
+  </si>
+  <si>
+    <t>Notice Identifier</t>
+  </si>
+  <si>
+    <t>2021-02-17 20:23:50.382</t>
+  </si>
+  <si>
+    <t>Legal Name</t>
+  </si>
+  <si>
+    <t>C:\Users\u720589\AppData\Local\Temp\</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\API\Input\Correspondence\</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_XML_01</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_TEMP_01</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_INP_01</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_EXP_01</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\API\Output\Correspondence\</t>
+  </si>
+  <si>
+    <t>correlationId</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_RES_01</t>
+  </si>
+  <si>
+    <t>SENT</t>
+  </si>
+  <si>
+    <t>Sent</t>
+  </si>
+  <si>
+    <t>FEE INVOICE</t>
+  </si>
+  <si>
+    <t>0.520000%</t>
+  </si>
+  <si>
+    <t>Fee Payment Notice</t>
+  </si>
+  <si>
+    <t>George Lippman</t>
+  </si>
+  <si>
+    <t>?JEOJI0G</t>
+  </si>
+  <si>
+    <t>LIQ-?JEOJI0G-?JEOJHWH-2</t>
+  </si>
+  <si>
+    <t>2021-02-17 20:36:31.773</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_XML_02</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_TEMP_02</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_INP_02</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_EXP_02</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_RES_02</t>
+  </si>
+  <si>
+    <t>SENT_Drawdown Intent Notice</t>
+  </si>
+  <si>
+    <t>Drawdown Intent Notice</t>
+  </si>
+  <si>
+    <t>SUEOJKYC</t>
+  </si>
+  <si>
+    <t>LIQ-SUEOJKYC-S4EOJK00-2</t>
+  </si>
+  <si>
+    <t>2021-02-17 21:36:43.519</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_XML_01</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_TEMP_01</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_INP_01</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_EXP_01</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_RES_01</t>
+  </si>
+  <si>
+    <t>DRAWDOWN INTENT NOTICE</t>
+  </si>
+  <si>
+    <t>SUEOJKYD</t>
+  </si>
+  <si>
+    <t>LIQ-SUEOJKYD-S4EOJK00-2</t>
+  </si>
+  <si>
+    <t>2021-02-17 21:45:55.591</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_XML_02</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_TEMP_02</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_INP_02</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_EXP_02</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_RES_02</t>
+  </si>
+  <si>
+    <t>SENT_Rate Setting Notice</t>
+  </si>
+  <si>
+    <t>Rate Setting Notice</t>
+  </si>
+  <si>
+    <t>S9EOJLSR</t>
+  </si>
+  <si>
+    <t>LIQ-S9EOJLSR-S4EOJK00-2</t>
+  </si>
+  <si>
+    <t>2021-02-17 21:53:03.839</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_XML_01</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_TEMP_01</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_INP_01</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_EXP_01</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_RES_01</t>
+  </si>
+  <si>
+    <t>DRAWDOWN RATE SET NOTICE</t>
+  </si>
+  <si>
+    <t>69,220.60</t>
+  </si>
+  <si>
+    <t>27-Oct-2025</t>
+  </si>
+  <si>
+    <t>S9EOJLSS</t>
+  </si>
+  <si>
+    <t>LIQ-S9EOJLSS-S4EOJK00-2</t>
+  </si>
+  <si>
+    <t>2021-02-17 22:01:20.519</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_XML_02</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_TEMP_02</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_INP_02</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_EXP_02</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_RES_02</t>
+  </si>
+  <si>
+    <t>SENT_Repricing Intent Notice</t>
+  </si>
+  <si>
+    <t>Repricing Intent Notice</t>
+  </si>
+  <si>
+    <t>NNEOK79S</t>
+  </si>
+  <si>
+    <t>LIQ-NNEOK79S-N7EOK6AS-2</t>
+  </si>
+  <si>
+    <t>2026-11-29 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2020-11-30 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2021-02-18 12:38:03.779</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_XML_01</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_TEMP_01</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_INP_01</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_EXP_01</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_RES_01</t>
+  </si>
+  <si>
+    <t>ROLLOVER INTENT NOTICE</t>
+  </si>
+  <si>
+    <t>Interest Payment</t>
+  </si>
+  <si>
+    <t>NNEOK79T</t>
+  </si>
+  <si>
+    <t>LIQ-NNEOK79T-N7EOK6AS-2</t>
+  </si>
+  <si>
+    <t>2021-02-18 12:47:44.404</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_XML_02</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_TEMP_02</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_INP_02</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_EXP_02</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_RES_02</t>
+  </si>
+  <si>
+    <t>SENT_Repricing_Rate Setting Notice</t>
+  </si>
+  <si>
+    <t>Deal Level Loan Repricing Rate Setting Notice</t>
+  </si>
+  <si>
+    <t>NIEOK83T</t>
+  </si>
+  <si>
+    <t>LIQ-NIEOK83T-N7EOK6AS-2</t>
+  </si>
+  <si>
+    <t>2021-02-18 12:57:33.409</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_XML_01</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_TEMP_01</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_INP_01</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_EXP_01</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_RES_01</t>
+  </si>
+  <si>
+    <t>ROLLOVER RATE SET NOTICE</t>
+  </si>
+  <si>
+    <t>NIEOK83U</t>
+  </si>
+  <si>
+    <t>LIQ-NIEOK83U-N7EOK6AS-2</t>
+  </si>
+  <si>
+    <t>2021-02-18 13:24:28.885</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_XML_02</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_TEMP_02</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_INP_02</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_EXP_02</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_RES_02</t>
+  </si>
+  <si>
+    <t>Upfront Fee From Borrower/Agent/Third Party Intent Notice</t>
+  </si>
+  <si>
+    <t>NHEOK378</t>
+  </si>
+  <si>
+    <t>LIQ-NHEOK378-NHEOK333-2</t>
+  </si>
+  <si>
+    <t>2024-02-18 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2018-02-19 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2021-02-18 03:38:13.467</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_XML_03</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_TEMP_03</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_INP_03</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_EXP_03</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_RES_03</t>
+  </si>
+  <si>
+    <t>SENT_Paperclip Notice</t>
+  </si>
+  <si>
+    <t>Paper Clip Intent Notice</t>
+  </si>
+  <si>
+    <t>I$EOKVXX</t>
+  </si>
+  <si>
+    <t>LIQ-I$EOKVXX-I$EOKVUU-2</t>
+  </si>
+  <si>
+    <t>2021-02-18 21:40:22.678</t>
+  </si>
+  <si>
+    <t>PaperclipNotice_XML_01</t>
+  </si>
+  <si>
+    <t>PaperclipNotice_TEMP_01</t>
+  </si>
+  <si>
+    <t>PaperclipNotice_INP_01</t>
+  </si>
+  <si>
+    <t>PaperclipNotice_EXP_01</t>
+  </si>
+  <si>
+    <t>PaperclipNotice_RES_01</t>
+  </si>
+  <si>
+    <t>PAYMENT NOTICE</t>
+  </si>
+  <si>
+    <t>721,452.06</t>
+  </si>
+  <si>
+    <t>31-Dec-2019</t>
+  </si>
+  <si>
+    <t>779,671.23</t>
+  </si>
+  <si>
+    <t>05-Jan-2020</t>
+  </si>
+  <si>
+    <t>72,191.78</t>
+  </si>
+  <si>
+    <t>I$EOKVXY</t>
+  </si>
+  <si>
+    <t>LIQ-I$EOKVXY-I$EOKVUU-2</t>
+  </si>
+  <si>
+    <t>2021-02-18 21:43:58.594</t>
+  </si>
+  <si>
     <t>60003351</t>
   </si>
   <si>
-    <t>WBC032916100059</t>
-  </si>
-  <si>
-    <t>0.935000%</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>714,465.76</t>
-  </si>
-  <si>
-    <t>45,926.71</t>
-  </si>
-  <si>
-    <t>UpfrontFee_Amount</t>
-  </si>
-  <si>
-    <t>UpfrontFee_EffectiveDate</t>
-  </si>
-  <si>
-    <t>UpfrontFeePayment_Comment</t>
-  </si>
-  <si>
-    <t>Charge Upfront fee</t>
-  </si>
-  <si>
-    <t>Establishment/Extension Fee</t>
-  </si>
-  <si>
-    <t>Charging the Upfront Fee for Extension Fee</t>
-  </si>
-  <si>
-    <t>Payment_Type</t>
-  </si>
-  <si>
-    <t>Paperclip_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Paperclip_TransactionDescription</t>
-  </si>
-  <si>
-    <t>Loan_Transaction_Type</t>
-  </si>
-  <si>
-    <t>Loan_Transaction_Type2</t>
-  </si>
-  <si>
-    <t>Cycles_ForLoan</t>
-  </si>
-  <si>
-    <t>Loan_CycleNumber</t>
-  </si>
-  <si>
-    <t>Interest_Due</t>
-  </si>
-  <si>
-    <t>Total_Prepayment_Amount</t>
-  </si>
-  <si>
-    <t>Breakfunding_Reason</t>
-  </si>
-  <si>
-    <t>GLShortName</t>
-  </si>
-  <si>
-    <t>CashFlow_AfterStatus</t>
-  </si>
-  <si>
-    <t>Collect Early Prepayment</t>
-  </si>
-  <si>
-    <t>Paper Clip Payment</t>
-  </si>
-  <si>
-    <t>Early Partial Prepayment</t>
-  </si>
-  <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>50,000,000.00</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Pro Rate based on Principal</t>
-  </si>
-  <si>
-    <t>130,410.95</t>
-  </si>
-  <si>
-    <t>50,130,410.95</t>
-  </si>
-  <si>
-    <t>BBSY - Bid Loan</t>
-  </si>
-  <si>
-    <t>Borrower Decision</t>
-  </si>
-  <si>
-    <t>Special Acc't Pay.</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>12-Jun-2023</t>
-  </si>
-  <si>
-    <t>Deal_Borrower</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Incoming_Amount</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Processing_Area</t>
-  </si>
-  <si>
-    <t>Customer_ServicingGroup</t>
-  </si>
-  <si>
-    <t>Branch_ServicingGroup</t>
-  </si>
-  <si>
-    <t>GL_ShortName</t>
-  </si>
-  <si>
-    <t>Portfolio_Code</t>
-  </si>
-  <si>
-    <t>Borrower_RemittanceDescription</t>
-  </si>
-  <si>
-    <t>IncomingManualCashflowDesc_AwaitingRelease</t>
-  </si>
-  <si>
-    <t>Expected_GLShortName</t>
-  </si>
-  <si>
-    <t>Expected_ExpenseCode</t>
-  </si>
-  <si>
-    <t>GL_Entries_RIMethod</t>
-  </si>
-  <si>
-    <t>GL_Entries_ShortName</t>
-  </si>
-  <si>
-    <t>Manual Cashflow - Incoming</t>
-  </si>
-  <si>
-    <t>CB001</t>
-  </si>
-  <si>
-    <t>245.00</t>
-  </si>
-  <si>
-    <t>Collect breakgain from WBC to distribute to borrow</t>
-  </si>
-  <si>
-    <t>Non-Agency Australia</t>
-  </si>
-  <si>
-    <t>BLACK</t>
-  </si>
-  <si>
-    <t>Breakfunding Event Fee Income</t>
-  </si>
-  <si>
-    <t>Incoming Manual Cashflow / Awaiting Release / Collect breakgain from WBC to distribute to borrow</t>
-  </si>
-  <si>
-    <t>BFEI-Breakfunding Event Fee Income</t>
-  </si>
-  <si>
-    <t>RE_RES-Real Estate Solutions</t>
-  </si>
-  <si>
-    <t>RTGS (AUD)</t>
-  </si>
-  <si>
-    <t>Outgoing_Amount</t>
-  </si>
-  <si>
-    <t>OutgoingManualCashflowDesc_AwaitingRelease</t>
-  </si>
-  <si>
-    <t>Manual Cashflow - Outgoing</t>
-  </si>
-  <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>Distribute break gain to borrower</t>
-  </si>
-  <si>
-    <t>ABC11122223</t>
-  </si>
-  <si>
-    <t>Outgoing Manual Cashflow / Awaiting Release / Distribute break gain to borrower</t>
-  </si>
-  <si>
-    <t>SubAdd_Days</t>
-  </si>
-  <si>
-    <t>Notice_Type</t>
-  </si>
-  <si>
-    <t>Notice_Customer_LegalName</t>
-  </si>
-  <si>
-    <t>Account_Name</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>NoticeGroup_UserID</t>
-  </si>
-  <si>
-    <t>Notice_Identifier</t>
-  </si>
-  <si>
-    <t>Correlation_ID</t>
-  </si>
-  <si>
-    <t>Thru_Date</t>
-  </si>
-  <si>
-    <t>From_Date</t>
-  </si>
-  <si>
-    <t>Search_By</t>
-  </si>
-  <si>
-    <t>Notice_Method</t>
-  </si>
-  <si>
-    <t>BEO_StartDate</t>
-  </si>
-  <si>
-    <t>BEO_EndDate</t>
-  </si>
-  <si>
-    <t>Customer_IdentifiedBy</t>
-  </si>
-  <si>
-    <t>Zero_TempPath</t>
-  </si>
-  <si>
-    <t>InputFilePath</t>
-  </si>
-  <si>
-    <t>XML_File</t>
-  </si>
-  <si>
-    <t>Temp_File</t>
-  </si>
-  <si>
-    <t>InputJson</t>
-  </si>
-  <si>
-    <t>ExpectedJson</t>
-  </si>
-  <si>
-    <t>OutputFilePath</t>
-  </si>
-  <si>
-    <t>Field_Name</t>
-  </si>
-  <si>
-    <t>OutputAPIResponse</t>
-  </si>
-  <si>
-    <t>messageId</t>
-  </si>
-  <si>
-    <t>CallBack_Status</t>
-  </si>
-  <si>
-    <t>CallBack_Status2</t>
-  </si>
-  <si>
-    <t>errorMessage</t>
-  </si>
-  <si>
-    <t>errorMessage_2</t>
-  </si>
-  <si>
-    <t>Notice_Status</t>
-  </si>
-  <si>
-    <t>XML_NoticeType</t>
-  </si>
-  <si>
-    <t>Branch_Description</t>
-  </si>
-  <si>
-    <t>Loan_PricingOption</t>
-  </si>
-  <si>
-    <t>Balance_Amount</t>
-  </si>
-  <si>
-    <t>Rate_Basis</t>
-  </si>
-  <si>
-    <t>Loan_BaseRate</t>
-  </si>
-  <si>
-    <t>Loan_Spread</t>
-  </si>
-  <si>
-    <t>Notice_AllInRate</t>
-  </si>
-  <si>
-    <t>Notice_Amount</t>
-  </si>
-  <si>
-    <t>Loan_GlobalOriginal</t>
-  </si>
-  <si>
-    <t>Loan_RateSetting_DueDate</t>
-  </si>
-  <si>
-    <t>Loan_BorrowerAmount</t>
-  </si>
-  <si>
-    <t>Loan_LenderAmount</t>
-  </si>
-  <si>
-    <t>Loan_PaymentAmount</t>
-  </si>
-  <si>
-    <t>EffectiveDate_PrincipalPayment</t>
-  </si>
-  <si>
-    <t>Outstanding_PrincipalPayment</t>
-  </si>
-  <si>
-    <t>EffectiveDate_InterestPayment</t>
-  </si>
-  <si>
-    <t>ProjectedCycleDue_InterestPayment</t>
-  </si>
-  <si>
-    <t>StartDate_Principal</t>
-  </si>
-  <si>
-    <t>EndDate_Principal</t>
-  </si>
-  <si>
-    <t>Days_Principal</t>
-  </si>
-  <si>
-    <t>Principal_Amount</t>
-  </si>
-  <si>
-    <t>StartDate_Interest</t>
-  </si>
-  <si>
-    <t>EndDate_Interest</t>
-  </si>
-  <si>
-    <t>Days_Interest</t>
-  </si>
-  <si>
-    <t>Interest_Amount</t>
-  </si>
-  <si>
-    <t>SENT_Fee Payment Notice</t>
-  </si>
-  <si>
-    <t>Line Fee in Advance Payment Notice</t>
-  </si>
-  <si>
-    <t>WESTPAC BANKING CORP</t>
-  </si>
-  <si>
-    <t>JOHN BLACK</t>
-  </si>
-  <si>
-    <t>LOANIQ01</t>
-  </si>
-  <si>
-    <t>?JEOJI0F</t>
-  </si>
-  <si>
-    <t>LIQ-?JEOJI0F-?JEOJHWH-2</t>
-  </si>
-  <si>
-    <t>2026-11-22 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2020-11-23 00:00:00.000</t>
-  </si>
-  <si>
-    <t>Notice Identifier</t>
-  </si>
-  <si>
-    <t>2021-02-17 20:23:50.382</t>
-  </si>
-  <si>
-    <t>Legal Name</t>
-  </si>
-  <si>
-    <t>C:\Users\u720589\AppData\Local\Temp\</t>
-  </si>
-  <si>
-    <t>\DataSet\NewUATDeals_DataSet\API\Input\Correspondence\</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_XML_01</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_TEMP_01</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_INP_01</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_EXP_01</t>
-  </si>
-  <si>
-    <t>\DataSet\NewUATDeals_DataSet\API\Output\Correspondence\</t>
-  </si>
-  <si>
-    <t>correlationId</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_RES_01</t>
-  </si>
-  <si>
-    <t>SENT</t>
-  </si>
-  <si>
-    <t>Sent</t>
-  </si>
-  <si>
-    <t>FEE INVOICE</t>
-  </si>
-  <si>
-    <t>0.520000%</t>
-  </si>
-  <si>
-    <t>Fee Payment Notice</t>
-  </si>
-  <si>
-    <t>George Lippman</t>
-  </si>
-  <si>
-    <t>?JEOJI0G</t>
-  </si>
-  <si>
-    <t>LIQ-?JEOJI0G-?JEOJHWH-2</t>
-  </si>
-  <si>
-    <t>2021-02-17 20:36:31.773</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_XML_02</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_TEMP_02</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_INP_02</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_EXP_02</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_RES_02</t>
-  </si>
-  <si>
-    <t>SENT_Drawdown Intent Notice</t>
-  </si>
-  <si>
-    <t>Drawdown Intent Notice</t>
-  </si>
-  <si>
-    <t>SUEOJKYC</t>
-  </si>
-  <si>
-    <t>LIQ-SUEOJKYC-S4EOJK00-2</t>
-  </si>
-  <si>
-    <t>2021-02-17 21:36:43.519</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_XML_01</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_TEMP_01</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_INP_01</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_EXP_01</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_RES_01</t>
-  </si>
-  <si>
-    <t>DRAWDOWN INTENT NOTICE</t>
-  </si>
-  <si>
-    <t>SUEOJKYD</t>
-  </si>
-  <si>
-    <t>LIQ-SUEOJKYD-S4EOJK00-2</t>
-  </si>
-  <si>
-    <t>2021-02-17 21:45:55.591</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_XML_02</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_TEMP_02</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_INP_02</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_EXP_02</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_RES_02</t>
-  </si>
-  <si>
-    <t>SENT_Rate Setting Notice</t>
-  </si>
-  <si>
-    <t>Rate Setting Notice</t>
-  </si>
-  <si>
-    <t>S9EOJLSR</t>
-  </si>
-  <si>
-    <t>LIQ-S9EOJLSR-S4EOJK00-2</t>
-  </si>
-  <si>
-    <t>2021-02-17 21:53:03.839</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_XML_01</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_TEMP_01</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_INP_01</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_EXP_01</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_RES_01</t>
-  </si>
-  <si>
-    <t>DRAWDOWN RATE SET NOTICE</t>
-  </si>
-  <si>
-    <t>69,220.60</t>
-  </si>
-  <si>
-    <t>27-Oct-2025</t>
-  </si>
-  <si>
-    <t>S9EOJLSS</t>
-  </si>
-  <si>
-    <t>LIQ-S9EOJLSS-S4EOJK00-2</t>
-  </si>
-  <si>
-    <t>2021-02-17 22:01:20.519</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_XML_02</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_TEMP_02</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_INP_02</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_EXP_02</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_RES_02</t>
-  </si>
-  <si>
-    <t>SENT_Repricing Intent Notice</t>
-  </si>
-  <si>
-    <t>Repricing Intent Notice</t>
-  </si>
-  <si>
-    <t>NNEOK79S</t>
-  </si>
-  <si>
-    <t>LIQ-NNEOK79S-N7EOK6AS-2</t>
-  </si>
-  <si>
-    <t>2026-11-29 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2020-11-30 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2021-02-18 12:38:03.779</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_XML_01</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_TEMP_01</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_INP_01</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_EXP_01</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_RES_01</t>
-  </si>
-  <si>
-    <t>ROLLOVER INTENT NOTICE</t>
-  </si>
-  <si>
-    <t>Interest Payment</t>
-  </si>
-  <si>
-    <t>NNEOK79T</t>
-  </si>
-  <si>
-    <t>LIQ-NNEOK79T-N7EOK6AS-2</t>
-  </si>
-  <si>
-    <t>2021-02-18 12:47:44.404</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_XML_02</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_TEMP_02</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_INP_02</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_EXP_02</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_RES_02</t>
-  </si>
-  <si>
-    <t>SENT_Repricing_Rate Setting Notice</t>
-  </si>
-  <si>
-    <t>Deal Level Loan Repricing Rate Setting Notice</t>
-  </si>
-  <si>
-    <t>NIEOK83T</t>
-  </si>
-  <si>
-    <t>LIQ-NIEOK83T-N7EOK6AS-2</t>
-  </si>
-  <si>
-    <t>2021-02-18 12:57:33.409</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_XML_01</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_TEMP_01</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_INP_01</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_EXP_01</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_RES_01</t>
-  </si>
-  <si>
-    <t>ROLLOVER RATE SET NOTICE</t>
-  </si>
-  <si>
-    <t>NIEOK83U</t>
-  </si>
-  <si>
-    <t>LIQ-NIEOK83U-N7EOK6AS-2</t>
-  </si>
-  <si>
-    <t>2021-02-18 13:24:28.885</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_XML_02</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_TEMP_02</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_INP_02</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_EXP_02</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_RES_02</t>
-  </si>
-  <si>
-    <t>Upfront Fee From Borrower/Agent/Third Party Intent Notice</t>
-  </si>
-  <si>
-    <t>NHEOK378</t>
-  </si>
-  <si>
-    <t>LIQ-NHEOK378-NHEOK333-2</t>
-  </si>
-  <si>
-    <t>2024-02-18 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2018-02-19 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2021-02-18 03:38:13.467</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_XML_03</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_TEMP_03</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_INP_03</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_EXP_03</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_RES_03</t>
-  </si>
-  <si>
-    <t>SENT_Paperclip Notice</t>
-  </si>
-  <si>
-    <t>Paper Clip Intent Notice</t>
-  </si>
-  <si>
-    <t>I$EOKVXX</t>
-  </si>
-  <si>
-    <t>LIQ-I$EOKVXX-I$EOKVUU-2</t>
-  </si>
-  <si>
-    <t>2021-02-18 21:40:22.678</t>
-  </si>
-  <si>
-    <t>PaperclipNotice_XML_01</t>
-  </si>
-  <si>
-    <t>PaperclipNotice_TEMP_01</t>
-  </si>
-  <si>
-    <t>PaperclipNotice_INP_01</t>
-  </si>
-  <si>
-    <t>PaperclipNotice_EXP_01</t>
-  </si>
-  <si>
-    <t>PaperclipNotice_RES_01</t>
-  </si>
-  <si>
-    <t>PAYMENT NOTICE</t>
-  </si>
-  <si>
-    <t>721,452.06</t>
-  </si>
-  <si>
-    <t>31-Dec-2019</t>
-  </si>
-  <si>
-    <t>779,671.23</t>
-  </si>
-  <si>
-    <t>05-Jan-2020</t>
-  </si>
-  <si>
-    <t>72,191.78</t>
-  </si>
-  <si>
-    <t>I$EOKVXY</t>
-  </si>
-  <si>
-    <t>LIQ-I$EOKVXY-I$EOKVUU-2</t>
-  </si>
-  <si>
-    <t>2021-02-18 21:43:58.594</t>
-  </si>
-  <si>
-    <t>88,500,000.00</t>
+    <t>RGEOWPPE</t>
+  </si>
+  <si>
+    <t>LIQ-RGEOWPPE-RLEOWO5U-3</t>
+  </si>
+  <si>
+    <t>2027-08-08 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2021-01-21 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2021-03-01 12:20:20.652</t>
+  </si>
+  <si>
+    <t>RGEOWPPF</t>
+  </si>
+  <si>
+    <t>LIQ-RGEOWPPF-RLEOWO5U-2</t>
+  </si>
+  <si>
+    <t>2021-03-01 12:30:30.991</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_RES_03</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_RES_04</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_RES_03</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_RES_04</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_EXP_03</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_EXP_04</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_EXP_03</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_EXP_04</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_INP_03</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_INP_04</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_INP_03</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_INP_04</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_TEMP_03</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_TEMP_04</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_TEMP_03</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_TEMP_04</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_XML_03</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_XML_04</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_XML_03</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_XML_04</t>
   </si>
 </sst>
 </file>
@@ -3552,8 +3636,8 @@
     <col min="87" max="87" width="7.85546875" style="81" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="16.42578125" style="81" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="8.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="90" max="177" width="9.140625" style="81" customWidth="1"/>
-    <col min="178" max="16384" width="9.140625" style="81"/>
+    <col min="90" max="179" width="9.140625" style="81" customWidth="1"/>
+    <col min="180" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" x14ac:dyDescent="0.2">
@@ -4167,8 +4251,8 @@
     <col min="46" max="46" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="49" max="112" width="9.140625" style="83" customWidth="1"/>
+    <col min="113" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4349,8 +4433,8 @@
     <col min="46" max="46" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="49" max="112" width="9.140625" style="83" customWidth="1"/>
+    <col min="113" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="92" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4606,8 +4690,8 @@
     <col min="46" max="46" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="49" max="112" width="9.140625" style="83" customWidth="1"/>
+    <col min="113" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4815,8 +4899,8 @@
     <col min="46" max="46" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="49" max="112" width="9.140625" style="83" customWidth="1"/>
+    <col min="113" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4973,11 +5057,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BR14"/>
+  <dimension ref="A1:BR18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+      <selection pane="topRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5048,8 +5132,8 @@
     <col min="68" max="68" width="16.42578125" style="83" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="13.140625" style="83" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="15.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="71" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="71" max="112" width="9.140625" style="83" customWidth="1"/>
+    <col min="113" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7914,6 +7998,822 @@
       </c>
       <c r="BR14" s="100" t="s">
         <v>843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A15" s="100">
+        <v>14</v>
+      </c>
+      <c r="B15" s="100" t="s">
+        <v>776</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>847</v>
+      </c>
+      <c r="F15" s="100">
+        <v>1195</v>
+      </c>
+      <c r="G15" s="100" t="s">
+        <v>777</v>
+      </c>
+      <c r="H15" s="100" t="s">
+        <v>703</v>
+      </c>
+      <c r="I15" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="J15" s="100" t="s">
+        <v>704</v>
+      </c>
+      <c r="K15" s="100" t="s">
+        <v>705</v>
+      </c>
+      <c r="L15" s="100" t="s">
+        <v>848</v>
+      </c>
+      <c r="M15" s="100" t="s">
+        <v>849</v>
+      </c>
+      <c r="N15" s="53" t="s">
+        <v>850</v>
+      </c>
+      <c r="O15" s="53" t="s">
+        <v>851</v>
+      </c>
+      <c r="P15" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q15" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="R15" s="53" t="s">
+        <v>852</v>
+      </c>
+      <c r="S15" s="53" t="s">
+        <v>852</v>
+      </c>
+      <c r="T15" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="U15" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="V15" s="46" t="s">
+        <v>714</v>
+      </c>
+      <c r="W15" s="100" t="s">
+        <v>872</v>
+      </c>
+      <c r="X15" s="100" t="s">
+        <v>868</v>
+      </c>
+      <c r="Y15" s="100" t="s">
+        <v>864</v>
+      </c>
+      <c r="Z15" s="100" t="s">
+        <v>860</v>
+      </c>
+      <c r="AA15" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB15" s="46" t="s">
+        <v>720</v>
+      </c>
+      <c r="AC15" s="100" t="s">
+        <v>856</v>
+      </c>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46" t="s">
+        <v>723</v>
+      </c>
+      <c r="AJ15" s="100" t="s">
+        <v>788</v>
+      </c>
+      <c r="AK15" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL15" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO15" s="100" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR15" s="100" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU15" s="100" t="s">
+        <v>437</v>
+      </c>
+      <c r="AV15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY15" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="AZ15" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA15" s="100" t="s">
+        <v>572</v>
+      </c>
+      <c r="BB15" s="100" t="s">
+        <v>572</v>
+      </c>
+      <c r="BC15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE15" s="100" t="s">
+        <v>789</v>
+      </c>
+      <c r="BF15" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BP15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR15" s="45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A16" s="100">
+        <v>15</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>776</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>847</v>
+      </c>
+      <c r="F16" s="100">
+        <v>1195</v>
+      </c>
+      <c r="G16" s="100" t="s">
+        <v>777</v>
+      </c>
+      <c r="H16" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="J16" s="100" t="s">
+        <v>727</v>
+      </c>
+      <c r="K16" s="100" t="s">
+        <v>705</v>
+      </c>
+      <c r="L16" s="100" t="s">
+        <v>853</v>
+      </c>
+      <c r="M16" s="100" t="s">
+        <v>854</v>
+      </c>
+      <c r="N16" s="53" t="s">
+        <v>850</v>
+      </c>
+      <c r="O16" s="53" t="s">
+        <v>851</v>
+      </c>
+      <c r="P16" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q16" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="R16" s="53" t="s">
+        <v>855</v>
+      </c>
+      <c r="S16" s="53" t="s">
+        <v>855</v>
+      </c>
+      <c r="T16" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="U16" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="V16" s="46" t="s">
+        <v>714</v>
+      </c>
+      <c r="W16" s="100" t="s">
+        <v>873</v>
+      </c>
+      <c r="X16" s="100" t="s">
+        <v>869</v>
+      </c>
+      <c r="Y16" s="100" t="s">
+        <v>865</v>
+      </c>
+      <c r="Z16" s="100" t="s">
+        <v>861</v>
+      </c>
+      <c r="AA16" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB16" s="46" t="s">
+        <v>720</v>
+      </c>
+      <c r="AC16" s="100" t="s">
+        <v>857</v>
+      </c>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46" t="s">
+        <v>723</v>
+      </c>
+      <c r="AJ16" s="100" t="s">
+        <v>788</v>
+      </c>
+      <c r="AK16" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL16" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO16" s="100" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR16" s="100" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU16" s="100" t="s">
+        <v>437</v>
+      </c>
+      <c r="AV16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY16" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="AZ16" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA16" s="100" t="s">
+        <v>572</v>
+      </c>
+      <c r="BB16" s="100" t="s">
+        <v>572</v>
+      </c>
+      <c r="BC16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE16" s="100" t="s">
+        <v>789</v>
+      </c>
+      <c r="BF16" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BP16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR16" s="45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A17" s="100">
+        <v>16</v>
+      </c>
+      <c r="B17" s="100" t="s">
+        <v>798</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>847</v>
+      </c>
+      <c r="F17" s="100">
+        <v>1195</v>
+      </c>
+      <c r="G17" s="100" t="s">
+        <v>799</v>
+      </c>
+      <c r="H17" s="100" t="s">
+        <v>703</v>
+      </c>
+      <c r="I17" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="J17" s="100" t="s">
+        <v>704</v>
+      </c>
+      <c r="K17" s="100" t="s">
+        <v>705</v>
+      </c>
+      <c r="L17" s="100" t="s">
+        <v>800</v>
+      </c>
+      <c r="M17" s="100" t="s">
+        <v>801</v>
+      </c>
+      <c r="N17" s="53" t="s">
+        <v>780</v>
+      </c>
+      <c r="O17" s="53" t="s">
+        <v>781</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q17" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="R17" s="53" t="s">
+        <v>802</v>
+      </c>
+      <c r="S17" s="53" t="s">
+        <v>802</v>
+      </c>
+      <c r="T17" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="U17" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="V17" s="46" t="s">
+        <v>714</v>
+      </c>
+      <c r="W17" s="100" t="s">
+        <v>874</v>
+      </c>
+      <c r="X17" s="100" t="s">
+        <v>870</v>
+      </c>
+      <c r="Y17" s="100" t="s">
+        <v>866</v>
+      </c>
+      <c r="Z17" s="100" t="s">
+        <v>862</v>
+      </c>
+      <c r="AA17" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB17" s="46" t="s">
+        <v>720</v>
+      </c>
+      <c r="AC17" s="100" t="s">
+        <v>858</v>
+      </c>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46" t="s">
+        <v>723</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="AK17" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL17" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR17" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="AS17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU17" s="100" t="s">
+        <v>351</v>
+      </c>
+      <c r="AV17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY17" s="100" t="s">
+        <v>563</v>
+      </c>
+      <c r="AZ17" s="100" t="s">
+        <v>420</v>
+      </c>
+      <c r="BA17" s="100" t="s">
+        <v>562</v>
+      </c>
+      <c r="BB17" s="100" t="s">
+        <v>766</v>
+      </c>
+      <c r="BC17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE17" s="100" t="s">
+        <v>789</v>
+      </c>
+      <c r="BF17" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BP17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR17" s="45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A18" s="100">
+        <v>17</v>
+      </c>
+      <c r="B18" s="100" t="s">
+        <v>798</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>847</v>
+      </c>
+      <c r="F18" s="100">
+        <v>1195</v>
+      </c>
+      <c r="G18" s="100" t="s">
+        <v>799</v>
+      </c>
+      <c r="H18" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="J18" s="100" t="s">
+        <v>727</v>
+      </c>
+      <c r="K18" s="100" t="s">
+        <v>705</v>
+      </c>
+      <c r="L18" s="100" t="s">
+        <v>809</v>
+      </c>
+      <c r="M18" s="100" t="s">
+        <v>810</v>
+      </c>
+      <c r="N18" s="53" t="s">
+        <v>780</v>
+      </c>
+      <c r="O18" s="53" t="s">
+        <v>781</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q18" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="R18" s="53" t="s">
+        <v>811</v>
+      </c>
+      <c r="S18" s="53" t="s">
+        <v>811</v>
+      </c>
+      <c r="T18" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="U18" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="V18" s="46" t="s">
+        <v>714</v>
+      </c>
+      <c r="W18" s="100" t="s">
+        <v>875</v>
+      </c>
+      <c r="X18" s="100" t="s">
+        <v>871</v>
+      </c>
+      <c r="Y18" s="100" t="s">
+        <v>867</v>
+      </c>
+      <c r="Z18" s="100" t="s">
+        <v>863</v>
+      </c>
+      <c r="AA18" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB18" s="46" t="s">
+        <v>720</v>
+      </c>
+      <c r="AC18" s="100" t="s">
+        <v>859</v>
+      </c>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46" t="s">
+        <v>723</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="AK18" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL18" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR18" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="AS18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU18" s="100" t="s">
+        <v>351</v>
+      </c>
+      <c r="AV18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY18" s="100" t="s">
+        <v>563</v>
+      </c>
+      <c r="AZ18" s="100" t="s">
+        <v>420</v>
+      </c>
+      <c r="BA18" s="100" t="s">
+        <v>562</v>
+      </c>
+      <c r="BB18" s="100" t="s">
+        <v>766</v>
+      </c>
+      <c r="BC18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE18" s="100" t="s">
+        <v>789</v>
+      </c>
+      <c r="BF18" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BP18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR18" s="45" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -7973,8 +8873,8 @@
     <col min="33" max="33" width="25.85546875" style="83" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.7109375" style="83" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11" style="83" bestFit="1" customWidth="1"/>
-    <col min="36" max="49" width="6.42578125" style="83" customWidth="1"/>
-    <col min="50" max="16384" width="6.42578125" style="83"/>
+    <col min="36" max="51" width="6.42578125" style="83" customWidth="1"/>
+    <col min="52" max="16384" width="6.42578125" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="104" customFormat="1" x14ac:dyDescent="0.2">
@@ -8246,8 +9146,8 @@
     <col min="30" max="30" width="6" style="83" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="16" style="20" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="49" width="6.42578125" style="83" customWidth="1"/>
-    <col min="50" max="16384" width="6.42578125" style="83"/>
+    <col min="33" max="51" width="6.42578125" style="83" customWidth="1"/>
+    <col min="52" max="16384" width="6.42578125" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8518,8 +9418,8 @@
     <col min="65" max="65" width="28.7109375" style="83" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="15.28515625" style="83" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="14.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="68" max="72" width="6.7109375" style="83" customWidth="1"/>
-    <col min="73" max="16384" width="6.7109375" style="83"/>
+    <col min="68" max="74" width="6.7109375" style="83" customWidth="1"/>
+    <col min="75" max="16384" width="6.7109375" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.2">
@@ -8981,8 +9881,8 @@
     <col min="32" max="32" width="11.140625" style="35" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="23" style="81" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="36" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="36" max="112" width="9.140625" style="83" customWidth="1"/>
+    <col min="113" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9251,8 +10151,8 @@
     <col min="32" max="32" width="18.28515625" style="35" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="29.140625" style="81" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="36" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="36" max="112" width="9.140625" style="83" customWidth="1"/>
+    <col min="113" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9703,8 +10603,8 @@
     <col min="32" max="32" width="18.28515625" style="35" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="29.140625" style="81" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="36" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="36" max="112" width="9.140625" style="83" customWidth="1"/>
+    <col min="113" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9875,8 +10775,8 @@
     <col min="46" max="46" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="49" max="112" width="9.140625" style="83" customWidth="1"/>
+    <col min="113" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10183,9 +11083,9 @@
   </sheetPr>
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG4" sqref="AG4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10235,8 +11135,8 @@
     <col min="52" max="52" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="55" max="116" width="9.140625" style="83" customWidth="1"/>
-    <col min="117" max="16384" width="9.140625" style="83"/>
+    <col min="55" max="118" width="9.140625" style="83" customWidth="1"/>
+    <col min="119" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="79" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10516,8 +11416,8 @@
       <c r="R3" s="85" t="s">
         <v>573</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>574</v>
+      <c r="S3" s="3">
+        <v>60003351</v>
       </c>
       <c r="T3" s="41" t="s">
         <v>118</v>
@@ -10541,7 +11441,7 @@
         <v>128</v>
       </c>
       <c r="AA3" s="41" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>424</v>
@@ -10550,16 +11450,16 @@
         <v>565</v>
       </c>
       <c r="AD3" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="AF3" s="10" t="s">
         <v>572</v>
       </c>
       <c r="AG3" s="10" t="s">
-        <v>847</v>
+        <v>577</v>
       </c>
       <c r="AH3" s="10" t="s">
         <v>578</v>

--- a/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7D4EF4-F364-4A80-8F17-7DC85ADCBF6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351E8C90-EAD5-4712-9A7A-7BCC5EA3FEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,22 @@
     <sheet name="MTAM14_ManualCashflow_Outgoing" sheetId="13" r:id="rId13"/>
     <sheet name="Correspondence" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="882">
   <si>
     <t>rowid</t>
   </si>
@@ -1757,826 +1767,928 @@
     <t>24-Feb-2020</t>
   </si>
   <si>
+    <t>WBC032916100059</t>
+  </si>
+  <si>
+    <t>0.935000%</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>88,500,000.00</t>
+  </si>
+  <si>
+    <t>714,465.76</t>
+  </si>
+  <si>
+    <t>45,926.71</t>
+  </si>
+  <si>
+    <t>UpfrontFee_Amount</t>
+  </si>
+  <si>
+    <t>UpfrontFee_EffectiveDate</t>
+  </si>
+  <si>
+    <t>UpfrontFeePayment_Comment</t>
+  </si>
+  <si>
+    <t>Charge Upfront fee</t>
+  </si>
+  <si>
+    <t>Establishment/Extension Fee</t>
+  </si>
+  <si>
+    <t>Charging the Upfront Fee for Extension Fee</t>
+  </si>
+  <si>
+    <t>Payment_Type</t>
+  </si>
+  <si>
+    <t>Paperclip_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Paperclip_TransactionDescription</t>
+  </si>
+  <si>
+    <t>Loan_Transaction_Type</t>
+  </si>
+  <si>
+    <t>Loan_Transaction_Type2</t>
+  </si>
+  <si>
+    <t>Cycles_ForLoan</t>
+  </si>
+  <si>
+    <t>Loan_CycleNumber</t>
+  </si>
+  <si>
+    <t>Interest_Due</t>
+  </si>
+  <si>
+    <t>Total_Prepayment_Amount</t>
+  </si>
+  <si>
+    <t>Breakfunding_Reason</t>
+  </si>
+  <si>
+    <t>GLShortName</t>
+  </si>
+  <si>
+    <t>CashFlow_AfterStatus</t>
+  </si>
+  <si>
+    <t>Collect Early Prepayment</t>
+  </si>
+  <si>
+    <t>Paper Clip Payment</t>
+  </si>
+  <si>
+    <t>Early Partial Prepayment</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>50,000,000.00</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Pro Rate based on Principal</t>
+  </si>
+  <si>
+    <t>130,410.95</t>
+  </si>
+  <si>
+    <t>50,130,410.95</t>
+  </si>
+  <si>
+    <t>BBSY - Bid Loan</t>
+  </si>
+  <si>
+    <t>Borrower Decision</t>
+  </si>
+  <si>
+    <t>Special Acc't Pay.</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>12-Jun-2023</t>
+  </si>
+  <si>
+    <t>Deal_Borrower</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Incoming_Amount</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Processing_Area</t>
+  </si>
+  <si>
+    <t>Customer_ServicingGroup</t>
+  </si>
+  <si>
+    <t>Branch_ServicingGroup</t>
+  </si>
+  <si>
+    <t>GL_ShortName</t>
+  </si>
+  <si>
+    <t>Portfolio_Code</t>
+  </si>
+  <si>
+    <t>Borrower_RemittanceDescription</t>
+  </si>
+  <si>
+    <t>IncomingManualCashflowDesc_AwaitingRelease</t>
+  </si>
+  <si>
+    <t>Expected_GLShortName</t>
+  </si>
+  <si>
+    <t>Expected_ExpenseCode</t>
+  </si>
+  <si>
+    <t>GL_Entries_RIMethod</t>
+  </si>
+  <si>
+    <t>GL_Entries_ShortName</t>
+  </si>
+  <si>
+    <t>Manual Cashflow - Incoming</t>
+  </si>
+  <si>
+    <t>CB001</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>Collect breakgain from WBC to distribute to borrow</t>
+  </si>
+  <si>
+    <t>Non-Agency Australia</t>
+  </si>
+  <si>
+    <t>BLACK</t>
+  </si>
+  <si>
+    <t>Breakfunding Event Fee Income</t>
+  </si>
+  <si>
+    <t>Incoming Manual Cashflow / Awaiting Release / Collect breakgain from WBC to distribute to borrow</t>
+  </si>
+  <si>
+    <t>BFEI-Breakfunding Event Fee Income</t>
+  </si>
+  <si>
+    <t>RE_RES-Real Estate Solutions</t>
+  </si>
+  <si>
+    <t>RTGS (AUD)</t>
+  </si>
+  <si>
+    <t>Outgoing_Amount</t>
+  </si>
+  <si>
+    <t>OutgoingManualCashflowDesc_AwaitingRelease</t>
+  </si>
+  <si>
+    <t>Manual Cashflow - Outgoing</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>Distribute break gain to borrower</t>
+  </si>
+  <si>
+    <t>ABC11122223</t>
+  </si>
+  <si>
+    <t>Outgoing Manual Cashflow / Awaiting Release / Distribute break gain to borrower</t>
+  </si>
+  <si>
+    <t>SubAdd_Days</t>
+  </si>
+  <si>
+    <t>Notice_Type</t>
+  </si>
+  <si>
+    <t>Notice_Customer_LegalName</t>
+  </si>
+  <si>
+    <t>Account_Name</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>NoticeGroup_UserID</t>
+  </si>
+  <si>
+    <t>Notice_Identifier</t>
+  </si>
+  <si>
+    <t>Correlation_ID</t>
+  </si>
+  <si>
+    <t>Thru_Date</t>
+  </si>
+  <si>
+    <t>From_Date</t>
+  </si>
+  <si>
+    <t>Search_By</t>
+  </si>
+  <si>
+    <t>Notice_Method</t>
+  </si>
+  <si>
+    <t>BEO_StartDate</t>
+  </si>
+  <si>
+    <t>BEO_EndDate</t>
+  </si>
+  <si>
+    <t>Customer_IdentifiedBy</t>
+  </si>
+  <si>
+    <t>Zero_TempPath</t>
+  </si>
+  <si>
+    <t>InputFilePath</t>
+  </si>
+  <si>
+    <t>XML_File</t>
+  </si>
+  <si>
+    <t>Temp_File</t>
+  </si>
+  <si>
+    <t>InputJson</t>
+  </si>
+  <si>
+    <t>ExpectedJson</t>
+  </si>
+  <si>
+    <t>OutputFilePath</t>
+  </si>
+  <si>
+    <t>Field_Name</t>
+  </si>
+  <si>
+    <t>OutputAPIResponse</t>
+  </si>
+  <si>
+    <t>messageId</t>
+  </si>
+  <si>
+    <t>CallBack_Status</t>
+  </si>
+  <si>
+    <t>CallBack_Status2</t>
+  </si>
+  <si>
+    <t>errorMessage</t>
+  </si>
+  <si>
+    <t>errorMessage_2</t>
+  </si>
+  <si>
+    <t>Notice_Status</t>
+  </si>
+  <si>
+    <t>XML_NoticeType</t>
+  </si>
+  <si>
+    <t>Branch_Description</t>
+  </si>
+  <si>
+    <t>Loan_PricingOption</t>
+  </si>
+  <si>
+    <t>Balance_Amount</t>
+  </si>
+  <si>
+    <t>Rate_Basis</t>
+  </si>
+  <si>
+    <t>Loan_BaseRate</t>
+  </si>
+  <si>
+    <t>Loan_Spread</t>
+  </si>
+  <si>
+    <t>Notice_AllInRate</t>
+  </si>
+  <si>
+    <t>Notice_Amount</t>
+  </si>
+  <si>
+    <t>Loan_GlobalOriginal</t>
+  </si>
+  <si>
+    <t>Loan_RateSetting_DueDate</t>
+  </si>
+  <si>
+    <t>Loan_BorrowerAmount</t>
+  </si>
+  <si>
+    <t>Loan_LenderAmount</t>
+  </si>
+  <si>
+    <t>Loan_PaymentAmount</t>
+  </si>
+  <si>
+    <t>EffectiveDate_PrincipalPayment</t>
+  </si>
+  <si>
+    <t>Outstanding_PrincipalPayment</t>
+  </si>
+  <si>
+    <t>EffectiveDate_InterestPayment</t>
+  </si>
+  <si>
+    <t>ProjectedCycleDue_InterestPayment</t>
+  </si>
+  <si>
+    <t>StartDate_Principal</t>
+  </si>
+  <si>
+    <t>EndDate_Principal</t>
+  </si>
+  <si>
+    <t>Days_Principal</t>
+  </si>
+  <si>
+    <t>Principal_Amount</t>
+  </si>
+  <si>
+    <t>StartDate_Interest</t>
+  </si>
+  <si>
+    <t>EndDate_Interest</t>
+  </si>
+  <si>
+    <t>Days_Interest</t>
+  </si>
+  <si>
+    <t>Interest_Amount</t>
+  </si>
+  <si>
+    <t>SENT_Fee Payment Notice</t>
+  </si>
+  <si>
+    <t>Line Fee in Advance Payment Notice</t>
+  </si>
+  <si>
+    <t>WESTPAC BANKING CORP</t>
+  </si>
+  <si>
+    <t>JOHN BLACK</t>
+  </si>
+  <si>
+    <t>LOANIQ01</t>
+  </si>
+  <si>
+    <t>?JEOJI0F</t>
+  </si>
+  <si>
+    <t>LIQ-?JEOJI0F-?JEOJHWH-2</t>
+  </si>
+  <si>
+    <t>2026-11-22 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2020-11-23 00:00:00.000</t>
+  </si>
+  <si>
+    <t>Notice Identifier</t>
+  </si>
+  <si>
+    <t>2021-02-17 20:23:50.382</t>
+  </si>
+  <si>
+    <t>Legal Name</t>
+  </si>
+  <si>
+    <t>C:\Users\u720589\AppData\Local\Temp\</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\API\Input\Correspondence\</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_XML_01</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_TEMP_01</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_INP_01</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_EXP_01</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\API\Output\Correspondence\</t>
+  </si>
+  <si>
+    <t>correlationId</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_RES_01</t>
+  </si>
+  <si>
+    <t>SENT</t>
+  </si>
+  <si>
+    <t>Sent</t>
+  </si>
+  <si>
+    <t>FEE INVOICE</t>
+  </si>
+  <si>
+    <t>0.520000%</t>
+  </si>
+  <si>
+    <t>Fee Payment Notice</t>
+  </si>
+  <si>
+    <t>George Lippman</t>
+  </si>
+  <si>
+    <t>?JEOJI0G</t>
+  </si>
+  <si>
+    <t>LIQ-?JEOJI0G-?JEOJHWH-2</t>
+  </si>
+  <si>
+    <t>2021-02-17 20:36:31.773</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_XML_02</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_TEMP_02</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_INP_02</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_EXP_02</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_RES_02</t>
+  </si>
+  <si>
+    <t>SENT_Drawdown Intent Notice</t>
+  </si>
+  <si>
+    <t>Drawdown Intent Notice</t>
+  </si>
+  <si>
+    <t>SUEOJKYC</t>
+  </si>
+  <si>
+    <t>LIQ-SUEOJKYC-S4EOJK00-2</t>
+  </si>
+  <si>
+    <t>2021-02-17 21:36:43.519</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_XML_01</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_TEMP_01</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_INP_01</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_EXP_01</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_RES_01</t>
+  </si>
+  <si>
+    <t>DRAWDOWN INTENT NOTICE</t>
+  </si>
+  <si>
+    <t>SUEOJKYD</t>
+  </si>
+  <si>
+    <t>LIQ-SUEOJKYD-S4EOJK00-2</t>
+  </si>
+  <si>
+    <t>2021-02-17 21:45:55.591</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_XML_02</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_TEMP_02</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_INP_02</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_EXP_02</t>
+  </si>
+  <si>
+    <t>DrawdownIntentNotice_RES_02</t>
+  </si>
+  <si>
+    <t>SENT_Rate Setting Notice</t>
+  </si>
+  <si>
+    <t>Rate Setting Notice</t>
+  </si>
+  <si>
+    <t>S9EOJLSR</t>
+  </si>
+  <si>
+    <t>LIQ-S9EOJLSR-S4EOJK00-2</t>
+  </si>
+  <si>
+    <t>2021-02-17 21:53:03.839</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_XML_01</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_TEMP_01</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_INP_01</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_EXP_01</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_RES_01</t>
+  </si>
+  <si>
+    <t>DRAWDOWN RATE SET NOTICE</t>
+  </si>
+  <si>
+    <t>69,220.60</t>
+  </si>
+  <si>
+    <t>27-Oct-2025</t>
+  </si>
+  <si>
+    <t>S9EOJLSS</t>
+  </si>
+  <si>
+    <t>LIQ-S9EOJLSS-S4EOJK00-2</t>
+  </si>
+  <si>
+    <t>2021-02-17 22:01:20.519</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_XML_02</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_TEMP_02</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_INP_02</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_EXP_02</t>
+  </si>
+  <si>
+    <t>RateSettingNotice_RES_02</t>
+  </si>
+  <si>
+    <t>SENT_Repricing Intent Notice</t>
+  </si>
+  <si>
+    <t>Repricing Intent Notice</t>
+  </si>
+  <si>
+    <t>NNEOK79S</t>
+  </si>
+  <si>
+    <t>LIQ-NNEOK79S-N7EOK6AS-2</t>
+  </si>
+  <si>
+    <t>2026-11-29 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2020-11-30 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2021-02-18 12:38:03.779</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_XML_01</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_TEMP_01</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_INP_01</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_EXP_01</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_RES_01</t>
+  </si>
+  <si>
+    <t>ROLLOVER INTENT NOTICE</t>
+  </si>
+  <si>
+    <t>Interest Payment</t>
+  </si>
+  <si>
+    <t>NNEOK79T</t>
+  </si>
+  <si>
+    <t>LIQ-NNEOK79T-N7EOK6AS-2</t>
+  </si>
+  <si>
+    <t>2021-02-18 12:47:44.404</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_XML_02</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_TEMP_02</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_INP_02</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_EXP_02</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_RES_02</t>
+  </si>
+  <si>
+    <t>SENT_Repricing_Rate Setting Notice</t>
+  </si>
+  <si>
+    <t>Deal Level Loan Repricing Rate Setting Notice</t>
+  </si>
+  <si>
+    <t>NIEOK83T</t>
+  </si>
+  <si>
+    <t>LIQ-NIEOK83T-N7EOK6AS-2</t>
+  </si>
+  <si>
+    <t>2021-02-18 12:57:33.409</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_XML_01</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_TEMP_01</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_INP_01</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_EXP_01</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_RES_01</t>
+  </si>
+  <si>
+    <t>ROLLOVER RATE SET NOTICE</t>
+  </si>
+  <si>
+    <t>NIEOK83U</t>
+  </si>
+  <si>
+    <t>LIQ-NIEOK83U-N7EOK6AS-2</t>
+  </si>
+  <si>
+    <t>2021-02-18 13:24:28.885</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_XML_02</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_TEMP_02</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_INP_02</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_EXP_02</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_RES_02</t>
+  </si>
+  <si>
+    <t>Upfront Fee From Borrower/Agent/Third Party Intent Notice</t>
+  </si>
+  <si>
+    <t>NHEOK378</t>
+  </si>
+  <si>
+    <t>LIQ-NHEOK378-NHEOK333-2</t>
+  </si>
+  <si>
+    <t>2024-02-18 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2018-02-19 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2021-02-18 03:38:13.467</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_XML_03</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_TEMP_03</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_INP_03</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_EXP_03</t>
+  </si>
+  <si>
+    <t>FeePaymentNotice_RES_03</t>
+  </si>
+  <si>
+    <t>SENT_Paperclip Notice</t>
+  </si>
+  <si>
+    <t>Paper Clip Intent Notice</t>
+  </si>
+  <si>
+    <t>I$EOKVXX</t>
+  </si>
+  <si>
+    <t>LIQ-I$EOKVXX-I$EOKVUU-2</t>
+  </si>
+  <si>
+    <t>2021-02-18 21:40:22.678</t>
+  </si>
+  <si>
+    <t>PaperclipNotice_XML_01</t>
+  </si>
+  <si>
+    <t>PaperclipNotice_TEMP_01</t>
+  </si>
+  <si>
+    <t>PaperclipNotice_INP_01</t>
+  </si>
+  <si>
+    <t>PaperclipNotice_EXP_01</t>
+  </si>
+  <si>
+    <t>PaperclipNotice_RES_01</t>
+  </si>
+  <si>
+    <t>PAYMENT NOTICE</t>
+  </si>
+  <si>
+    <t>721,452.06</t>
+  </si>
+  <si>
+    <t>31-Dec-2019</t>
+  </si>
+  <si>
+    <t>779,671.23</t>
+  </si>
+  <si>
+    <t>05-Jan-2020</t>
+  </si>
+  <si>
+    <t>72,191.78</t>
+  </si>
+  <si>
+    <t>I$EOKVXY</t>
+  </si>
+  <si>
+    <t>LIQ-I$EOKVXY-I$EOKVUU-2</t>
+  </si>
+  <si>
+    <t>2021-02-18 21:43:58.594</t>
+  </si>
+  <si>
     <t>60003351</t>
   </si>
   <si>
-    <t>WBC032916100059</t>
-  </si>
-  <si>
-    <t>0.935000%</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>714,465.76</t>
-  </si>
-  <si>
-    <t>45,926.71</t>
-  </si>
-  <si>
-    <t>UpfrontFee_Amount</t>
-  </si>
-  <si>
-    <t>UpfrontFee_EffectiveDate</t>
-  </si>
-  <si>
-    <t>UpfrontFeePayment_Comment</t>
-  </si>
-  <si>
-    <t>Charge Upfront fee</t>
-  </si>
-  <si>
-    <t>Establishment/Extension Fee</t>
-  </si>
-  <si>
-    <t>Charging the Upfront Fee for Extension Fee</t>
-  </si>
-  <si>
-    <t>Payment_Type</t>
-  </si>
-  <si>
-    <t>Paperclip_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Paperclip_TransactionDescription</t>
-  </si>
-  <si>
-    <t>Loan_Transaction_Type</t>
-  </si>
-  <si>
-    <t>Loan_Transaction_Type2</t>
-  </si>
-  <si>
-    <t>Cycles_ForLoan</t>
-  </si>
-  <si>
-    <t>Loan_CycleNumber</t>
-  </si>
-  <si>
-    <t>Interest_Due</t>
-  </si>
-  <si>
-    <t>Total_Prepayment_Amount</t>
-  </si>
-  <si>
-    <t>Breakfunding_Reason</t>
-  </si>
-  <si>
-    <t>GLShortName</t>
-  </si>
-  <si>
-    <t>CashFlow_AfterStatus</t>
-  </si>
-  <si>
-    <t>Collect Early Prepayment</t>
-  </si>
-  <si>
-    <t>Paper Clip Payment</t>
-  </si>
-  <si>
-    <t>Early Partial Prepayment</t>
-  </si>
-  <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>50,000,000.00</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Pro Rate based on Principal</t>
-  </si>
-  <si>
-    <t>130,410.95</t>
-  </si>
-  <si>
-    <t>50,130,410.95</t>
-  </si>
-  <si>
-    <t>BBSY - Bid Loan</t>
-  </si>
-  <si>
-    <t>Borrower Decision</t>
-  </si>
-  <si>
-    <t>Special Acc't Pay.</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>12-Jun-2023</t>
-  </si>
-  <si>
-    <t>Deal_Borrower</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Incoming_Amount</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Processing_Area</t>
-  </si>
-  <si>
-    <t>Customer_ServicingGroup</t>
-  </si>
-  <si>
-    <t>Branch_ServicingGroup</t>
-  </si>
-  <si>
-    <t>GL_ShortName</t>
-  </si>
-  <si>
-    <t>Portfolio_Code</t>
-  </si>
-  <si>
-    <t>Borrower_RemittanceDescription</t>
-  </si>
-  <si>
-    <t>IncomingManualCashflowDesc_AwaitingRelease</t>
-  </si>
-  <si>
-    <t>Expected_GLShortName</t>
-  </si>
-  <si>
-    <t>Expected_ExpenseCode</t>
-  </si>
-  <si>
-    <t>GL_Entries_RIMethod</t>
-  </si>
-  <si>
-    <t>GL_Entries_ShortName</t>
-  </si>
-  <si>
-    <t>Manual Cashflow - Incoming</t>
-  </si>
-  <si>
-    <t>CB001</t>
-  </si>
-  <si>
-    <t>245.00</t>
-  </si>
-  <si>
-    <t>Collect breakgain from WBC to distribute to borrow</t>
-  </si>
-  <si>
-    <t>Non-Agency Australia</t>
-  </si>
-  <si>
-    <t>BLACK</t>
-  </si>
-  <si>
-    <t>Breakfunding Event Fee Income</t>
-  </si>
-  <si>
-    <t>Incoming Manual Cashflow / Awaiting Release / Collect breakgain from WBC to distribute to borrow</t>
-  </si>
-  <si>
-    <t>BFEI-Breakfunding Event Fee Income</t>
-  </si>
-  <si>
-    <t>RE_RES-Real Estate Solutions</t>
-  </si>
-  <si>
-    <t>RTGS (AUD)</t>
-  </si>
-  <si>
-    <t>Outgoing_Amount</t>
-  </si>
-  <si>
-    <t>OutgoingManualCashflowDesc_AwaitingRelease</t>
-  </si>
-  <si>
-    <t>Manual Cashflow - Outgoing</t>
-  </si>
-  <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>Distribute break gain to borrower</t>
-  </si>
-  <si>
-    <t>ABC11122223</t>
-  </si>
-  <si>
-    <t>Outgoing Manual Cashflow / Awaiting Release / Distribute break gain to borrower</t>
-  </si>
-  <si>
-    <t>SubAdd_Days</t>
-  </si>
-  <si>
-    <t>Notice_Type</t>
-  </si>
-  <si>
-    <t>Notice_Customer_LegalName</t>
-  </si>
-  <si>
-    <t>Account_Name</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>NoticeGroup_UserID</t>
-  </si>
-  <si>
-    <t>Notice_Identifier</t>
-  </si>
-  <si>
-    <t>Correlation_ID</t>
-  </si>
-  <si>
-    <t>Thru_Date</t>
-  </si>
-  <si>
-    <t>From_Date</t>
-  </si>
-  <si>
-    <t>Search_By</t>
-  </si>
-  <si>
-    <t>Notice_Method</t>
-  </si>
-  <si>
-    <t>BEO_StartDate</t>
-  </si>
-  <si>
-    <t>BEO_EndDate</t>
-  </si>
-  <si>
-    <t>Customer_IdentifiedBy</t>
-  </si>
-  <si>
-    <t>Zero_TempPath</t>
-  </si>
-  <si>
-    <t>InputFilePath</t>
-  </si>
-  <si>
-    <t>XML_File</t>
-  </si>
-  <si>
-    <t>Temp_File</t>
-  </si>
-  <si>
-    <t>InputJson</t>
-  </si>
-  <si>
-    <t>ExpectedJson</t>
-  </si>
-  <si>
-    <t>OutputFilePath</t>
-  </si>
-  <si>
-    <t>Field_Name</t>
-  </si>
-  <si>
-    <t>OutputAPIResponse</t>
-  </si>
-  <si>
-    <t>messageId</t>
-  </si>
-  <si>
-    <t>CallBack_Status</t>
-  </si>
-  <si>
-    <t>CallBack_Status2</t>
-  </si>
-  <si>
-    <t>errorMessage</t>
-  </si>
-  <si>
-    <t>errorMessage_2</t>
-  </si>
-  <si>
-    <t>Notice_Status</t>
-  </si>
-  <si>
-    <t>XML_NoticeType</t>
-  </si>
-  <si>
-    <t>Branch_Description</t>
-  </si>
-  <si>
-    <t>Loan_PricingOption</t>
-  </si>
-  <si>
-    <t>Balance_Amount</t>
-  </si>
-  <si>
-    <t>Rate_Basis</t>
-  </si>
-  <si>
-    <t>Loan_BaseRate</t>
-  </si>
-  <si>
-    <t>Loan_Spread</t>
-  </si>
-  <si>
-    <t>Notice_AllInRate</t>
-  </si>
-  <si>
-    <t>Notice_Amount</t>
-  </si>
-  <si>
-    <t>Loan_GlobalOriginal</t>
-  </si>
-  <si>
-    <t>Loan_RateSetting_DueDate</t>
-  </si>
-  <si>
-    <t>Loan_BorrowerAmount</t>
-  </si>
-  <si>
-    <t>Loan_LenderAmount</t>
-  </si>
-  <si>
-    <t>Loan_PaymentAmount</t>
-  </si>
-  <si>
-    <t>EffectiveDate_PrincipalPayment</t>
-  </si>
-  <si>
-    <t>Outstanding_PrincipalPayment</t>
-  </si>
-  <si>
-    <t>EffectiveDate_InterestPayment</t>
-  </si>
-  <si>
-    <t>ProjectedCycleDue_InterestPayment</t>
-  </si>
-  <si>
-    <t>StartDate_Principal</t>
-  </si>
-  <si>
-    <t>EndDate_Principal</t>
-  </si>
-  <si>
-    <t>Days_Principal</t>
-  </si>
-  <si>
-    <t>Principal_Amount</t>
-  </si>
-  <si>
-    <t>StartDate_Interest</t>
-  </si>
-  <si>
-    <t>EndDate_Interest</t>
-  </si>
-  <si>
-    <t>Days_Interest</t>
-  </si>
-  <si>
-    <t>Interest_Amount</t>
-  </si>
-  <si>
-    <t>SENT_Fee Payment Notice</t>
-  </si>
-  <si>
-    <t>Line Fee in Advance Payment Notice</t>
-  </si>
-  <si>
-    <t>WESTPAC BANKING CORP</t>
-  </si>
-  <si>
-    <t>JOHN BLACK</t>
-  </si>
-  <si>
-    <t>LOANIQ01</t>
-  </si>
-  <si>
-    <t>?JEOJI0F</t>
-  </si>
-  <si>
-    <t>LIQ-?JEOJI0F-?JEOJHWH-2</t>
-  </si>
-  <si>
-    <t>2026-11-22 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2020-11-23 00:00:00.000</t>
-  </si>
-  <si>
-    <t>Notice Identifier</t>
-  </si>
-  <si>
-    <t>2021-02-17 20:23:50.382</t>
-  </si>
-  <si>
-    <t>Legal Name</t>
-  </si>
-  <si>
-    <t>C:\Users\u720589\AppData\Local\Temp\</t>
-  </si>
-  <si>
-    <t>\DataSet\NewUATDeals_DataSet\API\Input\Correspondence\</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_XML_01</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_TEMP_01</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_INP_01</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_EXP_01</t>
-  </si>
-  <si>
-    <t>\DataSet\NewUATDeals_DataSet\API\Output\Correspondence\</t>
-  </si>
-  <si>
-    <t>correlationId</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_RES_01</t>
-  </si>
-  <si>
-    <t>SENT</t>
-  </si>
-  <si>
-    <t>Sent</t>
-  </si>
-  <si>
-    <t>FEE INVOICE</t>
-  </si>
-  <si>
-    <t>0.520000%</t>
-  </si>
-  <si>
-    <t>Fee Payment Notice</t>
-  </si>
-  <si>
-    <t>George Lippman</t>
-  </si>
-  <si>
-    <t>?JEOJI0G</t>
-  </si>
-  <si>
-    <t>LIQ-?JEOJI0G-?JEOJHWH-2</t>
-  </si>
-  <si>
-    <t>2021-02-17 20:36:31.773</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_XML_02</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_TEMP_02</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_INP_02</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_EXP_02</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_RES_02</t>
-  </si>
-  <si>
-    <t>SENT_Drawdown Intent Notice</t>
-  </si>
-  <si>
-    <t>Drawdown Intent Notice</t>
-  </si>
-  <si>
-    <t>SUEOJKYC</t>
-  </si>
-  <si>
-    <t>LIQ-SUEOJKYC-S4EOJK00-2</t>
-  </si>
-  <si>
-    <t>2021-02-17 21:36:43.519</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_XML_01</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_TEMP_01</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_INP_01</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_EXP_01</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_RES_01</t>
-  </si>
-  <si>
-    <t>DRAWDOWN INTENT NOTICE</t>
-  </si>
-  <si>
-    <t>SUEOJKYD</t>
-  </si>
-  <si>
-    <t>LIQ-SUEOJKYD-S4EOJK00-2</t>
-  </si>
-  <si>
-    <t>2021-02-17 21:45:55.591</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_XML_02</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_TEMP_02</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_INP_02</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_EXP_02</t>
-  </si>
-  <si>
-    <t>DrawdownIntentNotice_RES_02</t>
-  </si>
-  <si>
-    <t>SENT_Rate Setting Notice</t>
-  </si>
-  <si>
-    <t>Rate Setting Notice</t>
-  </si>
-  <si>
-    <t>S9EOJLSR</t>
-  </si>
-  <si>
-    <t>LIQ-S9EOJLSR-S4EOJK00-2</t>
-  </si>
-  <si>
-    <t>2021-02-17 21:53:03.839</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_XML_01</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_TEMP_01</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_INP_01</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_EXP_01</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_RES_01</t>
-  </si>
-  <si>
-    <t>DRAWDOWN RATE SET NOTICE</t>
-  </si>
-  <si>
-    <t>69,220.60</t>
-  </si>
-  <si>
-    <t>27-Oct-2025</t>
-  </si>
-  <si>
-    <t>S9EOJLSS</t>
-  </si>
-  <si>
-    <t>LIQ-S9EOJLSS-S4EOJK00-2</t>
-  </si>
-  <si>
-    <t>2021-02-17 22:01:20.519</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_XML_02</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_TEMP_02</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_INP_02</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_EXP_02</t>
-  </si>
-  <si>
-    <t>RateSettingNotice_RES_02</t>
-  </si>
-  <si>
-    <t>SENT_Repricing Intent Notice</t>
-  </si>
-  <si>
-    <t>Repricing Intent Notice</t>
-  </si>
-  <si>
-    <t>NNEOK79S</t>
-  </si>
-  <si>
-    <t>LIQ-NNEOK79S-N7EOK6AS-2</t>
-  </si>
-  <si>
-    <t>2026-11-29 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2020-11-30 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2021-02-18 12:38:03.779</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_XML_01</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_TEMP_01</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_INP_01</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_EXP_01</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_RES_01</t>
-  </si>
-  <si>
-    <t>ROLLOVER INTENT NOTICE</t>
-  </si>
-  <si>
-    <t>Interest Payment</t>
-  </si>
-  <si>
-    <t>NNEOK79T</t>
-  </si>
-  <si>
-    <t>LIQ-NNEOK79T-N7EOK6AS-2</t>
-  </si>
-  <si>
-    <t>2021-02-18 12:47:44.404</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_XML_02</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_TEMP_02</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_INP_02</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_EXP_02</t>
-  </si>
-  <si>
-    <t>RepricingIntentNotice_RES_02</t>
-  </si>
-  <si>
-    <t>SENT_Repricing_Rate Setting Notice</t>
-  </si>
-  <si>
-    <t>Deal Level Loan Repricing Rate Setting Notice</t>
-  </si>
-  <si>
-    <t>NIEOK83T</t>
-  </si>
-  <si>
-    <t>LIQ-NIEOK83T-N7EOK6AS-2</t>
-  </si>
-  <si>
-    <t>2021-02-18 12:57:33.409</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_XML_01</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_TEMP_01</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_INP_01</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_EXP_01</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_RES_01</t>
-  </si>
-  <si>
-    <t>ROLLOVER RATE SET NOTICE</t>
-  </si>
-  <si>
-    <t>NIEOK83U</t>
-  </si>
-  <si>
-    <t>LIQ-NIEOK83U-N7EOK6AS-2</t>
-  </si>
-  <si>
-    <t>2021-02-18 13:24:28.885</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_XML_02</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_TEMP_02</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_INP_02</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_EXP_02</t>
-  </si>
-  <si>
-    <t>RepricingRateSettingNotice_RES_02</t>
-  </si>
-  <si>
-    <t>Upfront Fee From Borrower/Agent/Third Party Intent Notice</t>
-  </si>
-  <si>
-    <t>NHEOK378</t>
-  </si>
-  <si>
-    <t>LIQ-NHEOK378-NHEOK333-2</t>
-  </si>
-  <si>
-    <t>2024-02-18 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2018-02-19 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2021-02-18 03:38:13.467</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_XML_03</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_TEMP_03</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_INP_03</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_EXP_03</t>
-  </si>
-  <si>
-    <t>FeePaymentNotice_RES_03</t>
-  </si>
-  <si>
-    <t>SENT_Paperclip Notice</t>
-  </si>
-  <si>
-    <t>Paper Clip Intent Notice</t>
-  </si>
-  <si>
-    <t>I$EOKVXX</t>
-  </si>
-  <si>
-    <t>LIQ-I$EOKVXX-I$EOKVUU-2</t>
-  </si>
-  <si>
-    <t>2021-02-18 21:40:22.678</t>
-  </si>
-  <si>
-    <t>PaperclipNotice_XML_01</t>
-  </si>
-  <si>
-    <t>PaperclipNotice_TEMP_01</t>
-  </si>
-  <si>
-    <t>PaperclipNotice_INP_01</t>
-  </si>
-  <si>
-    <t>PaperclipNotice_EXP_01</t>
-  </si>
-  <si>
-    <t>PaperclipNotice_RES_01</t>
-  </si>
-  <si>
-    <t>PAYMENT NOTICE</t>
-  </si>
-  <si>
-    <t>721,452.06</t>
-  </si>
-  <si>
-    <t>31-Dec-2019</t>
-  </si>
-  <si>
-    <t>779,671.23</t>
-  </si>
-  <si>
-    <t>05-Jan-2020</t>
-  </si>
-  <si>
-    <t>72,191.78</t>
-  </si>
-  <si>
-    <t>I$EOKVXY</t>
-  </si>
-  <si>
-    <t>LIQ-I$EOKVXY-I$EOKVUU-2</t>
-  </si>
-  <si>
-    <t>2021-02-18 21:43:58.594</t>
-  </si>
-  <si>
-    <t>88,500,000.00</t>
+    <t>RGEOWPPE</t>
+  </si>
+  <si>
+    <t>LIQ-RGEOWPPE-RLEOWO5U-3</t>
+  </si>
+  <si>
+    <t>2027-08-08 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2021-01-21 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2021-03-01 12:20:20.652</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_XML_03</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_TEMP_03</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_INP_03</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_EXP_03</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_RES_03</t>
+  </si>
+  <si>
+    <t>RGEOWPPF</t>
+  </si>
+  <si>
+    <t>LIQ-RGEOWPPF-RLEOWO5U-2</t>
+  </si>
+  <si>
+    <t>2021-03-01 12:30:30.991</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_XML_04</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_TEMP_04</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_INP_04</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_EXP_04</t>
+  </si>
+  <si>
+    <t>RepricingIntentNotice_RES_04</t>
+  </si>
+  <si>
+    <t>R*EOWQJA</t>
+  </si>
+  <si>
+    <t>LIQ-R*EOWQJA-RLEOWO5U-3</t>
+  </si>
+  <si>
+    <t>2021-03-01 16:18:09.675</t>
+  </si>
+  <si>
+    <t>R*EOWQJB</t>
+  </si>
+  <si>
+    <t>LIQ-R*EOWQJB-RLEOWO5U-2</t>
+  </si>
+  <si>
+    <t>2021-03-01 16:28:40.233</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_RES_03</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_RES_04</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_EXP_03</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_EXP_04</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_INP_03</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_INP_04</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_TEMP_03</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_TEMP_04</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_XML_03</t>
+  </si>
+  <si>
+    <t>RepricingRateSettingNotice_XML_04</t>
   </si>
 </sst>
 </file>
@@ -3552,8 +3664,8 @@
     <col min="87" max="87" width="7.85546875" style="81" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="16.42578125" style="81" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="8.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="90" max="177" width="9.140625" style="81" customWidth="1"/>
-    <col min="178" max="16384" width="9.140625" style="81"/>
+    <col min="90" max="180" width="9.140625" style="81" customWidth="1"/>
+    <col min="181" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" x14ac:dyDescent="0.2">
@@ -4167,8 +4279,8 @@
     <col min="46" max="46" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="49" max="113" width="9.140625" style="83" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4349,8 +4461,8 @@
     <col min="46" max="46" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="49" max="113" width="9.140625" style="83" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="92" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4606,8 +4718,8 @@
     <col min="46" max="46" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="49" max="113" width="9.140625" style="83" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4815,8 +4927,8 @@
     <col min="46" max="46" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="49" max="113" width="9.140625" style="83" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4973,11 +5085,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BR14"/>
+  <dimension ref="A1:BR18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+      <selection pane="topRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5048,8 +5160,8 @@
     <col min="68" max="68" width="16.42578125" style="83" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="13.140625" style="83" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="15.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="71" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="71" max="113" width="9.140625" style="83" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7914,6 +8026,822 @@
       </c>
       <c r="BR14" s="100" t="s">
         <v>843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A15" s="100">
+        <v>14</v>
+      </c>
+      <c r="B15" s="100" t="s">
+        <v>776</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>847</v>
+      </c>
+      <c r="F15" s="100">
+        <v>1195</v>
+      </c>
+      <c r="G15" s="100" t="s">
+        <v>777</v>
+      </c>
+      <c r="H15" s="100" t="s">
+        <v>703</v>
+      </c>
+      <c r="I15" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="J15" s="100" t="s">
+        <v>704</v>
+      </c>
+      <c r="K15" s="100" t="s">
+        <v>705</v>
+      </c>
+      <c r="L15" s="100" t="s">
+        <v>848</v>
+      </c>
+      <c r="M15" s="100" t="s">
+        <v>849</v>
+      </c>
+      <c r="N15" s="53" t="s">
+        <v>850</v>
+      </c>
+      <c r="O15" s="53" t="s">
+        <v>851</v>
+      </c>
+      <c r="P15" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q15" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="R15" s="53" t="s">
+        <v>852</v>
+      </c>
+      <c r="S15" s="53" t="s">
+        <v>852</v>
+      </c>
+      <c r="T15" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="U15" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="V15" s="46" t="s">
+        <v>714</v>
+      </c>
+      <c r="W15" s="100" t="s">
+        <v>853</v>
+      </c>
+      <c r="X15" s="100" t="s">
+        <v>854</v>
+      </c>
+      <c r="Y15" s="100" t="s">
+        <v>855</v>
+      </c>
+      <c r="Z15" s="100" t="s">
+        <v>856</v>
+      </c>
+      <c r="AA15" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB15" s="46" t="s">
+        <v>720</v>
+      </c>
+      <c r="AC15" s="100" t="s">
+        <v>857</v>
+      </c>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46" t="s">
+        <v>723</v>
+      </c>
+      <c r="AJ15" s="100" t="s">
+        <v>788</v>
+      </c>
+      <c r="AK15" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL15" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO15" s="100" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR15" s="100" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU15" s="100" t="s">
+        <v>437</v>
+      </c>
+      <c r="AV15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY15" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="AZ15" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA15" s="100" t="s">
+        <v>572</v>
+      </c>
+      <c r="BB15" s="100" t="s">
+        <v>572</v>
+      </c>
+      <c r="BC15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE15" s="100" t="s">
+        <v>789</v>
+      </c>
+      <c r="BF15" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BP15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR15" s="45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A16" s="100">
+        <v>15</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>776</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>847</v>
+      </c>
+      <c r="F16" s="100">
+        <v>1195</v>
+      </c>
+      <c r="G16" s="100" t="s">
+        <v>777</v>
+      </c>
+      <c r="H16" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="J16" s="100" t="s">
+        <v>727</v>
+      </c>
+      <c r="K16" s="100" t="s">
+        <v>705</v>
+      </c>
+      <c r="L16" s="100" t="s">
+        <v>858</v>
+      </c>
+      <c r="M16" s="100" t="s">
+        <v>859</v>
+      </c>
+      <c r="N16" s="53" t="s">
+        <v>850</v>
+      </c>
+      <c r="O16" s="53" t="s">
+        <v>851</v>
+      </c>
+      <c r="P16" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q16" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="R16" s="53" t="s">
+        <v>860</v>
+      </c>
+      <c r="S16" s="53" t="s">
+        <v>860</v>
+      </c>
+      <c r="T16" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="U16" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="V16" s="46" t="s">
+        <v>714</v>
+      </c>
+      <c r="W16" s="100" t="s">
+        <v>861</v>
+      </c>
+      <c r="X16" s="100" t="s">
+        <v>862</v>
+      </c>
+      <c r="Y16" s="100" t="s">
+        <v>863</v>
+      </c>
+      <c r="Z16" s="100" t="s">
+        <v>864</v>
+      </c>
+      <c r="AA16" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB16" s="46" t="s">
+        <v>720</v>
+      </c>
+      <c r="AC16" s="100" t="s">
+        <v>865</v>
+      </c>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46" t="s">
+        <v>723</v>
+      </c>
+      <c r="AJ16" s="100" t="s">
+        <v>788</v>
+      </c>
+      <c r="AK16" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL16" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO16" s="100" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR16" s="100" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU16" s="100" t="s">
+        <v>437</v>
+      </c>
+      <c r="AV16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY16" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="AZ16" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA16" s="100" t="s">
+        <v>572</v>
+      </c>
+      <c r="BB16" s="100" t="s">
+        <v>572</v>
+      </c>
+      <c r="BC16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE16" s="100" t="s">
+        <v>789</v>
+      </c>
+      <c r="BF16" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BP16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR16" s="45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A17" s="100">
+        <v>16</v>
+      </c>
+      <c r="B17" s="100" t="s">
+        <v>798</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>847</v>
+      </c>
+      <c r="F17" s="100">
+        <v>1195</v>
+      </c>
+      <c r="G17" s="100" t="s">
+        <v>799</v>
+      </c>
+      <c r="H17" s="100" t="s">
+        <v>703</v>
+      </c>
+      <c r="I17" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="J17" s="100" t="s">
+        <v>704</v>
+      </c>
+      <c r="K17" s="100" t="s">
+        <v>705</v>
+      </c>
+      <c r="L17" s="100" t="s">
+        <v>866</v>
+      </c>
+      <c r="M17" s="100" t="s">
+        <v>867</v>
+      </c>
+      <c r="N17" s="53" t="s">
+        <v>850</v>
+      </c>
+      <c r="O17" s="53" t="s">
+        <v>851</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q17" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="R17" s="53" t="s">
+        <v>868</v>
+      </c>
+      <c r="S17" s="53" t="s">
+        <v>868</v>
+      </c>
+      <c r="T17" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="U17" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="V17" s="46" t="s">
+        <v>714</v>
+      </c>
+      <c r="W17" s="100" t="s">
+        <v>880</v>
+      </c>
+      <c r="X17" s="100" t="s">
+        <v>878</v>
+      </c>
+      <c r="Y17" s="100" t="s">
+        <v>876</v>
+      </c>
+      <c r="Z17" s="100" t="s">
+        <v>874</v>
+      </c>
+      <c r="AA17" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB17" s="46" t="s">
+        <v>720</v>
+      </c>
+      <c r="AC17" s="100" t="s">
+        <v>872</v>
+      </c>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46" t="s">
+        <v>723</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="AK17" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL17" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR17" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="AS17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU17" s="100" t="s">
+        <v>437</v>
+      </c>
+      <c r="AV17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY17" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="AZ17" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA17" s="100" t="s">
+        <v>572</v>
+      </c>
+      <c r="BB17" s="100" t="s">
+        <v>572</v>
+      </c>
+      <c r="BC17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE17" s="100" t="s">
+        <v>789</v>
+      </c>
+      <c r="BF17" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BP17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR17" s="45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A18" s="100">
+        <v>17</v>
+      </c>
+      <c r="B18" s="100" t="s">
+        <v>798</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>847</v>
+      </c>
+      <c r="F18" s="100">
+        <v>1195</v>
+      </c>
+      <c r="G18" s="100" t="s">
+        <v>799</v>
+      </c>
+      <c r="H18" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="J18" s="100" t="s">
+        <v>727</v>
+      </c>
+      <c r="K18" s="100" t="s">
+        <v>705</v>
+      </c>
+      <c r="L18" s="100" t="s">
+        <v>869</v>
+      </c>
+      <c r="M18" s="100" t="s">
+        <v>870</v>
+      </c>
+      <c r="N18" s="53" t="s">
+        <v>850</v>
+      </c>
+      <c r="O18" s="53" t="s">
+        <v>851</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q18" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="R18" s="53" t="s">
+        <v>871</v>
+      </c>
+      <c r="S18" s="53" t="s">
+        <v>871</v>
+      </c>
+      <c r="T18" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="U18" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="V18" s="46" t="s">
+        <v>714</v>
+      </c>
+      <c r="W18" s="100" t="s">
+        <v>881</v>
+      </c>
+      <c r="X18" s="100" t="s">
+        <v>879</v>
+      </c>
+      <c r="Y18" s="100" t="s">
+        <v>877</v>
+      </c>
+      <c r="Z18" s="100" t="s">
+        <v>875</v>
+      </c>
+      <c r="AA18" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB18" s="46" t="s">
+        <v>720</v>
+      </c>
+      <c r="AC18" s="100" t="s">
+        <v>873</v>
+      </c>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46" t="s">
+        <v>723</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="AK18" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL18" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR18" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="AS18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU18" s="100" t="s">
+        <v>437</v>
+      </c>
+      <c r="AV18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY18" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="AZ18" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA18" s="100" t="s">
+        <v>572</v>
+      </c>
+      <c r="BB18" s="100" t="s">
+        <v>572</v>
+      </c>
+      <c r="BC18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE18" s="100" t="s">
+        <v>789</v>
+      </c>
+      <c r="BF18" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BP18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR18" s="45" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -7973,8 +8901,8 @@
     <col min="33" max="33" width="25.85546875" style="83" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.7109375" style="83" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11" style="83" bestFit="1" customWidth="1"/>
-    <col min="36" max="49" width="6.42578125" style="83" customWidth="1"/>
-    <col min="50" max="16384" width="6.42578125" style="83"/>
+    <col min="36" max="52" width="6.42578125" style="83" customWidth="1"/>
+    <col min="53" max="16384" width="6.42578125" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="104" customFormat="1" x14ac:dyDescent="0.2">
@@ -8246,8 +9174,8 @@
     <col min="30" max="30" width="6" style="83" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="16" style="20" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="49" width="6.42578125" style="83" customWidth="1"/>
-    <col min="50" max="16384" width="6.42578125" style="83"/>
+    <col min="33" max="52" width="6.42578125" style="83" customWidth="1"/>
+    <col min="53" max="16384" width="6.42578125" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8518,8 +9446,8 @@
     <col min="65" max="65" width="28.7109375" style="83" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="15.28515625" style="83" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="14.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="68" max="72" width="6.7109375" style="83" customWidth="1"/>
-    <col min="73" max="16384" width="6.7109375" style="83"/>
+    <col min="68" max="75" width="6.7109375" style="83" customWidth="1"/>
+    <col min="76" max="16384" width="6.7109375" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.2">
@@ -8981,8 +9909,8 @@
     <col min="32" max="32" width="11.140625" style="35" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="23" style="81" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="36" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="36" max="113" width="9.140625" style="83" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9251,8 +10179,8 @@
     <col min="32" max="32" width="18.28515625" style="35" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="29.140625" style="81" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="36" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="36" max="113" width="9.140625" style="83" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9703,8 +10631,8 @@
     <col min="32" max="32" width="18.28515625" style="35" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="29.140625" style="81" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="36" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="36" max="113" width="9.140625" style="83" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9875,8 +10803,8 @@
     <col min="46" max="46" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="110" width="9.140625" style="83" customWidth="1"/>
-    <col min="111" max="16384" width="9.140625" style="83"/>
+    <col min="49" max="113" width="9.140625" style="83" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10183,9 +11111,9 @@
   </sheetPr>
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG4" sqref="AG4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10235,8 +11163,8 @@
     <col min="52" max="52" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="55" max="116" width="9.140625" style="83" customWidth="1"/>
-    <col min="117" max="16384" width="9.140625" style="83"/>
+    <col min="55" max="119" width="9.140625" style="83" customWidth="1"/>
+    <col min="120" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="79" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10516,8 +11444,8 @@
       <c r="R3" s="85" t="s">
         <v>573</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>574</v>
+      <c r="S3" s="3">
+        <v>60003351</v>
       </c>
       <c r="T3" s="41" t="s">
         <v>118</v>
@@ -10541,7 +11469,7 @@
         <v>128</v>
       </c>
       <c r="AA3" s="41" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>424</v>
@@ -10550,16 +11478,16 @@
         <v>565</v>
       </c>
       <c r="AD3" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="AF3" s="10" t="s">
         <v>572</v>
       </c>
       <c r="AG3" s="10" t="s">
-        <v>847</v>
+        <v>577</v>
       </c>
       <c r="AH3" s="10" t="s">
         <v>578</v>

--- a/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LLA_Syndicated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u723431\Documents\Automation\UAT\GDE-9455\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE23BB3-D375-4BD4-A3D5-93371DCD69AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF8EFE2-1333-4194-92F1-2B173FE25B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="891">
   <si>
     <t>rowid</t>
   </si>
@@ -1413,9 +1413,6 @@
     <t>Collect Line Fee in Arrears</t>
   </si>
   <si>
-    <t>31-March-2020</t>
-  </si>
-  <si>
     <t>548,493.15</t>
   </si>
   <si>
@@ -2689,6 +2686,36 @@
   </si>
   <si>
     <t>RepricingRateSettingNotice_XML_04</t>
+  </si>
+  <si>
+    <t>Manual Adjustment of Line Fee</t>
+  </si>
+  <si>
+    <t>-518,356.16</t>
+  </si>
+  <si>
+    <t>243,835.62</t>
+  </si>
+  <si>
+    <t>Manual adjustment $243,835.62 to make up for the fee amount difference due to change in fee rate not being applied correctly.</t>
+  </si>
+  <si>
+    <t>Accrual_Comment</t>
+  </si>
+  <si>
+    <t>31-Mar-2020</t>
+  </si>
+  <si>
+    <t>WIPTransaction_Type</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>FacilitiesTransaction_Type</t>
+  </si>
+  <si>
+    <t>Fee Accrual Shares Adjustment</t>
   </si>
 </sst>
 </file>
@@ -2911,7 +2938,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3086,9 +3113,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3578,94 +3602,94 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="81" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="81" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="81" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="81" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="81" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" style="81" customWidth="1"/>
-    <col min="14" max="14" width="23" style="81" customWidth="1"/>
-    <col min="15" max="15" width="17" style="81" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="81" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="81" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" style="81" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" style="81" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="15.28515625" style="81" customWidth="1"/>
-    <col min="28" max="28" width="10.42578125" style="81" customWidth="1"/>
-    <col min="29" max="29" width="16" style="81" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="27.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.140625" style="81" customWidth="1"/>
-    <col min="32" max="32" width="9.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="34.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28" style="81" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21" style="81" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="24.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="23.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21" style="81" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="29" style="81" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="23" style="81" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="32.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="31.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="28.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14" style="81" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="25.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="22.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16" style="81" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="26" style="81" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="26.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="22.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="20.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="35.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="34.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="31.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22" style="81" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="14.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="17.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="28.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="25.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="28.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="14" style="81" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="21.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="22" style="81" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="24" style="81" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="29.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="29.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="25.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="7.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="16.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="7.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="16.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="8.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="90" max="180" width="9.140625" style="81" customWidth="1"/>
-    <col min="181" max="16384" width="9.140625" style="81"/>
+    <col min="1" max="1" width="6.140625" style="80" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="80" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="80" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="80" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="80" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="80" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" style="80" customWidth="1"/>
+    <col min="14" max="14" width="23" style="80" customWidth="1"/>
+    <col min="15" max="15" width="17" style="80" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="80" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" style="80" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" style="80" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" style="80" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="15.28515625" style="80" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" style="80" customWidth="1"/>
+    <col min="29" max="29" width="16" style="80" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.140625" style="80" customWidth="1"/>
+    <col min="32" max="32" width="9.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="34.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28" style="80" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21" style="80" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21" style="80" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="29" style="80" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="23" style="80" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="32.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="31.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="28.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14" style="80" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="22.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16" style="80" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="26" style="80" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="26.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="22.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="20.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="35.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="34.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="31.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22" style="80" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="17.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="28.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="25.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="28.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="14" style="80" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="21.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="22" style="80" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="24" style="80" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="29.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="29.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="25.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="7.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="7.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="16.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="8.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="90" max="180" width="9.140625" style="80" customWidth="1"/>
+    <col min="181" max="16384" width="9.140625" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" x14ac:dyDescent="0.2">
@@ -4201,7 +4225,7 @@
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="80" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4244,15 +4268,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="80" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" style="80" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="80" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" style="34" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="18.85546875" style="34" bestFit="1" customWidth="1"/>
@@ -4261,93 +4285,93 @@
     <col min="20" max="20" width="10.42578125" style="34" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="20.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18" style="81" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="60.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="59.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="60.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="20.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" style="80" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="60.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="59.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="60.5703125" style="80" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="59.5703125" style="35" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="40" style="35" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="40" style="81" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="40" style="80" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="20.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="113" width="9.140625" style="83" customWidth="1"/>
-    <col min="114" max="16384" width="9.140625" style="83"/>
+    <col min="36" max="36" width="12.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="23.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="20.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="33.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="49" max="113" width="9.140625" style="82" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="86" t="s">
+        <v>579</v>
+      </c>
+      <c r="E1" s="86" t="s">
         <v>580</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="F1" s="86" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" s="86" t="s">
         <v>581</v>
-      </c>
-      <c r="F1" s="87" t="s">
-        <v>448</v>
-      </c>
-      <c r="G1" s="87" t="s">
-        <v>582</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="86" t="s">
         <v>300</v>
       </c>
-      <c r="J1" s="87" t="s">
+      <c r="J1" s="86" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="87" t="s">
-        <v>557</v>
-      </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
+      <c r="K1" s="86" t="s">
+        <v>556</v>
+      </c>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="89" t="s">
-        <v>583</v>
+      <c r="B2" s="88" t="s">
+        <v>582</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>187</v>
@@ -4358,11 +4382,11 @@
       <c r="E2" s="53" t="s">
         <v>351</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="99" t="s">
+        <v>583</v>
+      </c>
+      <c r="G2" s="99" t="s">
         <v>584</v>
-      </c>
-      <c r="G2" s="100" t="s">
-        <v>585</v>
       </c>
       <c r="H2" s="41" t="s">
         <v>118</v>
@@ -4374,32 +4398,32 @@
         <v>128</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>568</v>
-      </c>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
+        <v>567</v>
+      </c>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -4422,15 +4446,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="80" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="80" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="80" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="34" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" style="34" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.140625" style="34" bestFit="1" customWidth="1"/>
@@ -4441,149 +4465,149 @@
     <col min="18" max="19" width="23.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="23.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21" style="81" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14" style="81" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="60.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="59.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="60.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21" style="80" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" style="80" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="60.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="59.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="60.5703125" style="80" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="59.5703125" style="35" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="40" style="35" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="40" style="81" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="40" style="80" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="20.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="113" width="9.140625" style="83" customWidth="1"/>
-    <col min="114" max="16384" width="9.140625" style="83"/>
+    <col min="36" max="36" width="12.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="23.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="20.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="33.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="49" max="113" width="9.140625" style="82" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="92" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:56" s="91" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="89" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1" s="89" t="s">
         <v>586</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="E1" s="89" t="s">
         <v>587</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="F1" s="89" t="s">
         <v>588</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="G1" s="89" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1" s="89" t="s">
         <v>589</v>
       </c>
-      <c r="G1" s="90" t="s">
-        <v>397</v>
-      </c>
-      <c r="H1" s="90" t="s">
+      <c r="I1" s="89" t="s">
         <v>590</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="J1" s="89" t="s">
         <v>591</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="K1" s="89" t="s">
         <v>592</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="L1" s="89" t="s">
         <v>593</v>
       </c>
-      <c r="L1" s="90" t="s">
-        <v>594</v>
-      </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="89" t="s">
         <v>395</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>224</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="V1" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="W1" s="91" t="s">
+      <c r="W1" s="90" t="s">
+        <v>594</v>
+      </c>
+      <c r="X1" s="90" t="s">
         <v>595</v>
       </c>
-      <c r="X1" s="91" t="s">
+      <c r="Y1" s="90" t="s">
         <v>596</v>
       </c>
-      <c r="Y1" s="91" t="s">
+      <c r="Z1" s="90" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" s="93" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="92" t="s">
         <v>597</v>
       </c>
-      <c r="Z1" s="91" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" s="94" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="C2" s="93" t="s">
+        <v>598</v>
+      </c>
+      <c r="D2" s="97" t="s">
+        <v>351</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>599</v>
+      </c>
+      <c r="F2" s="93" t="s">
+        <v>600</v>
+      </c>
+      <c r="G2" s="94" t="s">
+        <v>601</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>602</v>
+      </c>
+      <c r="I2" s="94" t="s">
+        <v>603</v>
+      </c>
+      <c r="J2" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="93" t="s">
-        <v>598</v>
-      </c>
-      <c r="C2" s="94" t="s">
-        <v>599</v>
-      </c>
-      <c r="D2" s="98" t="s">
-        <v>351</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>600</v>
-      </c>
-      <c r="F2" s="94" t="s">
-        <v>601</v>
-      </c>
-      <c r="G2" s="95" t="s">
-        <v>602</v>
-      </c>
-      <c r="H2" s="95" t="s">
-        <v>603</v>
-      </c>
-      <c r="I2" s="95" t="s">
+      <c r="K2" s="97" t="s">
         <v>604</v>
       </c>
-      <c r="J2" s="94" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="98" t="s">
+      <c r="L2" s="97" t="s">
         <v>605</v>
       </c>
-      <c r="L2" s="98" t="s">
+      <c r="M2" s="93" t="s">
         <v>606</v>
-      </c>
-      <c r="M2" s="94" t="s">
-        <v>607</v>
       </c>
       <c r="N2" s="41" t="s">
         <v>118</v>
@@ -4612,48 +4636,48 @@
       <c r="V2" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="W2" s="93" t="s">
+      <c r="W2" s="92" t="s">
+        <v>607</v>
+      </c>
+      <c r="X2" s="92" t="s">
         <v>608</v>
       </c>
-      <c r="X2" s="93" t="s">
+      <c r="Y2" s="92" t="s">
         <v>609</v>
       </c>
-      <c r="Y2" s="93" t="s">
+      <c r="Z2" s="95" t="s">
         <v>610</v>
       </c>
-      <c r="Z2" s="96" t="s">
-        <v>611</v>
-      </c>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97"/>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
-      <c r="AW2" s="97"/>
-      <c r="AX2" s="97"/>
-      <c r="AY2" s="97"/>
-      <c r="AZ2" s="97"/>
-      <c r="BA2" s="97"/>
-      <c r="BB2" s="97"/>
-      <c r="BC2" s="97"/>
-      <c r="BD2" s="97"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="96"/>
+      <c r="AM2" s="96"/>
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="96"/>
+      <c r="AR2" s="96"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="96"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
+      <c r="AY2" s="96"/>
+      <c r="AZ2" s="96"/>
+      <c r="BA2" s="96"/>
+      <c r="BB2" s="96"/>
+      <c r="BC2" s="96"/>
+      <c r="BD2" s="96"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -4676,15 +4700,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="80" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="80" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="80" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="44" style="34" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" style="34" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" style="34" bestFit="1" customWidth="1"/>
@@ -4698,45 +4722,45 @@
     <col min="20" max="20" width="32.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="27.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21" style="81" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14" style="81" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="60.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="59.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="60.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21" style="80" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" style="80" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="60.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="59.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="60.5703125" style="80" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="59.5703125" style="35" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="40" style="35" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="40" style="81" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="40" style="80" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="20.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="113" width="9.140625" style="83" customWidth="1"/>
-    <col min="114" max="16384" width="9.140625" style="83"/>
+    <col min="36" max="36" width="12.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="23.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="20.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="33.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="49" max="113" width="9.140625" style="82" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="83" t="s">
         <v>207</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>7</v>
@@ -4745,60 +4769,60 @@
         <v>298</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>615</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>616</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>169</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>621</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>301</v>
       </c>
       <c r="S1" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>626</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" s="81" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="80" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>187</v>
@@ -4810,7 +4834,7 @@
         <v>348</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>351</v>
@@ -4819,25 +4843,25 @@
         <v>130</v>
       </c>
       <c r="I2" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="10" t="s">
         <v>630</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>631</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>113</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>193</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>387</v>
@@ -4849,19 +4873,19 @@
         <v>424</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>637</v>
-      </c>
       <c r="W2" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -4885,15 +4909,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="80" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="80" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="80" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.28515625" style="34" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" style="34" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" style="34" bestFit="1" customWidth="1"/>
@@ -4907,45 +4931,45 @@
     <col min="20" max="20" width="32.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="27.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="25.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21" style="81" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14" style="81" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="60.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="59.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="60.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21" style="80" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" style="80" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="60.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="59.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="60.5703125" style="80" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="59.5703125" style="35" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="40" style="35" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="40" style="81" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="40" style="80" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="20.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="113" width="9.140625" style="83" customWidth="1"/>
-    <col min="114" max="16384" width="9.140625" style="83"/>
+    <col min="36" max="36" width="12.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="23.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="20.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="33.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="49" max="113" width="9.140625" style="82" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="83" t="s">
         <v>207</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>7</v>
@@ -4954,60 +4978,60 @@
         <v>298</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>615</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>616</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>169</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>621</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>301</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="T1" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>626</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" s="81" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="80" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>187</v>
@@ -5019,7 +5043,7 @@
         <v>118</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>351</v>
@@ -5028,13 +5052,13 @@
         <v>130</v>
       </c>
       <c r="I2" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>642</v>
-      </c>
       <c r="K2" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>113</v>
@@ -5046,31 +5070,31 @@
         <v>193</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="Q2" s="85" t="s">
-        <v>643</v>
+      <c r="Q2" s="84" t="s">
+        <v>642</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>135</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T2" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>635</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>636</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>127</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -5087,22 +5111,22 @@
   </sheetPr>
   <dimension ref="A1:BR18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" style="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="80" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" style="80" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" style="80" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="34" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" style="34" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="34" bestFit="1" customWidth="1"/>
@@ -5113,55 +5137,55 @@
     <col min="18" max="20" width="21.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="37.7109375" style="34" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="57.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32" style="81" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="33.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="31.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="32" style="81" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="59" style="81" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="32.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" style="81" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32" style="80" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32" style="80" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="59" style="80" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="32.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="80" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15.7109375" style="35" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.42578125" style="80" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="34.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14" style="83" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="26.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="20.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22" style="83" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="19.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="26" style="83" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="9.140625" style="83" customWidth="1"/>
-    <col min="59" max="59" width="30.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="29.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="29.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="34.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="18.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18" style="83" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="17.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="71" max="113" width="9.140625" style="83" customWidth="1"/>
-    <col min="114" max="16384" width="9.140625" style="83"/>
+    <col min="36" max="36" width="30.140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="34.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14" style="82" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="26.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22" style="82" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="26" style="82" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.140625" style="82" customWidth="1"/>
+    <col min="59" max="59" width="30.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="29.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="29.140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="34.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18" style="82" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="17.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="71" max="113" width="9.140625" style="82" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5181,124 +5205,124 @@
         <v>393</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="G1" s="43" t="s">
         <v>645</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>646</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="I1" s="42" t="s">
         <v>647</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="J1" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="42" t="s">
         <v>650</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="M1" s="42" t="s">
         <v>651</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="N1" s="42" t="s">
         <v>652</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="O1" s="42" t="s">
         <v>653</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="P1" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="42" t="s">
         <v>655</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="R1" s="42" t="s">
         <v>656</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="S1" s="42" t="s">
         <v>657</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="T1" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="54" t="s">
         <v>668</v>
       </c>
-      <c r="AD1" s="54" t="s">
+      <c r="AE1" s="54" t="s">
         <v>669</v>
       </c>
-      <c r="AE1" s="54" t="s">
+      <c r="AF1" s="54" t="s">
         <v>670</v>
       </c>
-      <c r="AF1" s="54" t="s">
+      <c r="AG1" s="55" t="s">
         <v>671</v>
       </c>
-      <c r="AG1" s="55" t="s">
+      <c r="AH1" s="54" t="s">
         <v>672</v>
       </c>
-      <c r="AH1" s="54" t="s">
+      <c r="AI1" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="44" t="s">
         <v>674</v>
       </c>
-      <c r="AJ1" s="44" t="s">
+      <c r="AK1" s="42" t="s">
         <v>675</v>
       </c>
-      <c r="AK1" s="42" t="s">
+      <c r="AL1" s="42" t="s">
         <v>676</v>
-      </c>
-      <c r="AL1" s="42" t="s">
-        <v>677</v>
       </c>
       <c r="AM1" s="44" t="s">
         <v>248</v>
       </c>
       <c r="AN1" s="42" t="s">
+        <v>677</v>
+      </c>
+      <c r="AO1" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="42" t="s">
         <v>679</v>
       </c>
-      <c r="AP1" s="42" t="s">
+      <c r="AQ1" s="42" t="s">
         <v>680</v>
       </c>
-      <c r="AQ1" s="42" t="s">
+      <c r="AR1" s="42" t="s">
         <v>681</v>
       </c>
-      <c r="AR1" s="42" t="s">
+      <c r="AS1" s="42" t="s">
         <v>682</v>
-      </c>
-      <c r="AS1" s="42" t="s">
-        <v>683</v>
       </c>
       <c r="AT1" s="42" t="s">
         <v>298</v>
@@ -5310,78 +5334,78 @@
         <v>399</v>
       </c>
       <c r="AW1" s="42" t="s">
+        <v>683</v>
+      </c>
+      <c r="AX1" s="42" t="s">
         <v>684</v>
-      </c>
-      <c r="AX1" s="42" t="s">
-        <v>685</v>
       </c>
       <c r="AY1" s="42" t="s">
         <v>403</v>
       </c>
       <c r="AZ1" s="42" t="s">
+        <v>685</v>
+      </c>
+      <c r="BA1" s="42" t="s">
         <v>686</v>
       </c>
-      <c r="BA1" s="42" t="s">
+      <c r="BB1" s="42" t="s">
         <v>687</v>
       </c>
-      <c r="BB1" s="42" t="s">
-        <v>688</v>
-      </c>
       <c r="BC1" s="42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="BD1" s="5" t="s">
         <v>448</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="BF1" s="42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="BG1" s="42" t="s">
+        <v>688</v>
+      </c>
+      <c r="BH1" s="42" t="s">
         <v>689</v>
       </c>
-      <c r="BH1" s="42" t="s">
+      <c r="BI1" s="42" t="s">
         <v>690</v>
       </c>
-      <c r="BI1" s="42" t="s">
+      <c r="BJ1" s="42" t="s">
         <v>691</v>
       </c>
-      <c r="BJ1" s="42" t="s">
+      <c r="BK1" s="42" t="s">
         <v>692</v>
       </c>
-      <c r="BK1" s="42" t="s">
+      <c r="BL1" s="42" t="s">
         <v>693</v>
       </c>
-      <c r="BL1" s="42" t="s">
+      <c r="BM1" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="BM1" s="42" t="s">
+      <c r="BN1" s="42" t="s">
         <v>695</v>
       </c>
-      <c r="BN1" s="42" t="s">
+      <c r="BO1" s="42" t="s">
         <v>696</v>
       </c>
-      <c r="BO1" s="42" t="s">
+      <c r="BP1" s="42" t="s">
         <v>697</v>
       </c>
-      <c r="BP1" s="42" t="s">
+      <c r="BQ1" s="42" t="s">
         <v>698</v>
       </c>
-      <c r="BQ1" s="42" t="s">
+      <c r="BR1" s="42" t="s">
         <v>699</v>
-      </c>
-      <c r="BR1" s="42" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="100" t="s">
-        <v>701</v>
+      <c r="B2" s="99" t="s">
+        <v>700</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>187</v>
@@ -5392,155 +5416,155 @@
       <c r="E2" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="100">
+      <c r="F2" s="99">
         <v>1095</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="99" t="s">
+        <v>701</v>
+      </c>
+      <c r="H2" s="99" t="s">
         <v>702</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="I2" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="J2" s="99" t="s">
         <v>703</v>
       </c>
-      <c r="I2" s="100" t="s">
-        <v>192</v>
-      </c>
-      <c r="J2" s="100" t="s">
+      <c r="K2" s="99" t="s">
         <v>704</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="L2" s="99" t="s">
         <v>705</v>
       </c>
-      <c r="L2" s="100" t="s">
+      <c r="M2" s="99" t="s">
         <v>706</v>
       </c>
-      <c r="M2" s="100" t="s">
+      <c r="N2" s="53" t="s">
         <v>707</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="O2" s="53" t="s">
         <v>708</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="P2" s="46" t="s">
         <v>709</v>
-      </c>
-      <c r="P2" s="46" t="s">
-        <v>710</v>
       </c>
       <c r="Q2" s="46" t="s">
         <v>124</v>
       </c>
       <c r="R2" s="53" t="s">
+        <v>710</v>
+      </c>
+      <c r="S2" s="53" t="s">
+        <v>710</v>
+      </c>
+      <c r="T2" s="46" t="s">
         <v>711</v>
       </c>
-      <c r="S2" s="53" t="s">
-        <v>711</v>
-      </c>
-      <c r="T2" s="46" t="s">
+      <c r="U2" s="46" t="s">
         <v>712</v>
       </c>
-      <c r="U2" s="46" t="s">
+      <c r="V2" s="46" t="s">
         <v>713</v>
       </c>
-      <c r="V2" s="46" t="s">
+      <c r="W2" s="99" t="s">
         <v>714</v>
       </c>
-      <c r="W2" s="100" t="s">
+      <c r="X2" s="99" t="s">
         <v>715</v>
       </c>
-      <c r="X2" s="100" t="s">
+      <c r="Y2" s="99" t="s">
         <v>716</v>
       </c>
-      <c r="Y2" s="100" t="s">
+      <c r="Z2" s="99" t="s">
         <v>717</v>
       </c>
-      <c r="Z2" s="100" t="s">
+      <c r="AA2" s="46" t="s">
         <v>718</v>
       </c>
-      <c r="AA2" s="46" t="s">
+      <c r="AB2" s="46" t="s">
         <v>719</v>
       </c>
-      <c r="AB2" s="46" t="s">
+      <c r="AC2" s="99" t="s">
         <v>720</v>
-      </c>
-      <c r="AC2" s="100" t="s">
-        <v>721</v>
       </c>
       <c r="AD2" s="46"/>
       <c r="AE2" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF2" s="46"/>
       <c r="AG2" s="46"/>
       <c r="AH2" s="46"/>
       <c r="AI2" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="AJ2" s="99" t="s">
         <v>723</v>
       </c>
-      <c r="AJ2" s="100" t="s">
+      <c r="AK2" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM2" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN2" s="99" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO2" s="99" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR2" s="99" t="s">
         <v>724</v>
       </c>
-      <c r="AK2" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL2" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM2" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN2" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="AO2" s="100" t="s">
-        <v>311</v>
-      </c>
-      <c r="AP2" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ2" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR2" s="100" t="s">
+      <c r="AS2" s="99" t="s">
+        <v>344</v>
+      </c>
+      <c r="AT2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BB2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD2" s="99" t="s">
         <v>725</v>
       </c>
-      <c r="AS2" s="100" t="s">
-        <v>344</v>
-      </c>
-      <c r="AT2" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU2" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV2" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW2" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX2" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY2" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ2" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BA2" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BB2" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BC2" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BD2" s="100" t="s">
-        <v>726</v>
-      </c>
       <c r="BE2" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="BF2" s="100" t="s">
+      <c r="BF2" s="99" t="s">
         <v>130</v>
       </c>
       <c r="BG2" s="45" t="s">
@@ -5581,11 +5605,11 @@
       </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A3" s="100">
+      <c r="A3" s="99">
         <v>2</v>
       </c>
-      <c r="B3" s="100" t="s">
-        <v>701</v>
+      <c r="B3" s="99" t="s">
+        <v>700</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>187</v>
@@ -5596,155 +5620,155 @@
       <c r="E3" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="100">
+      <c r="F3" s="99">
         <v>1095</v>
       </c>
-      <c r="G3" s="100" t="s">
-        <v>702</v>
-      </c>
-      <c r="H3" s="100" t="s">
+      <c r="G3" s="99" t="s">
+        <v>701</v>
+      </c>
+      <c r="H3" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="100" t="s">
+      <c r="I3" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="J3" s="100" t="s">
+      <c r="J3" s="99" t="s">
+        <v>726</v>
+      </c>
+      <c r="K3" s="99" t="s">
+        <v>704</v>
+      </c>
+      <c r="L3" s="99" t="s">
         <v>727</v>
       </c>
-      <c r="K3" s="100" t="s">
-        <v>705</v>
-      </c>
-      <c r="L3" s="100" t="s">
+      <c r="M3" s="99" t="s">
         <v>728</v>
       </c>
-      <c r="M3" s="100" t="s">
-        <v>729</v>
-      </c>
       <c r="N3" s="53" t="s">
+        <v>707</v>
+      </c>
+      <c r="O3" s="53" t="s">
         <v>708</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="P3" s="46" t="s">
         <v>709</v>
-      </c>
-      <c r="P3" s="46" t="s">
-        <v>710</v>
       </c>
       <c r="Q3" s="46" t="s">
         <v>124</v>
       </c>
       <c r="R3" s="53" t="s">
+        <v>729</v>
+      </c>
+      <c r="S3" s="53" t="s">
+        <v>729</v>
+      </c>
+      <c r="T3" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="U3" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="V3" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="W3" s="99" t="s">
         <v>730</v>
       </c>
-      <c r="S3" s="53" t="s">
-        <v>730</v>
-      </c>
-      <c r="T3" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="V3" s="46" t="s">
-        <v>714</v>
-      </c>
-      <c r="W3" s="100" t="s">
+      <c r="X3" s="99" t="s">
         <v>731</v>
       </c>
-      <c r="X3" s="100" t="s">
+      <c r="Y3" s="99" t="s">
         <v>732</v>
       </c>
-      <c r="Y3" s="100" t="s">
+      <c r="Z3" s="99" t="s">
         <v>733</v>
       </c>
-      <c r="Z3" s="100" t="s">
+      <c r="AA3" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB3" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC3" s="99" t="s">
         <v>734</v>
-      </c>
-      <c r="AA3" s="46" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB3" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="AC3" s="100" t="s">
-        <v>735</v>
       </c>
       <c r="AD3" s="46"/>
       <c r="AE3" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF3" s="46"/>
       <c r="AG3" s="46"/>
       <c r="AH3" s="46"/>
       <c r="AI3" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="AJ3" s="99" t="s">
         <v>723</v>
       </c>
-      <c r="AJ3" s="100" t="s">
+      <c r="AK3" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL3" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM3" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN3" s="99" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO3" s="99" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP3" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ3" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR3" s="99" t="s">
         <v>724</v>
       </c>
-      <c r="AK3" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL3" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM3" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN3" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="AO3" s="100" t="s">
-        <v>311</v>
-      </c>
-      <c r="AP3" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ3" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR3" s="100" t="s">
+      <c r="AS3" s="99" t="s">
+        <v>344</v>
+      </c>
+      <c r="AT3" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU3" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV3" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW3" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX3" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY3" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ3" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA3" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BB3" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC3" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD3" s="99" t="s">
         <v>725</v>
       </c>
-      <c r="AS3" s="100" t="s">
-        <v>344</v>
-      </c>
-      <c r="AT3" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU3" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV3" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW3" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX3" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY3" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ3" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BA3" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BB3" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BC3" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BD3" s="100" t="s">
-        <v>726</v>
-      </c>
       <c r="BE3" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="BF3" s="100" t="s">
+      <c r="BF3" s="99" t="s">
         <v>130</v>
       </c>
       <c r="BG3" s="45" t="s">
@@ -5785,11 +5809,11 @@
       </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="99">
         <v>3</v>
       </c>
-      <c r="B4" s="100" t="s">
-        <v>736</v>
+      <c r="B4" s="99" t="s">
+        <v>735</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>187</v>
@@ -5800,92 +5824,92 @@
       <c r="E4" s="53" t="s">
         <v>419</v>
       </c>
-      <c r="F4" s="100">
+      <c r="F4" s="99">
         <v>1095</v>
       </c>
-      <c r="G4" s="100" t="s">
+      <c r="G4" s="99" t="s">
+        <v>736</v>
+      </c>
+      <c r="H4" s="99" t="s">
+        <v>702</v>
+      </c>
+      <c r="I4" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="J4" s="99" t="s">
+        <v>703</v>
+      </c>
+      <c r="K4" s="99" t="s">
+        <v>704</v>
+      </c>
+      <c r="L4" s="99" t="s">
         <v>737</v>
       </c>
-      <c r="H4" s="100" t="s">
-        <v>703</v>
-      </c>
-      <c r="I4" s="100" t="s">
-        <v>192</v>
-      </c>
-      <c r="J4" s="100" t="s">
-        <v>704</v>
-      </c>
-      <c r="K4" s="100" t="s">
-        <v>705</v>
-      </c>
-      <c r="L4" s="100" t="s">
+      <c r="M4" s="99" t="s">
         <v>738</v>
       </c>
-      <c r="M4" s="100" t="s">
-        <v>739</v>
-      </c>
       <c r="N4" s="53" t="s">
+        <v>707</v>
+      </c>
+      <c r="O4" s="53" t="s">
         <v>708</v>
       </c>
-      <c r="O4" s="53" t="s">
+      <c r="P4" s="46" t="s">
         <v>709</v>
-      </c>
-      <c r="P4" s="46" t="s">
-        <v>710</v>
       </c>
       <c r="Q4" s="46" t="s">
         <v>124</v>
       </c>
       <c r="R4" s="53" t="s">
+        <v>739</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>739</v>
+      </c>
+      <c r="T4" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="U4" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="V4" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="W4" s="99" t="s">
         <v>740</v>
       </c>
-      <c r="S4" s="53" t="s">
-        <v>740</v>
-      </c>
-      <c r="T4" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="U4" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="V4" s="46" t="s">
-        <v>714</v>
-      </c>
-      <c r="W4" s="100" t="s">
+      <c r="X4" s="99" t="s">
         <v>741</v>
       </c>
-      <c r="X4" s="100" t="s">
+      <c r="Y4" s="99" t="s">
         <v>742</v>
       </c>
-      <c r="Y4" s="100" t="s">
+      <c r="Z4" s="99" t="s">
         <v>743</v>
       </c>
-      <c r="Z4" s="100" t="s">
+      <c r="AA4" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB4" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC4" s="99" t="s">
         <v>744</v>
-      </c>
-      <c r="AA4" s="46" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB4" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="AC4" s="100" t="s">
-        <v>745</v>
       </c>
       <c r="AD4" s="46"/>
       <c r="AE4" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF4" s="46"/>
       <c r="AG4" s="46"/>
       <c r="AH4" s="46"/>
       <c r="AI4" s="46" t="s">
-        <v>723</v>
-      </c>
-      <c r="AJ4" s="100" t="s">
-        <v>746</v>
-      </c>
-      <c r="AK4" s="100" t="s">
+        <v>722</v>
+      </c>
+      <c r="AJ4" s="99" t="s">
+        <v>745</v>
+      </c>
+      <c r="AK4" s="99" t="s">
         <v>111</v>
       </c>
       <c r="AL4" s="45" t="s">
@@ -5894,10 +5918,10 @@
       <c r="AM4" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AN4" s="100" t="s">
+      <c r="AN4" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="AO4" s="100" t="s">
+      <c r="AO4" s="99" t="s">
         <v>311</v>
       </c>
       <c r="AP4" s="45" t="s">
@@ -5915,19 +5939,19 @@
       <c r="AT4" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AU4" s="100" t="s">
+      <c r="AU4" s="99" t="s">
         <v>421</v>
       </c>
       <c r="AV4" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AW4" s="100" t="s">
+      <c r="AW4" s="99" t="s">
         <v>420</v>
       </c>
-      <c r="AX4" s="100" t="s">
+      <c r="AX4" s="99" t="s">
         <v>421</v>
       </c>
-      <c r="AY4" s="100" t="s">
+      <c r="AY4" s="99" t="s">
         <v>351</v>
       </c>
       <c r="AZ4" s="45" t="s">
@@ -5942,13 +5966,13 @@
       <c r="BC4" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="BD4" s="100" t="s">
-        <v>737</v>
+      <c r="BD4" s="99" t="s">
+        <v>736</v>
       </c>
       <c r="BE4" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="BF4" s="100" t="s">
+      <c r="BF4" s="99" t="s">
         <v>130</v>
       </c>
       <c r="BG4" s="45" t="s">
@@ -5989,11 +6013,11 @@
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A5" s="100">
+      <c r="A5" s="99">
         <v>4</v>
       </c>
-      <c r="B5" s="100" t="s">
-        <v>736</v>
+      <c r="B5" s="99" t="s">
+        <v>735</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>187</v>
@@ -6004,92 +6028,92 @@
       <c r="E5" s="53" t="s">
         <v>419</v>
       </c>
-      <c r="F5" s="100">
+      <c r="F5" s="99">
         <v>1095</v>
       </c>
-      <c r="G5" s="100" t="s">
-        <v>737</v>
-      </c>
-      <c r="H5" s="100" t="s">
+      <c r="G5" s="99" t="s">
+        <v>736</v>
+      </c>
+      <c r="H5" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="J5" s="100" t="s">
-        <v>727</v>
-      </c>
-      <c r="K5" s="100" t="s">
-        <v>705</v>
-      </c>
-      <c r="L5" s="100" t="s">
+      <c r="J5" s="99" t="s">
+        <v>726</v>
+      </c>
+      <c r="K5" s="99" t="s">
+        <v>704</v>
+      </c>
+      <c r="L5" s="99" t="s">
+        <v>746</v>
+      </c>
+      <c r="M5" s="99" t="s">
         <v>747</v>
       </c>
-      <c r="M5" s="100" t="s">
-        <v>748</v>
-      </c>
       <c r="N5" s="53" t="s">
+        <v>707</v>
+      </c>
+      <c r="O5" s="53" t="s">
         <v>708</v>
       </c>
-      <c r="O5" s="53" t="s">
+      <c r="P5" s="46" t="s">
         <v>709</v>
-      </c>
-      <c r="P5" s="46" t="s">
-        <v>710</v>
       </c>
       <c r="Q5" s="46" t="s">
         <v>124</v>
       </c>
       <c r="R5" s="53" t="s">
+        <v>748</v>
+      </c>
+      <c r="S5" s="53" t="s">
+        <v>748</v>
+      </c>
+      <c r="T5" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="U5" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="V5" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="W5" s="99" t="s">
         <v>749</v>
       </c>
-      <c r="S5" s="53" t="s">
-        <v>749</v>
-      </c>
-      <c r="T5" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="U5" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="V5" s="46" t="s">
-        <v>714</v>
-      </c>
-      <c r="W5" s="100" t="s">
+      <c r="X5" s="99" t="s">
         <v>750</v>
       </c>
-      <c r="X5" s="100" t="s">
+      <c r="Y5" s="99" t="s">
         <v>751</v>
       </c>
-      <c r="Y5" s="100" t="s">
+      <c r="Z5" s="99" t="s">
         <v>752</v>
       </c>
-      <c r="Z5" s="100" t="s">
+      <c r="AA5" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB5" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC5" s="99" t="s">
         <v>753</v>
-      </c>
-      <c r="AA5" s="46" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB5" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="AC5" s="100" t="s">
-        <v>754</v>
       </c>
       <c r="AD5" s="46"/>
       <c r="AE5" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF5" s="46"/>
       <c r="AG5" s="46"/>
       <c r="AH5" s="46"/>
       <c r="AI5" s="46" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="AK5" s="100" t="s">
+        <v>745</v>
+      </c>
+      <c r="AK5" s="99" t="s">
         <v>111</v>
       </c>
       <c r="AL5" s="45" t="s">
@@ -6098,10 +6122,10 @@
       <c r="AM5" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AN5" s="100" t="s">
+      <c r="AN5" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="AO5" s="100" t="s">
+      <c r="AO5" s="99" t="s">
         <v>311</v>
       </c>
       <c r="AP5" s="45" t="s">
@@ -6119,19 +6143,19 @@
       <c r="AT5" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AU5" s="100" t="s">
+      <c r="AU5" s="99" t="s">
         <v>421</v>
       </c>
       <c r="AV5" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AW5" s="100" t="s">
+      <c r="AW5" s="99" t="s">
         <v>420</v>
       </c>
-      <c r="AX5" s="100" t="s">
+      <c r="AX5" s="99" t="s">
         <v>421</v>
       </c>
-      <c r="AY5" s="100" t="s">
+      <c r="AY5" s="99" t="s">
         <v>351</v>
       </c>
       <c r="AZ5" s="45" t="s">
@@ -6146,13 +6170,13 @@
       <c r="BC5" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="BD5" s="100" t="s">
-        <v>737</v>
+      <c r="BD5" s="99" t="s">
+        <v>736</v>
       </c>
       <c r="BE5" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="BF5" s="100" t="s">
+      <c r="BF5" s="99" t="s">
         <v>130</v>
       </c>
       <c r="BG5" s="45" t="s">
@@ -6193,11 +6217,11 @@
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A6" s="100">
+      <c r="A6" s="99">
         <v>5</v>
       </c>
-      <c r="B6" s="100" t="s">
-        <v>755</v>
+      <c r="B6" s="99" t="s">
+        <v>754</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>187</v>
@@ -6208,134 +6232,134 @@
       <c r="E6" s="53" t="s">
         <v>419</v>
       </c>
-      <c r="F6" s="100">
+      <c r="F6" s="99">
         <v>1095</v>
       </c>
-      <c r="G6" s="100" t="s">
+      <c r="G6" s="99" t="s">
+        <v>755</v>
+      </c>
+      <c r="H6" s="99" t="s">
+        <v>702</v>
+      </c>
+      <c r="I6" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6" s="99" t="s">
+        <v>703</v>
+      </c>
+      <c r="K6" s="99" t="s">
+        <v>704</v>
+      </c>
+      <c r="L6" s="99" t="s">
         <v>756</v>
       </c>
-      <c r="H6" s="100" t="s">
-        <v>703</v>
-      </c>
-      <c r="I6" s="100" t="s">
-        <v>192</v>
-      </c>
-      <c r="J6" s="100" t="s">
-        <v>704</v>
-      </c>
-      <c r="K6" s="100" t="s">
-        <v>705</v>
-      </c>
-      <c r="L6" s="100" t="s">
+      <c r="M6" s="99" t="s">
         <v>757</v>
       </c>
-      <c r="M6" s="100" t="s">
-        <v>758</v>
-      </c>
       <c r="N6" s="53" t="s">
+        <v>707</v>
+      </c>
+      <c r="O6" s="53" t="s">
         <v>708</v>
       </c>
-      <c r="O6" s="53" t="s">
+      <c r="P6" s="46" t="s">
         <v>709</v>
-      </c>
-      <c r="P6" s="46" t="s">
-        <v>710</v>
       </c>
       <c r="Q6" s="46" t="s">
         <v>124</v>
       </c>
       <c r="R6" s="53" t="s">
+        <v>758</v>
+      </c>
+      <c r="S6" s="53" t="s">
+        <v>758</v>
+      </c>
+      <c r="T6" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="U6" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="V6" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="W6" s="99" t="s">
         <v>759</v>
       </c>
-      <c r="S6" s="53" t="s">
-        <v>759</v>
-      </c>
-      <c r="T6" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="U6" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="V6" s="46" t="s">
-        <v>714</v>
-      </c>
-      <c r="W6" s="100" t="s">
+      <c r="X6" s="99" t="s">
         <v>760</v>
       </c>
-      <c r="X6" s="100" t="s">
+      <c r="Y6" s="99" t="s">
         <v>761</v>
       </c>
-      <c r="Y6" s="100" t="s">
+      <c r="Z6" s="99" t="s">
         <v>762</v>
       </c>
-      <c r="Z6" s="100" t="s">
+      <c r="AA6" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB6" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC6" s="99" t="s">
         <v>763</v>
-      </c>
-      <c r="AA6" s="46" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB6" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="AC6" s="100" t="s">
-        <v>764</v>
       </c>
       <c r="AD6" s="46"/>
       <c r="AE6" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF6" s="46"/>
       <c r="AG6" s="46"/>
       <c r="AH6" s="46"/>
       <c r="AI6" s="46" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AJ6" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="AK6" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL6" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM6" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN6" s="99" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO6" s="99" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP6" s="99" t="s">
+        <v>427</v>
+      </c>
+      <c r="AQ6" s="99" t="s">
+        <v>428</v>
+      </c>
+      <c r="AR6" s="99" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS6" s="99" t="s">
         <v>765</v>
       </c>
-      <c r="AK6" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL6" s="100" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM6" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN6" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="AO6" s="100" t="s">
-        <v>311</v>
-      </c>
-      <c r="AP6" s="100" t="s">
-        <v>427</v>
-      </c>
-      <c r="AQ6" s="100" t="s">
-        <v>428</v>
-      </c>
-      <c r="AR6" s="100" t="s">
-        <v>429</v>
-      </c>
-      <c r="AS6" s="100" t="s">
+      <c r="AT6" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU6" s="99" t="s">
+        <v>421</v>
+      </c>
+      <c r="AV6" s="99" t="s">
         <v>766</v>
       </c>
-      <c r="AT6" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU6" s="100" t="s">
-        <v>421</v>
-      </c>
-      <c r="AV6" s="100" t="s">
-        <v>767</v>
-      </c>
       <c r="AW6" s="45" t="s">
         <v>122</v>
       </c>
       <c r="AX6" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AY6" s="100" t="s">
+      <c r="AY6" s="99" t="s">
         <v>351</v>
       </c>
       <c r="AZ6" s="45" t="s">
@@ -6350,13 +6374,13 @@
       <c r="BC6" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="BD6" s="100" t="s">
-        <v>756</v>
+      <c r="BD6" s="99" t="s">
+        <v>755</v>
       </c>
       <c r="BE6" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="BF6" s="100" t="s">
+      <c r="BF6" s="99" t="s">
         <v>130</v>
       </c>
       <c r="BG6" s="45" t="s">
@@ -6397,11 +6421,11 @@
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A7" s="100">
+      <c r="A7" s="99">
         <v>6</v>
       </c>
-      <c r="B7" s="100" t="s">
-        <v>755</v>
+      <c r="B7" s="99" t="s">
+        <v>754</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>187</v>
@@ -6412,134 +6436,134 @@
       <c r="E7" s="53" t="s">
         <v>419</v>
       </c>
-      <c r="F7" s="100">
+      <c r="F7" s="99">
         <v>1095</v>
       </c>
-      <c r="G7" s="100" t="s">
-        <v>756</v>
-      </c>
-      <c r="H7" s="100" t="s">
+      <c r="G7" s="99" t="s">
+        <v>755</v>
+      </c>
+      <c r="H7" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="100" t="s">
+      <c r="I7" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="J7" s="100" t="s">
-        <v>727</v>
-      </c>
-      <c r="K7" s="100" t="s">
-        <v>705</v>
-      </c>
-      <c r="L7" s="100" t="s">
+      <c r="J7" s="99" t="s">
+        <v>726</v>
+      </c>
+      <c r="K7" s="99" t="s">
+        <v>704</v>
+      </c>
+      <c r="L7" s="99" t="s">
+        <v>767</v>
+      </c>
+      <c r="M7" s="99" t="s">
         <v>768</v>
       </c>
-      <c r="M7" s="100" t="s">
-        <v>769</v>
-      </c>
       <c r="N7" s="53" t="s">
+        <v>707</v>
+      </c>
+      <c r="O7" s="53" t="s">
         <v>708</v>
       </c>
-      <c r="O7" s="53" t="s">
+      <c r="P7" s="46" t="s">
         <v>709</v>
-      </c>
-      <c r="P7" s="46" t="s">
-        <v>710</v>
       </c>
       <c r="Q7" s="46" t="s">
         <v>124</v>
       </c>
       <c r="R7" s="53" t="s">
+        <v>769</v>
+      </c>
+      <c r="S7" s="53" t="s">
+        <v>769</v>
+      </c>
+      <c r="T7" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="U7" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="V7" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="W7" s="99" t="s">
         <v>770</v>
       </c>
-      <c r="S7" s="53" t="s">
-        <v>770</v>
-      </c>
-      <c r="T7" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="U7" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="V7" s="46" t="s">
-        <v>714</v>
-      </c>
-      <c r="W7" s="100" t="s">
+      <c r="X7" s="99" t="s">
         <v>771</v>
       </c>
-      <c r="X7" s="100" t="s">
+      <c r="Y7" s="99" t="s">
         <v>772</v>
       </c>
-      <c r="Y7" s="100" t="s">
+      <c r="Z7" s="99" t="s">
         <v>773</v>
       </c>
-      <c r="Z7" s="100" t="s">
+      <c r="AA7" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB7" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC7" s="99" t="s">
         <v>774</v>
-      </c>
-      <c r="AA7" s="46" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB7" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="AC7" s="100" t="s">
-        <v>775</v>
       </c>
       <c r="AD7" s="46"/>
       <c r="AE7" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF7" s="46"/>
       <c r="AG7" s="46"/>
       <c r="AH7" s="46"/>
       <c r="AI7" s="46" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AJ7" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="AK7" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL7" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM7" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN7" s="99" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO7" s="99" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP7" s="99" t="s">
+        <v>427</v>
+      </c>
+      <c r="AQ7" s="99" t="s">
+        <v>428</v>
+      </c>
+      <c r="AR7" s="99" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS7" s="99" t="s">
         <v>765</v>
       </c>
-      <c r="AK7" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL7" s="100" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM7" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN7" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="AO7" s="100" t="s">
-        <v>311</v>
-      </c>
-      <c r="AP7" s="100" t="s">
-        <v>427</v>
-      </c>
-      <c r="AQ7" s="100" t="s">
-        <v>428</v>
-      </c>
-      <c r="AR7" s="100" t="s">
-        <v>429</v>
-      </c>
-      <c r="AS7" s="100" t="s">
+      <c r="AT7" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU7" s="99" t="s">
+        <v>421</v>
+      </c>
+      <c r="AV7" s="99" t="s">
         <v>766</v>
       </c>
-      <c r="AT7" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU7" s="100" t="s">
-        <v>421</v>
-      </c>
-      <c r="AV7" s="100" t="s">
-        <v>767</v>
-      </c>
       <c r="AW7" s="45" t="s">
         <v>122</v>
       </c>
       <c r="AX7" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AY7" s="100" t="s">
+      <c r="AY7" s="99" t="s">
         <v>351</v>
       </c>
       <c r="AZ7" s="45" t="s">
@@ -6554,13 +6578,13 @@
       <c r="BC7" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="BD7" s="100" t="s">
-        <v>756</v>
+      <c r="BD7" s="99" t="s">
+        <v>755</v>
       </c>
       <c r="BE7" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="BF7" s="100" t="s">
+      <c r="BF7" s="99" t="s">
         <v>130</v>
       </c>
       <c r="BG7" s="45" t="s">
@@ -6601,11 +6625,11 @@
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A8" s="100">
+      <c r="A8" s="99">
         <v>7</v>
       </c>
-      <c r="B8" s="100" t="s">
-        <v>776</v>
+      <c r="B8" s="99" t="s">
+        <v>775</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>187</v>
@@ -6614,157 +6638,157 @@
         <v>234</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="F8" s="100">
+        <v>563</v>
+      </c>
+      <c r="F8" s="99">
         <v>1095</v>
       </c>
-      <c r="G8" s="100" t="s">
+      <c r="G8" s="99" t="s">
+        <v>776</v>
+      </c>
+      <c r="H8" s="99" t="s">
+        <v>702</v>
+      </c>
+      <c r="I8" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="J8" s="99" t="s">
+        <v>703</v>
+      </c>
+      <c r="K8" s="99" t="s">
+        <v>704</v>
+      </c>
+      <c r="L8" s="99" t="s">
         <v>777</v>
       </c>
-      <c r="H8" s="100" t="s">
-        <v>703</v>
-      </c>
-      <c r="I8" s="100" t="s">
-        <v>192</v>
-      </c>
-      <c r="J8" s="100" t="s">
-        <v>704</v>
-      </c>
-      <c r="K8" s="100" t="s">
-        <v>705</v>
-      </c>
-      <c r="L8" s="100" t="s">
+      <c r="M8" s="99" t="s">
         <v>778</v>
       </c>
-      <c r="M8" s="100" t="s">
+      <c r="N8" s="53" t="s">
         <v>779</v>
       </c>
-      <c r="N8" s="53" t="s">
+      <c r="O8" s="53" t="s">
         <v>780</v>
       </c>
-      <c r="O8" s="53" t="s">
-        <v>781</v>
-      </c>
       <c r="P8" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q8" s="46" t="s">
         <v>124</v>
       </c>
       <c r="R8" s="53" t="s">
+        <v>781</v>
+      </c>
+      <c r="S8" s="53" t="s">
+        <v>781</v>
+      </c>
+      <c r="T8" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="U8" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="V8" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="W8" s="99" t="s">
         <v>782</v>
       </c>
-      <c r="S8" s="53" t="s">
-        <v>782</v>
-      </c>
-      <c r="T8" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="U8" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="V8" s="46" t="s">
-        <v>714</v>
-      </c>
-      <c r="W8" s="100" t="s">
+      <c r="X8" s="99" t="s">
         <v>783</v>
       </c>
-      <c r="X8" s="100" t="s">
+      <c r="Y8" s="99" t="s">
         <v>784</v>
       </c>
-      <c r="Y8" s="100" t="s">
+      <c r="Z8" s="99" t="s">
         <v>785</v>
       </c>
-      <c r="Z8" s="100" t="s">
+      <c r="AA8" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB8" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC8" s="99" t="s">
         <v>786</v>
-      </c>
-      <c r="AA8" s="46" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB8" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="AC8" s="100" t="s">
-        <v>787</v>
       </c>
       <c r="AD8" s="46"/>
       <c r="AE8" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF8" s="46"/>
       <c r="AG8" s="46"/>
       <c r="AH8" s="46"/>
       <c r="AI8" s="46" t="s">
-        <v>723</v>
-      </c>
-      <c r="AJ8" s="100" t="s">
+        <v>722</v>
+      </c>
+      <c r="AJ8" s="99" t="s">
+        <v>787</v>
+      </c>
+      <c r="AK8" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL8" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM8" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN8" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO8" s="99" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP8" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ8" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR8" s="99" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS8" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT8" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU8" s="99" t="s">
+        <v>351</v>
+      </c>
+      <c r="AV8" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW8" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX8" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY8" s="99" t="s">
+        <v>562</v>
+      </c>
+      <c r="AZ8" s="99" t="s">
+        <v>420</v>
+      </c>
+      <c r="BA8" s="99" t="s">
+        <v>561</v>
+      </c>
+      <c r="BB8" s="99" t="s">
+        <v>765</v>
+      </c>
+      <c r="BC8" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD8" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE8" s="99" t="s">
         <v>788</v>
       </c>
-      <c r="AK8" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL8" s="100" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM8" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN8" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO8" s="100" t="s">
-        <v>311</v>
-      </c>
-      <c r="AP8" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ8" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR8" s="100" t="s">
-        <v>429</v>
-      </c>
-      <c r="AS8" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT8" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU8" s="100" t="s">
-        <v>351</v>
-      </c>
-      <c r="AV8" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW8" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX8" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY8" s="100" t="s">
-        <v>563</v>
-      </c>
-      <c r="AZ8" s="100" t="s">
-        <v>420</v>
-      </c>
-      <c r="BA8" s="100" t="s">
-        <v>562</v>
-      </c>
-      <c r="BB8" s="100" t="s">
-        <v>766</v>
-      </c>
-      <c r="BC8" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BD8" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE8" s="100" t="s">
-        <v>789</v>
-      </c>
-      <c r="BF8" s="100" t="s">
+      <c r="BF8" s="99" t="s">
         <v>130</v>
       </c>
       <c r="BG8" s="45" t="s">
@@ -6805,11 +6829,11 @@
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A9" s="100">
+      <c r="A9" s="99">
         <v>8</v>
       </c>
-      <c r="B9" s="100" t="s">
-        <v>776</v>
+      <c r="B9" s="99" t="s">
+        <v>775</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>187</v>
@@ -6818,157 +6842,157 @@
         <v>234</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="F9" s="100">
+        <v>563</v>
+      </c>
+      <c r="F9" s="99">
         <v>1095</v>
       </c>
-      <c r="G9" s="100" t="s">
-        <v>777</v>
-      </c>
-      <c r="H9" s="100" t="s">
+      <c r="G9" s="99" t="s">
+        <v>776</v>
+      </c>
+      <c r="H9" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="100" t="s">
+      <c r="I9" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="J9" s="100" t="s">
-        <v>727</v>
-      </c>
-      <c r="K9" s="100" t="s">
-        <v>705</v>
-      </c>
-      <c r="L9" s="100" t="s">
+      <c r="J9" s="99" t="s">
+        <v>726</v>
+      </c>
+      <c r="K9" s="99" t="s">
+        <v>704</v>
+      </c>
+      <c r="L9" s="99" t="s">
+        <v>789</v>
+      </c>
+      <c r="M9" s="99" t="s">
         <v>790</v>
       </c>
-      <c r="M9" s="100" t="s">
-        <v>791</v>
-      </c>
       <c r="N9" s="53" t="s">
+        <v>779</v>
+      </c>
+      <c r="O9" s="53" t="s">
         <v>780</v>
       </c>
-      <c r="O9" s="53" t="s">
-        <v>781</v>
-      </c>
       <c r="P9" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q9" s="46" t="s">
         <v>124</v>
       </c>
       <c r="R9" s="53" t="s">
+        <v>791</v>
+      </c>
+      <c r="S9" s="53" t="s">
+        <v>791</v>
+      </c>
+      <c r="T9" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="U9" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="V9" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="W9" s="99" t="s">
         <v>792</v>
       </c>
-      <c r="S9" s="53" t="s">
-        <v>792</v>
-      </c>
-      <c r="T9" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="U9" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="V9" s="46" t="s">
-        <v>714</v>
-      </c>
-      <c r="W9" s="100" t="s">
+      <c r="X9" s="99" t="s">
         <v>793</v>
       </c>
-      <c r="X9" s="100" t="s">
+      <c r="Y9" s="99" t="s">
         <v>794</v>
       </c>
-      <c r="Y9" s="100" t="s">
+      <c r="Z9" s="99" t="s">
         <v>795</v>
       </c>
-      <c r="Z9" s="100" t="s">
+      <c r="AA9" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB9" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC9" s="99" t="s">
         <v>796</v>
-      </c>
-      <c r="AA9" s="46" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB9" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="AC9" s="100" t="s">
-        <v>797</v>
       </c>
       <c r="AD9" s="46"/>
       <c r="AE9" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF9" s="46"/>
       <c r="AG9" s="46"/>
       <c r="AH9" s="46"/>
       <c r="AI9" s="46" t="s">
-        <v>723</v>
-      </c>
-      <c r="AJ9" s="100" t="s">
+        <v>722</v>
+      </c>
+      <c r="AJ9" s="99" t="s">
+        <v>787</v>
+      </c>
+      <c r="AK9" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL9" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM9" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN9" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO9" s="99" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP9" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ9" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR9" s="99" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS9" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT9" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU9" s="99" t="s">
+        <v>351</v>
+      </c>
+      <c r="AV9" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW9" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX9" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY9" s="99" t="s">
+        <v>562</v>
+      </c>
+      <c r="AZ9" s="99" t="s">
+        <v>420</v>
+      </c>
+      <c r="BA9" s="99" t="s">
+        <v>561</v>
+      </c>
+      <c r="BB9" s="99" t="s">
+        <v>765</v>
+      </c>
+      <c r="BC9" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD9" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE9" s="99" t="s">
         <v>788</v>
       </c>
-      <c r="AK9" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL9" s="100" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM9" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN9" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO9" s="100" t="s">
-        <v>311</v>
-      </c>
-      <c r="AP9" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ9" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR9" s="100" t="s">
-        <v>429</v>
-      </c>
-      <c r="AS9" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT9" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU9" s="100" t="s">
-        <v>351</v>
-      </c>
-      <c r="AV9" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW9" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX9" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY9" s="100" t="s">
-        <v>563</v>
-      </c>
-      <c r="AZ9" s="100" t="s">
-        <v>420</v>
-      </c>
-      <c r="BA9" s="100" t="s">
-        <v>562</v>
-      </c>
-      <c r="BB9" s="100" t="s">
-        <v>766</v>
-      </c>
-      <c r="BC9" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BD9" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE9" s="100" t="s">
-        <v>789</v>
-      </c>
-      <c r="BF9" s="100" t="s">
+      <c r="BF9" s="99" t="s">
         <v>130</v>
       </c>
       <c r="BG9" s="45" t="s">
@@ -7009,11 +7033,11 @@
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A10" s="100">
+      <c r="A10" s="99">
         <v>9</v>
       </c>
-      <c r="B10" s="100" t="s">
-        <v>798</v>
+      <c r="B10" s="99" t="s">
+        <v>797</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>187</v>
@@ -7022,97 +7046,97 @@
         <v>234</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="F10" s="100">
+        <v>563</v>
+      </c>
+      <c r="F10" s="99">
         <v>1095</v>
       </c>
-      <c r="G10" s="100" t="s">
+      <c r="G10" s="99" t="s">
+        <v>798</v>
+      </c>
+      <c r="H10" s="99" t="s">
+        <v>702</v>
+      </c>
+      <c r="I10" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="J10" s="99" t="s">
+        <v>703</v>
+      </c>
+      <c r="K10" s="99" t="s">
+        <v>704</v>
+      </c>
+      <c r="L10" s="99" t="s">
         <v>799</v>
       </c>
-      <c r="H10" s="100" t="s">
-        <v>703</v>
-      </c>
-      <c r="I10" s="100" t="s">
-        <v>192</v>
-      </c>
-      <c r="J10" s="100" t="s">
-        <v>704</v>
-      </c>
-      <c r="K10" s="100" t="s">
-        <v>705</v>
-      </c>
-      <c r="L10" s="100" t="s">
+      <c r="M10" s="99" t="s">
         <v>800</v>
       </c>
-      <c r="M10" s="100" t="s">
-        <v>801</v>
-      </c>
       <c r="N10" s="53" t="s">
+        <v>779</v>
+      </c>
+      <c r="O10" s="53" t="s">
         <v>780</v>
       </c>
-      <c r="O10" s="53" t="s">
-        <v>781</v>
-      </c>
       <c r="P10" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q10" s="46" t="s">
         <v>124</v>
       </c>
       <c r="R10" s="53" t="s">
+        <v>801</v>
+      </c>
+      <c r="S10" s="53" t="s">
+        <v>801</v>
+      </c>
+      <c r="T10" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="U10" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="V10" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="W10" s="99" t="s">
         <v>802</v>
       </c>
-      <c r="S10" s="53" t="s">
-        <v>802</v>
-      </c>
-      <c r="T10" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="U10" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="V10" s="46" t="s">
-        <v>714</v>
-      </c>
-      <c r="W10" s="100" t="s">
+      <c r="X10" s="99" t="s">
         <v>803</v>
       </c>
-      <c r="X10" s="100" t="s">
+      <c r="Y10" s="99" t="s">
         <v>804</v>
       </c>
-      <c r="Y10" s="100" t="s">
+      <c r="Z10" s="99" t="s">
         <v>805</v>
       </c>
-      <c r="Z10" s="100" t="s">
+      <c r="AA10" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB10" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC10" s="99" t="s">
         <v>806</v>
-      </c>
-      <c r="AA10" s="46" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB10" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="AC10" s="100" t="s">
-        <v>807</v>
       </c>
       <c r="AD10" s="46"/>
       <c r="AE10" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF10" s="46"/>
       <c r="AG10" s="46"/>
       <c r="AH10" s="46"/>
       <c r="AI10" s="46" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AJ10" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="AK10" s="100" t="s">
+        <v>807</v>
+      </c>
+      <c r="AK10" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="AL10" s="100" t="s">
+      <c r="AL10" s="99" t="s">
         <v>197</v>
       </c>
       <c r="AM10" s="45" t="s">
@@ -7139,7 +7163,7 @@
       <c r="AT10" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AU10" s="100" t="s">
+      <c r="AU10" s="99" t="s">
         <v>351</v>
       </c>
       <c r="AV10" s="45" t="s">
@@ -7151,17 +7175,17 @@
       <c r="AX10" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AY10" s="100" t="s">
-        <v>563</v>
-      </c>
-      <c r="AZ10" s="100" t="s">
+      <c r="AY10" s="99" t="s">
+        <v>562</v>
+      </c>
+      <c r="AZ10" s="99" t="s">
         <v>420</v>
       </c>
-      <c r="BA10" s="100" t="s">
-        <v>562</v>
-      </c>
-      <c r="BB10" s="100" t="s">
-        <v>766</v>
+      <c r="BA10" s="99" t="s">
+        <v>561</v>
+      </c>
+      <c r="BB10" s="99" t="s">
+        <v>765</v>
       </c>
       <c r="BC10" s="45" t="s">
         <v>122</v>
@@ -7169,10 +7193,10 @@
       <c r="BD10" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="BE10" s="100" t="s">
-        <v>789</v>
-      </c>
-      <c r="BF10" s="100" t="s">
+      <c r="BE10" s="99" t="s">
+        <v>788</v>
+      </c>
+      <c r="BF10" s="99" t="s">
         <v>130</v>
       </c>
       <c r="BG10" s="45" t="s">
@@ -7213,11 +7237,11 @@
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A11" s="100">
+      <c r="A11" s="99">
         <v>10</v>
       </c>
-      <c r="B11" s="100" t="s">
-        <v>798</v>
+      <c r="B11" s="99" t="s">
+        <v>797</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>187</v>
@@ -7226,97 +7250,97 @@
         <v>234</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="F11" s="100">
+        <v>563</v>
+      </c>
+      <c r="F11" s="99">
         <v>1095</v>
       </c>
-      <c r="G11" s="100" t="s">
-        <v>799</v>
-      </c>
-      <c r="H11" s="100" t="s">
+      <c r="G11" s="99" t="s">
+        <v>798</v>
+      </c>
+      <c r="H11" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="100" t="s">
+      <c r="I11" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="J11" s="100" t="s">
-        <v>727</v>
-      </c>
-      <c r="K11" s="100" t="s">
-        <v>705</v>
-      </c>
-      <c r="L11" s="100" t="s">
+      <c r="J11" s="99" t="s">
+        <v>726</v>
+      </c>
+      <c r="K11" s="99" t="s">
+        <v>704</v>
+      </c>
+      <c r="L11" s="99" t="s">
+        <v>808</v>
+      </c>
+      <c r="M11" s="99" t="s">
         <v>809</v>
       </c>
-      <c r="M11" s="100" t="s">
-        <v>810</v>
-      </c>
       <c r="N11" s="53" t="s">
+        <v>779</v>
+      </c>
+      <c r="O11" s="53" t="s">
         <v>780</v>
       </c>
-      <c r="O11" s="53" t="s">
-        <v>781</v>
-      </c>
       <c r="P11" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q11" s="46" t="s">
         <v>124</v>
       </c>
       <c r="R11" s="53" t="s">
+        <v>810</v>
+      </c>
+      <c r="S11" s="53" t="s">
+        <v>810</v>
+      </c>
+      <c r="T11" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="U11" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="V11" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="W11" s="99" t="s">
         <v>811</v>
       </c>
-      <c r="S11" s="53" t="s">
-        <v>811</v>
-      </c>
-      <c r="T11" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="U11" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="V11" s="46" t="s">
-        <v>714</v>
-      </c>
-      <c r="W11" s="100" t="s">
+      <c r="X11" s="99" t="s">
         <v>812</v>
       </c>
-      <c r="X11" s="100" t="s">
+      <c r="Y11" s="99" t="s">
         <v>813</v>
       </c>
-      <c r="Y11" s="100" t="s">
+      <c r="Z11" s="99" t="s">
         <v>814</v>
       </c>
-      <c r="Z11" s="100" t="s">
+      <c r="AA11" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB11" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC11" s="99" t="s">
         <v>815</v>
-      </c>
-      <c r="AA11" s="46" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB11" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="AC11" s="100" t="s">
-        <v>816</v>
       </c>
       <c r="AD11" s="46"/>
       <c r="AE11" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF11" s="46"/>
       <c r="AG11" s="46"/>
       <c r="AH11" s="46"/>
       <c r="AI11" s="46" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AJ11" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="AK11" s="100" t="s">
+        <v>807</v>
+      </c>
+      <c r="AK11" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="AL11" s="100" t="s">
+      <c r="AL11" s="99" t="s">
         <v>197</v>
       </c>
       <c r="AM11" s="45" t="s">
@@ -7343,7 +7367,7 @@
       <c r="AT11" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AU11" s="100" t="s">
+      <c r="AU11" s="99" t="s">
         <v>351</v>
       </c>
       <c r="AV11" s="45" t="s">
@@ -7355,17 +7379,17 @@
       <c r="AX11" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AY11" s="100" t="s">
-        <v>563</v>
-      </c>
-      <c r="AZ11" s="100" t="s">
+      <c r="AY11" s="99" t="s">
+        <v>562</v>
+      </c>
+      <c r="AZ11" s="99" t="s">
         <v>420</v>
       </c>
-      <c r="BA11" s="100" t="s">
-        <v>562</v>
-      </c>
-      <c r="BB11" s="100" t="s">
-        <v>766</v>
+      <c r="BA11" s="99" t="s">
+        <v>561</v>
+      </c>
+      <c r="BB11" s="99" t="s">
+        <v>765</v>
       </c>
       <c r="BC11" s="45" t="s">
         <v>122</v>
@@ -7373,10 +7397,10 @@
       <c r="BD11" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="BE11" s="100" t="s">
-        <v>789</v>
-      </c>
-      <c r="BF11" s="100" t="s">
+      <c r="BE11" s="99" t="s">
+        <v>788</v>
+      </c>
+      <c r="BF11" s="99" t="s">
         <v>130</v>
       </c>
       <c r="BG11" s="45" t="s">
@@ -7417,11 +7441,11 @@
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A12" s="100">
+      <c r="A12" s="99">
         <v>11</v>
       </c>
-      <c r="B12" s="100" t="s">
-        <v>701</v>
+      <c r="B12" s="99" t="s">
+        <v>700</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>187</v>
@@ -7432,92 +7456,92 @@
       <c r="E12" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="100">
+      <c r="F12" s="99">
         <v>1095</v>
       </c>
-      <c r="G12" s="100" t="s">
+      <c r="G12" s="99" t="s">
+        <v>816</v>
+      </c>
+      <c r="H12" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="J12" s="99" t="s">
+        <v>726</v>
+      </c>
+      <c r="K12" s="99" t="s">
+        <v>704</v>
+      </c>
+      <c r="L12" s="99" t="s">
         <v>817</v>
       </c>
-      <c r="H12" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12" s="100" t="s">
-        <v>192</v>
-      </c>
-      <c r="J12" s="100" t="s">
-        <v>727</v>
-      </c>
-      <c r="K12" s="100" t="s">
-        <v>705</v>
-      </c>
-      <c r="L12" s="100" t="s">
+      <c r="M12" s="99" t="s">
         <v>818</v>
       </c>
-      <c r="M12" s="100" t="s">
+      <c r="N12" s="53" t="s">
         <v>819</v>
       </c>
-      <c r="N12" s="53" t="s">
+      <c r="O12" s="53" t="s">
         <v>820</v>
       </c>
-      <c r="O12" s="53" t="s">
-        <v>821</v>
-      </c>
       <c r="P12" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q12" s="46" t="s">
         <v>124</v>
       </c>
       <c r="R12" s="53" t="s">
+        <v>821</v>
+      </c>
+      <c r="S12" s="53" t="s">
+        <v>821</v>
+      </c>
+      <c r="T12" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="U12" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="V12" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="W12" s="99" t="s">
         <v>822</v>
       </c>
-      <c r="S12" s="53" t="s">
-        <v>822</v>
-      </c>
-      <c r="T12" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="U12" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="V12" s="46" t="s">
-        <v>714</v>
-      </c>
-      <c r="W12" s="100" t="s">
+      <c r="X12" s="99" t="s">
         <v>823</v>
       </c>
-      <c r="X12" s="100" t="s">
+      <c r="Y12" s="99" t="s">
         <v>824</v>
       </c>
-      <c r="Y12" s="100" t="s">
+      <c r="Z12" s="99" t="s">
         <v>825</v>
       </c>
-      <c r="Z12" s="100" t="s">
+      <c r="AA12" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB12" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC12" s="99" t="s">
         <v>826</v>
-      </c>
-      <c r="AA12" s="46" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB12" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="AC12" s="100" t="s">
-        <v>827</v>
       </c>
       <c r="AD12" s="46"/>
       <c r="AE12" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF12" s="46"/>
       <c r="AG12" s="46"/>
       <c r="AH12" s="46"/>
       <c r="AI12" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="AJ12" s="99" t="s">
         <v>723</v>
       </c>
-      <c r="AJ12" s="100" t="s">
-        <v>724</v>
-      </c>
-      <c r="AK12" s="100" t="s">
+      <c r="AK12" s="99" t="s">
         <v>111</v>
       </c>
       <c r="AL12" s="45" t="s">
@@ -7544,7 +7568,7 @@
       <c r="AS12" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AT12" s="100" t="s">
+      <c r="AT12" s="99" t="s">
         <v>351</v>
       </c>
       <c r="AU12" s="45" t="s">
@@ -7571,16 +7595,16 @@
       <c r="BB12" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="BC12" s="100" t="s">
+      <c r="BC12" s="99" t="s">
         <v>391</v>
       </c>
-      <c r="BD12" s="100" t="s">
-        <v>584</v>
+      <c r="BD12" s="99" t="s">
+        <v>583</v>
       </c>
       <c r="BE12" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="BF12" s="100" t="s">
+      <c r="BF12" s="99" t="s">
         <v>130</v>
       </c>
       <c r="BG12" s="45" t="s">
@@ -7621,11 +7645,11 @@
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A13" s="100">
+      <c r="A13" s="99">
         <v>12</v>
       </c>
-      <c r="B13" s="100" t="s">
-        <v>828</v>
+      <c r="B13" s="99" t="s">
+        <v>827</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>187</v>
@@ -7636,200 +7660,200 @@
       <c r="E13" s="53" t="s">
         <v>433</v>
       </c>
-      <c r="F13" s="100">
+      <c r="F13" s="99">
         <v>1095</v>
       </c>
-      <c r="G13" s="100" t="s">
+      <c r="G13" s="99" t="s">
+        <v>828</v>
+      </c>
+      <c r="H13" s="99" t="s">
+        <v>702</v>
+      </c>
+      <c r="I13" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="J13" s="99" t="s">
+        <v>703</v>
+      </c>
+      <c r="K13" s="99" t="s">
+        <v>704</v>
+      </c>
+      <c r="L13" s="99" t="s">
         <v>829</v>
       </c>
-      <c r="H13" s="100" t="s">
-        <v>703</v>
-      </c>
-      <c r="I13" s="100" t="s">
-        <v>192</v>
-      </c>
-      <c r="J13" s="100" t="s">
-        <v>704</v>
-      </c>
-      <c r="K13" s="100" t="s">
-        <v>705</v>
-      </c>
-      <c r="L13" s="100" t="s">
+      <c r="M13" s="99" t="s">
         <v>830</v>
       </c>
-      <c r="M13" s="100" t="s">
-        <v>831</v>
-      </c>
       <c r="N13" s="53" t="s">
+        <v>819</v>
+      </c>
+      <c r="O13" s="53" t="s">
         <v>820</v>
       </c>
-      <c r="O13" s="53" t="s">
-        <v>821</v>
-      </c>
       <c r="P13" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q13" s="46" t="s">
         <v>124</v>
       </c>
       <c r="R13" s="53" t="s">
+        <v>831</v>
+      </c>
+      <c r="S13" s="53" t="s">
+        <v>831</v>
+      </c>
+      <c r="T13" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="U13" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="V13" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="W13" s="99" t="s">
         <v>832</v>
       </c>
-      <c r="S13" s="53" t="s">
-        <v>832</v>
-      </c>
-      <c r="T13" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="U13" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="V13" s="46" t="s">
-        <v>714</v>
-      </c>
-      <c r="W13" s="100" t="s">
+      <c r="X13" s="99" t="s">
         <v>833</v>
       </c>
-      <c r="X13" s="100" t="s">
+      <c r="Y13" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="Y13" s="100" t="s">
+      <c r="Z13" s="99" t="s">
         <v>835</v>
       </c>
-      <c r="Z13" s="100" t="s">
+      <c r="AA13" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB13" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC13" s="99" t="s">
         <v>836</v>
-      </c>
-      <c r="AA13" s="46" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB13" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="AC13" s="100" t="s">
-        <v>837</v>
       </c>
       <c r="AD13" s="46"/>
       <c r="AE13" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF13" s="46"/>
       <c r="AG13" s="46"/>
       <c r="AH13" s="46"/>
       <c r="AI13" s="46" t="s">
-        <v>723</v>
-      </c>
-      <c r="AJ13" s="100" t="s">
+        <v>722</v>
+      </c>
+      <c r="AJ13" s="99" t="s">
+        <v>837</v>
+      </c>
+      <c r="AK13" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO13" s="99" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR13" s="99" t="s">
+        <v>440</v>
+      </c>
+      <c r="AS13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BB13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF13" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG13" s="99" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH13" s="99" t="s">
+        <v>434</v>
+      </c>
+      <c r="BI13" s="99" t="s">
+        <v>351</v>
+      </c>
+      <c r="BJ13" s="99" t="s">
         <v>838</v>
       </c>
-      <c r="AK13" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO13" s="100" t="s">
-        <v>311</v>
-      </c>
-      <c r="AP13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR13" s="100" t="s">
-        <v>440</v>
-      </c>
-      <c r="AS13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BA13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BB13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BC13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BD13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BF13" s="100" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG13" s="100" t="s">
-        <v>351</v>
-      </c>
-      <c r="BH13" s="100" t="s">
-        <v>434</v>
-      </c>
-      <c r="BI13" s="100" t="s">
-        <v>351</v>
-      </c>
-      <c r="BJ13" s="100" t="s">
+      <c r="BK13" s="99" t="s">
+        <v>435</v>
+      </c>
+      <c r="BL13" s="99" t="s">
         <v>839</v>
       </c>
-      <c r="BK13" s="100" t="s">
-        <v>435</v>
-      </c>
-      <c r="BL13" s="100" t="s">
+      <c r="BM13" s="99">
+        <v>54</v>
+      </c>
+      <c r="BN13" s="99" t="s">
         <v>840</v>
       </c>
-      <c r="BM13" s="100">
-        <v>54</v>
-      </c>
-      <c r="BN13" s="100" t="s">
+      <c r="BO13" s="99" t="s">
+        <v>338</v>
+      </c>
+      <c r="BP13" s="99" t="s">
         <v>841</v>
       </c>
-      <c r="BO13" s="100" t="s">
-        <v>338</v>
-      </c>
-      <c r="BP13" s="100" t="s">
+      <c r="BQ13" s="99">
+        <v>5</v>
+      </c>
+      <c r="BR13" s="99" t="s">
         <v>842</v>
-      </c>
-      <c r="BQ13" s="100">
-        <v>5</v>
-      </c>
-      <c r="BR13" s="100" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A14" s="100">
+      <c r="A14" s="99">
         <v>13</v>
       </c>
-      <c r="B14" s="100" t="s">
-        <v>828</v>
+      <c r="B14" s="99" t="s">
+        <v>827</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>187</v>
@@ -7840,200 +7864,200 @@
       <c r="E14" s="53" t="s">
         <v>433</v>
       </c>
-      <c r="F14" s="100">
+      <c r="F14" s="99">
         <v>1095</v>
       </c>
-      <c r="G14" s="100" t="s">
-        <v>829</v>
-      </c>
-      <c r="H14" s="100" t="s">
+      <c r="G14" s="99" t="s">
+        <v>828</v>
+      </c>
+      <c r="H14" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="I14" s="100" t="s">
+      <c r="I14" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="J14" s="100" t="s">
-        <v>727</v>
-      </c>
-      <c r="K14" s="100" t="s">
-        <v>705</v>
-      </c>
-      <c r="L14" s="100" t="s">
+      <c r="J14" s="99" t="s">
+        <v>726</v>
+      </c>
+      <c r="K14" s="99" t="s">
+        <v>704</v>
+      </c>
+      <c r="L14" s="99" t="s">
+        <v>843</v>
+      </c>
+      <c r="M14" s="99" t="s">
         <v>844</v>
       </c>
-      <c r="M14" s="100" t="s">
-        <v>845</v>
-      </c>
       <c r="N14" s="53" t="s">
+        <v>819</v>
+      </c>
+      <c r="O14" s="53" t="s">
         <v>820</v>
       </c>
-      <c r="O14" s="53" t="s">
-        <v>821</v>
-      </c>
       <c r="P14" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q14" s="46" t="s">
         <v>124</v>
       </c>
       <c r="R14" s="53" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="S14" s="53" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="T14" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="U14" s="46" t="s">
         <v>712</v>
       </c>
-      <c r="U14" s="46" t="s">
+      <c r="V14" s="46" t="s">
         <v>713</v>
       </c>
-      <c r="V14" s="46" t="s">
-        <v>714</v>
-      </c>
-      <c r="W14" s="100" t="s">
+      <c r="W14" s="99" t="s">
+        <v>832</v>
+      </c>
+      <c r="X14" s="99" t="s">
         <v>833</v>
       </c>
-      <c r="X14" s="100" t="s">
+      <c r="Y14" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="Y14" s="100" t="s">
+      <c r="Z14" s="99" t="s">
         <v>835</v>
       </c>
-      <c r="Z14" s="100" t="s">
+      <c r="AA14" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB14" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC14" s="99" t="s">
         <v>836</v>
-      </c>
-      <c r="AA14" s="46" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB14" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="AC14" s="100" t="s">
-        <v>837</v>
       </c>
       <c r="AD14" s="46"/>
       <c r="AE14" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF14" s="46"/>
       <c r="AG14" s="46"/>
       <c r="AH14" s="46"/>
       <c r="AI14" s="46" t="s">
-        <v>723</v>
-      </c>
-      <c r="AJ14" s="100" t="s">
+        <v>722</v>
+      </c>
+      <c r="AJ14" s="99" t="s">
+        <v>837</v>
+      </c>
+      <c r="AK14" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO14" s="99" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR14" s="99" t="s">
+        <v>440</v>
+      </c>
+      <c r="AS14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BB14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF14" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG14" s="99" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH14" s="99" t="s">
+        <v>434</v>
+      </c>
+      <c r="BI14" s="99" t="s">
+        <v>351</v>
+      </c>
+      <c r="BJ14" s="99" t="s">
         <v>838</v>
       </c>
-      <c r="AK14" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO14" s="100" t="s">
-        <v>311</v>
-      </c>
-      <c r="AP14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR14" s="100" t="s">
-        <v>440</v>
-      </c>
-      <c r="AS14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BA14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BB14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BC14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BD14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BF14" s="100" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG14" s="100" t="s">
-        <v>351</v>
-      </c>
-      <c r="BH14" s="100" t="s">
-        <v>434</v>
-      </c>
-      <c r="BI14" s="100" t="s">
-        <v>351</v>
-      </c>
-      <c r="BJ14" s="100" t="s">
+      <c r="BK14" s="99" t="s">
+        <v>435</v>
+      </c>
+      <c r="BL14" s="99" t="s">
         <v>839</v>
       </c>
-      <c r="BK14" s="100" t="s">
-        <v>435</v>
-      </c>
-      <c r="BL14" s="100" t="s">
+      <c r="BM14" s="99">
+        <v>54</v>
+      </c>
+      <c r="BN14" s="99" t="s">
         <v>840</v>
       </c>
-      <c r="BM14" s="100">
-        <v>54</v>
-      </c>
-      <c r="BN14" s="100" t="s">
+      <c r="BO14" s="99" t="s">
+        <v>338</v>
+      </c>
+      <c r="BP14" s="99" t="s">
         <v>841</v>
       </c>
-      <c r="BO14" s="100" t="s">
-        <v>338</v>
-      </c>
-      <c r="BP14" s="100" t="s">
+      <c r="BQ14" s="99">
+        <v>5</v>
+      </c>
+      <c r="BR14" s="99" t="s">
         <v>842</v>
-      </c>
-      <c r="BQ14" s="100">
-        <v>5</v>
-      </c>
-      <c r="BR14" s="100" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A15" s="100">
+      <c r="A15" s="99">
         <v>14</v>
       </c>
-      <c r="B15" s="100" t="s">
-        <v>776</v>
+      <c r="B15" s="99" t="s">
+        <v>775</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>187</v>
@@ -8042,157 +8066,157 @@
         <v>234</v>
       </c>
       <c r="E15" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="F15" s="99">
+        <v>1195</v>
+      </c>
+      <c r="G15" s="99" t="s">
+        <v>776</v>
+      </c>
+      <c r="H15" s="99" t="s">
+        <v>702</v>
+      </c>
+      <c r="I15" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="J15" s="99" t="s">
+        <v>703</v>
+      </c>
+      <c r="K15" s="99" t="s">
+        <v>704</v>
+      </c>
+      <c r="L15" s="99" t="s">
         <v>847</v>
       </c>
-      <c r="F15" s="100">
-        <v>1195</v>
-      </c>
-      <c r="G15" s="100" t="s">
-        <v>777</v>
-      </c>
-      <c r="H15" s="100" t="s">
-        <v>703</v>
-      </c>
-      <c r="I15" s="100" t="s">
-        <v>192</v>
-      </c>
-      <c r="J15" s="100" t="s">
-        <v>704</v>
-      </c>
-      <c r="K15" s="100" t="s">
-        <v>705</v>
-      </c>
-      <c r="L15" s="100" t="s">
+      <c r="M15" s="99" t="s">
         <v>848</v>
       </c>
-      <c r="M15" s="100" t="s">
+      <c r="N15" s="53" t="s">
         <v>849</v>
       </c>
-      <c r="N15" s="53" t="s">
+      <c r="O15" s="53" t="s">
         <v>850</v>
       </c>
-      <c r="O15" s="53" t="s">
-        <v>851</v>
-      </c>
       <c r="P15" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q15" s="46" t="s">
         <v>124</v>
       </c>
       <c r="R15" s="53" t="s">
+        <v>851</v>
+      </c>
+      <c r="S15" s="53" t="s">
+        <v>851</v>
+      </c>
+      <c r="T15" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="U15" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="V15" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="W15" s="99" t="s">
         <v>852</v>
       </c>
-      <c r="S15" s="53" t="s">
-        <v>852</v>
-      </c>
-      <c r="T15" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="U15" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="V15" s="46" t="s">
-        <v>714</v>
-      </c>
-      <c r="W15" s="100" t="s">
+      <c r="X15" s="99" t="s">
         <v>853</v>
       </c>
-      <c r="X15" s="100" t="s">
+      <c r="Y15" s="99" t="s">
         <v>854</v>
       </c>
-      <c r="Y15" s="100" t="s">
+      <c r="Z15" s="99" t="s">
         <v>855</v>
       </c>
-      <c r="Z15" s="100" t="s">
+      <c r="AA15" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB15" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC15" s="99" t="s">
         <v>856</v>
-      </c>
-      <c r="AA15" s="46" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB15" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="AC15" s="100" t="s">
-        <v>857</v>
       </c>
       <c r="AD15" s="46"/>
       <c r="AE15" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF15" s="46"/>
       <c r="AG15" s="46"/>
       <c r="AH15" s="46"/>
       <c r="AI15" s="46" t="s">
-        <v>723</v>
-      </c>
-      <c r="AJ15" s="100" t="s">
+        <v>722</v>
+      </c>
+      <c r="AJ15" s="99" t="s">
+        <v>787</v>
+      </c>
+      <c r="AK15" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL15" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO15" s="99" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR15" s="99" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU15" s="99" t="s">
+        <v>437</v>
+      </c>
+      <c r="AV15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY15" s="99" t="s">
+        <v>572</v>
+      </c>
+      <c r="AZ15" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA15" s="99" t="s">
+        <v>571</v>
+      </c>
+      <c r="BB15" s="99" t="s">
+        <v>571</v>
+      </c>
+      <c r="BC15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE15" s="99" t="s">
         <v>788</v>
       </c>
-      <c r="AK15" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL15" s="100" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM15" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN15" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO15" s="100" t="s">
-        <v>311</v>
-      </c>
-      <c r="AP15" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ15" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR15" s="100" t="s">
-        <v>429</v>
-      </c>
-      <c r="AS15" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT15" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU15" s="100" t="s">
-        <v>437</v>
-      </c>
-      <c r="AV15" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW15" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX15" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY15" s="100" t="s">
-        <v>573</v>
-      </c>
-      <c r="AZ15" s="100" t="s">
-        <v>197</v>
-      </c>
-      <c r="BA15" s="100" t="s">
-        <v>572</v>
-      </c>
-      <c r="BB15" s="100" t="s">
-        <v>572</v>
-      </c>
-      <c r="BC15" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BD15" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE15" s="100" t="s">
-        <v>789</v>
-      </c>
-      <c r="BF15" s="100" t="s">
+      <c r="BF15" s="99" t="s">
         <v>130</v>
       </c>
       <c r="BG15" s="45" t="s">
@@ -8233,11 +8257,11 @@
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A16" s="100">
+      <c r="A16" s="99">
         <v>15</v>
       </c>
-      <c r="B16" s="100" t="s">
-        <v>776</v>
+      <c r="B16" s="99" t="s">
+        <v>775</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>187</v>
@@ -8246,157 +8270,157 @@
         <v>234</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>847</v>
-      </c>
-      <c r="F16" s="100">
+        <v>846</v>
+      </c>
+      <c r="F16" s="99">
         <v>1195</v>
       </c>
-      <c r="G16" s="100" t="s">
-        <v>777</v>
-      </c>
-      <c r="H16" s="100" t="s">
+      <c r="G16" s="99" t="s">
+        <v>776</v>
+      </c>
+      <c r="H16" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="100" t="s">
+      <c r="I16" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="J16" s="100" t="s">
-        <v>727</v>
-      </c>
-      <c r="K16" s="100" t="s">
-        <v>705</v>
-      </c>
-      <c r="L16" s="100" t="s">
+      <c r="J16" s="99" t="s">
+        <v>726</v>
+      </c>
+      <c r="K16" s="99" t="s">
+        <v>704</v>
+      </c>
+      <c r="L16" s="99" t="s">
+        <v>857</v>
+      </c>
+      <c r="M16" s="99" t="s">
         <v>858</v>
       </c>
-      <c r="M16" s="100" t="s">
-        <v>859</v>
-      </c>
       <c r="N16" s="53" t="s">
+        <v>849</v>
+      </c>
+      <c r="O16" s="53" t="s">
         <v>850</v>
       </c>
-      <c r="O16" s="53" t="s">
-        <v>851</v>
-      </c>
       <c r="P16" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q16" s="46" t="s">
         <v>124</v>
       </c>
       <c r="R16" s="53" t="s">
+        <v>859</v>
+      </c>
+      <c r="S16" s="53" t="s">
+        <v>859</v>
+      </c>
+      <c r="T16" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="U16" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="V16" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="W16" s="99" t="s">
         <v>860</v>
       </c>
-      <c r="S16" s="53" t="s">
-        <v>860</v>
-      </c>
-      <c r="T16" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="U16" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="V16" s="46" t="s">
-        <v>714</v>
-      </c>
-      <c r="W16" s="100" t="s">
+      <c r="X16" s="99" t="s">
         <v>861</v>
       </c>
-      <c r="X16" s="100" t="s">
+      <c r="Y16" s="99" t="s">
         <v>862</v>
       </c>
-      <c r="Y16" s="100" t="s">
+      <c r="Z16" s="99" t="s">
         <v>863</v>
       </c>
-      <c r="Z16" s="100" t="s">
+      <c r="AA16" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB16" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC16" s="99" t="s">
         <v>864</v>
-      </c>
-      <c r="AA16" s="46" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB16" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="AC16" s="100" t="s">
-        <v>865</v>
       </c>
       <c r="AD16" s="46"/>
       <c r="AE16" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF16" s="46"/>
       <c r="AG16" s="46"/>
       <c r="AH16" s="46"/>
       <c r="AI16" s="46" t="s">
-        <v>723</v>
-      </c>
-      <c r="AJ16" s="100" t="s">
+        <v>722</v>
+      </c>
+      <c r="AJ16" s="99" t="s">
+        <v>787</v>
+      </c>
+      <c r="AK16" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL16" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO16" s="99" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR16" s="99" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU16" s="99" t="s">
+        <v>437</v>
+      </c>
+      <c r="AV16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY16" s="99" t="s">
+        <v>572</v>
+      </c>
+      <c r="AZ16" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA16" s="99" t="s">
+        <v>571</v>
+      </c>
+      <c r="BB16" s="99" t="s">
+        <v>571</v>
+      </c>
+      <c r="BC16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE16" s="99" t="s">
         <v>788</v>
       </c>
-      <c r="AK16" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL16" s="100" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM16" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN16" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO16" s="100" t="s">
-        <v>311</v>
-      </c>
-      <c r="AP16" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ16" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR16" s="100" t="s">
-        <v>429</v>
-      </c>
-      <c r="AS16" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT16" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU16" s="100" t="s">
-        <v>437</v>
-      </c>
-      <c r="AV16" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW16" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX16" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY16" s="100" t="s">
-        <v>573</v>
-      </c>
-      <c r="AZ16" s="100" t="s">
-        <v>197</v>
-      </c>
-      <c r="BA16" s="100" t="s">
-        <v>572</v>
-      </c>
-      <c r="BB16" s="100" t="s">
-        <v>572</v>
-      </c>
-      <c r="BC16" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BD16" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE16" s="100" t="s">
-        <v>789</v>
-      </c>
-      <c r="BF16" s="100" t="s">
+      <c r="BF16" s="99" t="s">
         <v>130</v>
       </c>
       <c r="BG16" s="45" t="s">
@@ -8437,11 +8461,11 @@
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A17" s="100">
+      <c r="A17" s="99">
         <v>16</v>
       </c>
-      <c r="B17" s="100" t="s">
-        <v>798</v>
+      <c r="B17" s="99" t="s">
+        <v>797</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>187</v>
@@ -8450,97 +8474,97 @@
         <v>234</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>847</v>
-      </c>
-      <c r="F17" s="100">
+        <v>846</v>
+      </c>
+      <c r="F17" s="99">
         <v>1195</v>
       </c>
-      <c r="G17" s="100" t="s">
-        <v>799</v>
-      </c>
-      <c r="H17" s="100" t="s">
+      <c r="G17" s="99" t="s">
+        <v>798</v>
+      </c>
+      <c r="H17" s="99" t="s">
+        <v>702</v>
+      </c>
+      <c r="I17" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="J17" s="99" t="s">
         <v>703</v>
       </c>
-      <c r="I17" s="100" t="s">
-        <v>192</v>
-      </c>
-      <c r="J17" s="100" t="s">
+      <c r="K17" s="99" t="s">
         <v>704</v>
       </c>
-      <c r="K17" s="100" t="s">
-        <v>705</v>
-      </c>
-      <c r="L17" s="100" t="s">
+      <c r="L17" s="99" t="s">
+        <v>865</v>
+      </c>
+      <c r="M17" s="99" t="s">
         <v>866</v>
       </c>
-      <c r="M17" s="100" t="s">
-        <v>867</v>
-      </c>
       <c r="N17" s="53" t="s">
+        <v>849</v>
+      </c>
+      <c r="O17" s="53" t="s">
         <v>850</v>
       </c>
-      <c r="O17" s="53" t="s">
-        <v>851</v>
-      </c>
       <c r="P17" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q17" s="46" t="s">
         <v>124</v>
       </c>
       <c r="R17" s="53" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="S17" s="53" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="T17" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="U17" s="46" t="s">
         <v>712</v>
       </c>
-      <c r="U17" s="46" t="s">
+      <c r="V17" s="46" t="s">
         <v>713</v>
       </c>
-      <c r="V17" s="46" t="s">
-        <v>714</v>
-      </c>
-      <c r="W17" s="100" t="s">
-        <v>880</v>
-      </c>
-      <c r="X17" s="100" t="s">
-        <v>878</v>
-      </c>
-      <c r="Y17" s="100" t="s">
-        <v>876</v>
-      </c>
-      <c r="Z17" s="100" t="s">
-        <v>874</v>
+      <c r="W17" s="99" t="s">
+        <v>879</v>
+      </c>
+      <c r="X17" s="99" t="s">
+        <v>877</v>
+      </c>
+      <c r="Y17" s="99" t="s">
+        <v>875</v>
+      </c>
+      <c r="Z17" s="99" t="s">
+        <v>873</v>
       </c>
       <c r="AA17" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB17" s="46" t="s">
         <v>719</v>
       </c>
-      <c r="AB17" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="AC17" s="100" t="s">
-        <v>872</v>
+      <c r="AC17" s="99" t="s">
+        <v>871</v>
       </c>
       <c r="AD17" s="46"/>
       <c r="AE17" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF17" s="46"/>
       <c r="AG17" s="46"/>
       <c r="AH17" s="46"/>
       <c r="AI17" s="46" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AJ17" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="AK17" s="100" t="s">
+        <v>807</v>
+      </c>
+      <c r="AK17" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="AL17" s="100" t="s">
+      <c r="AL17" s="99" t="s">
         <v>197</v>
       </c>
       <c r="AM17" s="45" t="s">
@@ -8567,7 +8591,7 @@
       <c r="AT17" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AU17" s="100" t="s">
+      <c r="AU17" s="99" t="s">
         <v>437</v>
       </c>
       <c r="AV17" s="45" t="s">
@@ -8579,17 +8603,17 @@
       <c r="AX17" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AY17" s="100" t="s">
-        <v>573</v>
-      </c>
-      <c r="AZ17" s="100" t="s">
+      <c r="AY17" s="99" t="s">
+        <v>572</v>
+      </c>
+      <c r="AZ17" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="BA17" s="100" t="s">
-        <v>572</v>
-      </c>
-      <c r="BB17" s="100" t="s">
-        <v>572</v>
+      <c r="BA17" s="99" t="s">
+        <v>571</v>
+      </c>
+      <c r="BB17" s="99" t="s">
+        <v>571</v>
       </c>
       <c r="BC17" s="45" t="s">
         <v>122</v>
@@ -8597,10 +8621,10 @@
       <c r="BD17" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="BE17" s="100" t="s">
-        <v>789</v>
-      </c>
-      <c r="BF17" s="100" t="s">
+      <c r="BE17" s="99" t="s">
+        <v>788</v>
+      </c>
+      <c r="BF17" s="99" t="s">
         <v>130</v>
       </c>
       <c r="BG17" s="45" t="s">
@@ -8641,11 +8665,11 @@
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A18" s="100">
+      <c r="A18" s="99">
         <v>17</v>
       </c>
-      <c r="B18" s="100" t="s">
-        <v>798</v>
+      <c r="B18" s="99" t="s">
+        <v>797</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>187</v>
@@ -8654,97 +8678,97 @@
         <v>234</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>847</v>
-      </c>
-      <c r="F18" s="100">
+        <v>846</v>
+      </c>
+      <c r="F18" s="99">
         <v>1195</v>
       </c>
-      <c r="G18" s="100" t="s">
-        <v>799</v>
-      </c>
-      <c r="H18" s="100" t="s">
+      <c r="G18" s="99" t="s">
+        <v>798</v>
+      </c>
+      <c r="H18" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="100" t="s">
+      <c r="I18" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="J18" s="100" t="s">
-        <v>727</v>
-      </c>
-      <c r="K18" s="100" t="s">
-        <v>705</v>
-      </c>
-      <c r="L18" s="100" t="s">
+      <c r="J18" s="99" t="s">
+        <v>726</v>
+      </c>
+      <c r="K18" s="99" t="s">
+        <v>704</v>
+      </c>
+      <c r="L18" s="99" t="s">
+        <v>868</v>
+      </c>
+      <c r="M18" s="99" t="s">
         <v>869</v>
       </c>
-      <c r="M18" s="100" t="s">
-        <v>870</v>
-      </c>
       <c r="N18" s="53" t="s">
+        <v>849</v>
+      </c>
+      <c r="O18" s="53" t="s">
         <v>850</v>
       </c>
-      <c r="O18" s="53" t="s">
-        <v>851</v>
-      </c>
       <c r="P18" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q18" s="46" t="s">
         <v>124</v>
       </c>
       <c r="R18" s="53" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="S18" s="53" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="T18" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="U18" s="46" t="s">
         <v>712</v>
       </c>
-      <c r="U18" s="46" t="s">
+      <c r="V18" s="46" t="s">
         <v>713</v>
       </c>
-      <c r="V18" s="46" t="s">
-        <v>714</v>
-      </c>
-      <c r="W18" s="100" t="s">
-        <v>881</v>
-      </c>
-      <c r="X18" s="100" t="s">
-        <v>879</v>
-      </c>
-      <c r="Y18" s="100" t="s">
-        <v>877</v>
-      </c>
-      <c r="Z18" s="100" t="s">
-        <v>875</v>
+      <c r="W18" s="99" t="s">
+        <v>880</v>
+      </c>
+      <c r="X18" s="99" t="s">
+        <v>878</v>
+      </c>
+      <c r="Y18" s="99" t="s">
+        <v>876</v>
+      </c>
+      <c r="Z18" s="99" t="s">
+        <v>874</v>
       </c>
       <c r="AA18" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB18" s="46" t="s">
         <v>719</v>
       </c>
-      <c r="AB18" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="AC18" s="100" t="s">
-        <v>873</v>
+      <c r="AC18" s="99" t="s">
+        <v>872</v>
       </c>
       <c r="AD18" s="46"/>
       <c r="AE18" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF18" s="46"/>
       <c r="AG18" s="46"/>
       <c r="AH18" s="46"/>
       <c r="AI18" s="46" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AJ18" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="AK18" s="100" t="s">
+        <v>807</v>
+      </c>
+      <c r="AK18" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="AL18" s="100" t="s">
+      <c r="AL18" s="99" t="s">
         <v>197</v>
       </c>
       <c r="AM18" s="45" t="s">
@@ -8771,7 +8795,7 @@
       <c r="AT18" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AU18" s="100" t="s">
+      <c r="AU18" s="99" t="s">
         <v>437</v>
       </c>
       <c r="AV18" s="45" t="s">
@@ -8783,17 +8807,17 @@
       <c r="AX18" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AY18" s="100" t="s">
-        <v>573</v>
-      </c>
-      <c r="AZ18" s="100" t="s">
+      <c r="AY18" s="99" t="s">
+        <v>572</v>
+      </c>
+      <c r="AZ18" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="BA18" s="100" t="s">
-        <v>572</v>
-      </c>
-      <c r="BB18" s="100" t="s">
-        <v>572</v>
+      <c r="BA18" s="99" t="s">
+        <v>571</v>
+      </c>
+      <c r="BB18" s="99" t="s">
+        <v>571</v>
       </c>
       <c r="BC18" s="45" t="s">
         <v>122</v>
@@ -8801,10 +8825,10 @@
       <c r="BD18" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="BE18" s="100" t="s">
-        <v>789</v>
-      </c>
-      <c r="BF18" s="100" t="s">
+      <c r="BE18" s="99" t="s">
+        <v>788</v>
+      </c>
+      <c r="BF18" s="99" t="s">
         <v>130</v>
       </c>
       <c r="BG18" s="45" t="s">
@@ -8878,8 +8902,8 @@
     <col min="10" max="10" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" style="83" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="82" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.7109375" style="20" bestFit="1" customWidth="1"/>
@@ -8895,114 +8919,114 @@
     <col min="27" max="27" width="26.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="36" style="20" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="34.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.28515625" style="83" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.28515625" style="82" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="35.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="29.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11" style="83" bestFit="1" customWidth="1"/>
-    <col min="36" max="52" width="6.42578125" style="83" customWidth="1"/>
-    <col min="53" max="16384" width="6.42578125" style="83"/>
+    <col min="33" max="33" width="25.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11" style="82" bestFit="1" customWidth="1"/>
+    <col min="36" max="52" width="6.42578125" style="82" customWidth="1"/>
+    <col min="53" max="16384" width="6.42578125" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="104" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:35" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="102" t="s">
+      <c r="L1" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="102" t="s">
+      <c r="M1" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="N1" s="102" t="s">
+      <c r="N1" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="O1" s="102" t="s">
+      <c r="O1" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="P1" s="102" t="s">
+      <c r="P1" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="102" t="s">
+      <c r="R1" s="101" t="s">
         <v>166</v>
       </c>
-      <c r="S1" s="102" t="s">
+      <c r="S1" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="T1" s="102" t="s">
+      <c r="T1" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="U1" s="102" t="s">
+      <c r="U1" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="V1" s="102" t="s">
+      <c r="V1" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="W1" s="102" t="s">
+      <c r="W1" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="X1" s="102" t="s">
+      <c r="X1" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="Y1" s="102" t="s">
+      <c r="Y1" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="Z1" s="102" t="s">
+      <c r="Z1" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="AA1" s="102" t="s">
+      <c r="AA1" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="AB1" s="102" t="s">
+      <c r="AB1" s="101" t="s">
         <v>176</v>
       </c>
-      <c r="AC1" s="102" t="s">
+      <c r="AC1" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="AD1" s="102" t="s">
+      <c r="AD1" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="AE1" s="102" t="s">
+      <c r="AE1" s="101" t="s">
         <v>179</v>
       </c>
-      <c r="AF1" s="102" t="s">
+      <c r="AF1" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="AG1" s="102" t="s">
+      <c r="AG1" s="101" t="s">
         <v>181</v>
       </c>
       <c r="AH1" s="7" t="s">
@@ -9012,110 +9036,110 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="110" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="105" t="s">
+    <row r="2" spans="1:35" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="I2" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="106" t="s">
+      <c r="I2" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="K2" s="106" t="s">
+      <c r="K2" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="L2" s="107" t="s">
+      <c r="L2" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="M2" s="106" t="s">
+      <c r="M2" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="N2" s="106" t="s">
+      <c r="N2" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="106" t="s">
+      <c r="O2" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="106" t="s">
+      <c r="P2" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="Q2" s="107" t="s">
+      <c r="Q2" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="R2" s="108" t="s">
+      <c r="R2" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="S2" s="108" t="s">
+      <c r="S2" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="T2" s="106" t="s">
+      <c r="T2" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="U2" s="106" t="s">
+      <c r="U2" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="V2" s="106" t="s">
+      <c r="V2" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="W2" s="106" t="s">
+      <c r="W2" s="105" t="s">
         <v>197</v>
       </c>
-      <c r="X2" s="106" t="s">
+      <c r="X2" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="Y2" s="106" t="s">
+      <c r="Y2" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="Z2" s="105" t="s">
+      <c r="Z2" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="AA2" s="105" t="s">
+      <c r="AA2" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="AB2" s="105" t="s">
+      <c r="AB2" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="AC2" s="105" t="s">
+      <c r="AC2" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="AD2" s="105" t="s">
+      <c r="AD2" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="AE2" s="105" t="s">
+      <c r="AE2" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="AF2" s="105" t="s">
+      <c r="AF2" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="AG2" s="105" t="s">
+      <c r="AG2" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="AH2" s="109" t="s">
+      <c r="AH2" s="108" t="s">
         <v>205</v>
       </c>
-      <c r="AI2" s="109" t="s">
+      <c r="AI2" s="108" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9154,8 +9178,8 @@
     <col min="10" max="10" width="23.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.42578125" style="83" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" style="82" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.7109375" style="20" bestFit="1" customWidth="1"/>
@@ -9171,11 +9195,11 @@
     <col min="27" max="27" width="36.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="20.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="24.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6" style="83" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6" style="82" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="16" style="20" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="52" width="6.42578125" style="83" customWidth="1"/>
-    <col min="53" max="16384" width="6.42578125" style="83"/>
+    <col min="33" max="52" width="6.42578125" style="82" customWidth="1"/>
+    <col min="53" max="16384" width="6.42578125" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9407,47 +9431,47 @@
     <col min="8" max="8" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.85546875" style="83" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" style="82" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="20" max="25" width="9.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="26" max="29" width="10.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.28515625" style="83" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" style="82" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="16" style="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="22.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="16.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="8.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18" style="83" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="6.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="23" style="83" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="21.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14" style="83" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="42.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="25.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="30.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="24.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="28.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="15.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="68" max="75" width="6.7109375" style="83" customWidth="1"/>
-    <col min="76" max="16384" width="6.7109375" style="83"/>
+    <col min="33" max="35" width="22.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="16.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="8.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18" style="82" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14" style="82" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="23" style="82" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="21.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14" style="82" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="42.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="30.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="28.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="68" max="75" width="6.7109375" style="82" customWidth="1"/>
+    <col min="76" max="16384" width="6.7109375" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.2">
@@ -9669,7 +9693,7 @@
       <c r="E2" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="99" t="s">
         <v>309</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -9877,15 +9901,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" style="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="80" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" style="80" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="81" customWidth="1"/>
+    <col min="9" max="9" width="21" style="80" customWidth="1"/>
     <col min="10" max="10" width="21" style="34" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.5703125" style="34" customWidth="1"/>
     <col min="12" max="13" width="19.42578125" style="34" customWidth="1"/>
@@ -9897,20 +9921,20 @@
     <col min="20" max="20" width="18.85546875" style="34" customWidth="1"/>
     <col min="21" max="21" width="26.28515625" style="34" customWidth="1"/>
     <col min="22" max="22" width="34.85546875" style="34" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" style="81" customWidth="1"/>
-    <col min="24" max="24" width="26.28515625" style="81" customWidth="1"/>
-    <col min="25" max="25" width="34.85546875" style="81" customWidth="1"/>
-    <col min="26" max="26" width="26.5703125" style="81" customWidth="1"/>
-    <col min="27" max="27" width="27.28515625" style="81" customWidth="1"/>
-    <col min="28" max="28" width="20" style="81" customWidth="1"/>
-    <col min="29" max="29" width="36.140625" style="81" customWidth="1"/>
-    <col min="30" max="30" width="18.140625" style="81" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" style="80" customWidth="1"/>
+    <col min="24" max="24" width="26.28515625" style="80" customWidth="1"/>
+    <col min="25" max="25" width="34.85546875" style="80" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" style="80" customWidth="1"/>
+    <col min="27" max="27" width="27.28515625" style="80" customWidth="1"/>
+    <col min="28" max="28" width="20" style="80" customWidth="1"/>
+    <col min="29" max="29" width="36.140625" style="80" customWidth="1"/>
+    <col min="30" max="30" width="18.140625" style="80" customWidth="1"/>
     <col min="31" max="31" width="12.7109375" style="35" customWidth="1"/>
     <col min="32" max="32" width="11.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23" style="81" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="36" max="113" width="9.140625" style="83" customWidth="1"/>
-    <col min="114" max="16384" width="9.140625" style="83"/>
+    <col min="33" max="33" width="23" style="80" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="36" max="113" width="9.140625" style="82" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10017,7 +10041,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="80" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>89</v>
       </c>
@@ -10145,15 +10169,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="80" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="80" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="80" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.28515625" style="34" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.42578125" style="34" bestFit="1" customWidth="1"/>
@@ -10167,20 +10191,20 @@
     <col min="20" max="20" width="14.7109375" style="34" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26" style="81" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26" style="80" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.85546875" style="80" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="31.28515625" style="35" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="18.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="29.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="36" max="113" width="9.140625" style="83" customWidth="1"/>
-    <col min="114" max="16384" width="9.140625" style="83"/>
+    <col min="33" max="33" width="29.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="36" max="113" width="9.140625" style="82" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10283,8 +10307,8 @@
       <c r="AG1" s="50" t="s">
         <v>417</v>
       </c>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53">
@@ -10293,16 +10317,16 @@
       <c r="B2" s="51" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="99" t="s">
         <v>419</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="99" t="s">
         <v>130</v>
       </c>
       <c r="G2" s="53" t="s">
@@ -10314,13 +10338,13 @@
       <c r="I2" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="100" t="s">
+      <c r="J2" s="99" t="s">
         <v>422</v>
       </c>
-      <c r="K2" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" s="100" t="s">
+      <c r="K2" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="99" t="s">
         <v>423</v>
       </c>
       <c r="M2" s="53" t="s">
@@ -10346,7 +10370,7 @@
       </c>
       <c r="T2" s="52"/>
       <c r="U2" s="52"/>
-      <c r="V2" s="100" t="s">
+      <c r="V2" s="99" t="s">
         <v>425</v>
       </c>
       <c r="W2" s="53" t="s">
@@ -10370,18 +10394,18 @@
       <c r="AC2" s="53" t="s">
         <v>429</v>
       </c>
-      <c r="AD2" s="100" t="s">
+      <c r="AD2" s="99" t="s">
         <v>430</v>
       </c>
-      <c r="AE2" s="100" t="s">
+      <c r="AE2" s="99" t="s">
         <v>431</v>
       </c>
-      <c r="AF2" s="100" t="s">
+      <c r="AF2" s="99" t="s">
         <v>122</v>
       </c>
       <c r="AG2" s="52"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53">
@@ -10390,16 +10414,16 @@
       <c r="B3" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="99" t="s">
         <v>433</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="99" t="s">
         <v>130</v>
       </c>
       <c r="G3" s="53" t="s">
@@ -10411,13 +10435,13 @@
       <c r="I3" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="J3" s="100" t="s">
+      <c r="J3" s="99" t="s">
         <v>436</v>
       </c>
-      <c r="K3" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" s="100" t="s">
+      <c r="K3" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="99" t="s">
         <v>423</v>
       </c>
       <c r="M3" s="53" t="s">
@@ -10443,7 +10467,7 @@
       </c>
       <c r="T3" s="52"/>
       <c r="U3" s="52"/>
-      <c r="V3" s="100" t="s">
+      <c r="V3" s="99" t="s">
         <v>425</v>
       </c>
       <c r="W3" s="53" t="s">
@@ -10467,18 +10491,18 @@
       <c r="AC3" s="53" t="s">
         <v>440</v>
       </c>
-      <c r="AD3" s="100" t="s">
+      <c r="AD3" s="99" t="s">
         <v>430</v>
       </c>
-      <c r="AE3" s="100" t="s">
+      <c r="AE3" s="99" t="s">
         <v>436</v>
       </c>
-      <c r="AF3" s="100" t="s">
+      <c r="AF3" s="99" t="s">
         <v>122</v>
       </c>
       <c r="AG3" s="52"/>
-      <c r="AH3" s="83"/>
-      <c r="AI3" s="83"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="53">
@@ -10487,16 +10511,16 @@
       <c r="B4" s="51" t="s">
         <v>441</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="99" t="s">
         <v>442</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="99" t="s">
         <v>130</v>
       </c>
       <c r="G4" s="53" t="s">
@@ -10508,13 +10532,13 @@
       <c r="I4" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="100" t="s">
+      <c r="J4" s="99" t="s">
         <v>422</v>
       </c>
-      <c r="K4" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="L4" s="100" t="s">
+      <c r="K4" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="99" t="s">
         <v>423</v>
       </c>
       <c r="M4" s="53" t="s">
@@ -10540,7 +10564,7 @@
       </c>
       <c r="T4" s="52"/>
       <c r="U4" s="52"/>
-      <c r="V4" s="100" t="s">
+      <c r="V4" s="99" t="s">
         <v>425</v>
       </c>
       <c r="W4" s="53" t="s">
@@ -10564,18 +10588,18 @@
       <c r="AC4" s="53" t="s">
         <v>447</v>
       </c>
-      <c r="AD4" s="100" t="s">
+      <c r="AD4" s="99" t="s">
         <v>430</v>
       </c>
-      <c r="AE4" s="100" t="s">
+      <c r="AE4" s="99" t="s">
         <v>431</v>
       </c>
-      <c r="AF4" s="100" t="s">
+      <c r="AF4" s="99" t="s">
         <v>122</v>
       </c>
       <c r="AG4" s="52"/>
-      <c r="AH4" s="83"/>
-      <c r="AI4" s="83"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -10589,53 +10613,56 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="80" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="80" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="80" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="34" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.42578125" style="34" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="28.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26" style="81" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="31.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="29.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="36" max="113" width="9.140625" style="83" customWidth="1"/>
-    <col min="114" max="16384" width="9.140625" style="83"/>
+    <col min="13" max="13" width="108.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.7109375" style="34" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26" style="80" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="38" max="115" width="9.140625" style="82" customWidth="1"/>
+    <col min="116" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -10672,33 +10699,42 @@
       <c r="L1" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="57" t="s">
+        <v>885</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>304</v>
       </c>
+      <c r="T1" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>889</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="99" t="s">
         <v>455</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="99" t="s">
         <v>203</v>
       </c>
       <c r="D2" s="59">
@@ -10708,45 +10744,118 @@
         <v>338</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>456</v>
+        <v>886</v>
       </c>
       <c r="G2" s="59" t="s">
         <v>339</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>457</v>
-      </c>
-      <c r="I2" s="62" t="s">
-        <v>457</v>
+        <v>456</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>456</v>
       </c>
       <c r="J2" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="61" t="s">
+        <v>456</v>
+      </c>
+      <c r="L2" s="59" t="s">
         <v>457</v>
       </c>
-      <c r="L2" s="59" t="s">
-        <v>458</v>
-      </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="O2" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="P2" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="Q2" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="R2" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="S2" s="60"/>
+      <c r="T2" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="U2" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>881</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="59">
+        <v>2</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>886</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>883</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>437</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>456</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>882</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>884</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="R3" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="T3" s="41" t="s">
+        <v>888</v>
+      </c>
+      <c r="U3" s="41" t="s">
+        <v>890</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -10769,15 +10878,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="80" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="80" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.42578125" style="80" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.28515625" style="34" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="18.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="19.85546875" style="34" bestFit="1" customWidth="1"/>
@@ -10785,180 +10894,180 @@
     <col min="20" max="20" width="10.42578125" style="34" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="20.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18" style="81" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="60.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="59.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="60.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="20.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" style="80" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="60.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="59.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="60.5703125" style="80" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="59.5703125" style="35" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="40" style="35" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="40" style="81" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="40" style="80" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="20.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="113" width="9.140625" style="83" customWidth="1"/>
-    <col min="114" max="16384" width="9.140625" style="83"/>
+    <col min="36" max="36" width="12.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="23.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="20.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="33.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="49" max="113" width="9.140625" style="82" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:48" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1" s="62" t="s">
         <v>459</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="G1" s="62" t="s">
         <v>460</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="H1" s="62" t="s">
         <v>461</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="I1" s="62" t="s">
         <v>462</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="J1" s="62" t="s">
         <v>463</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="K1" s="62" t="s">
         <v>464</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="L1" s="62" t="s">
         <v>465</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="M1" s="62" t="s">
         <v>466</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="N1" s="62" t="s">
         <v>467</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="O1" s="62" t="s">
         <v>468</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="P1" s="62" t="s">
         <v>469</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="Q1" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="R1" s="62" t="s">
         <v>471</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="S1" s="62" t="s">
         <v>472</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="T1" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="U1" s="62" t="s">
         <v>474</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="V1" s="62" t="s">
         <v>475</v>
       </c>
-      <c r="V1" s="63" t="s">
+      <c r="W1" s="62" t="s">
         <v>476</v>
       </c>
-      <c r="W1" s="63" t="s">
+      <c r="X1" s="62" t="s">
         <v>477</v>
       </c>
-      <c r="X1" s="63" t="s">
+      <c r="Y1" s="62" t="s">
         <v>478</v>
       </c>
-      <c r="Y1" s="63" t="s">
+      <c r="Z1" s="62" t="s">
         <v>479</v>
       </c>
-      <c r="Z1" s="63" t="s">
+      <c r="AA1" s="62" t="s">
         <v>480</v>
       </c>
-      <c r="AA1" s="63" t="s">
+      <c r="AB1" s="62" t="s">
         <v>481</v>
       </c>
-      <c r="AB1" s="63" t="s">
+      <c r="AC1" s="62" t="s">
         <v>482</v>
       </c>
-      <c r="AC1" s="63" t="s">
+      <c r="AD1" s="62" t="s">
         <v>483</v>
       </c>
-      <c r="AD1" s="63" t="s">
+      <c r="AE1" s="62" t="s">
         <v>484</v>
       </c>
-      <c r="AE1" s="63" t="s">
+      <c r="AF1" s="62" t="s">
         <v>485</v>
       </c>
-      <c r="AF1" s="63" t="s">
+      <c r="AG1" s="62" t="s">
         <v>486</v>
       </c>
-      <c r="AG1" s="63" t="s">
+      <c r="AH1" s="62" t="s">
         <v>487</v>
       </c>
-      <c r="AH1" s="63" t="s">
+      <c r="AI1" s="64" t="s">
         <v>488</v>
       </c>
-      <c r="AI1" s="65" t="s">
+      <c r="AJ1" s="64" t="s">
         <v>489</v>
       </c>
-      <c r="AJ1" s="65" t="s">
+      <c r="AK1" s="64" t="s">
         <v>490</v>
       </c>
-      <c r="AK1" s="65" t="s">
+      <c r="AL1" s="64" t="s">
         <v>491</v>
       </c>
-      <c r="AL1" s="65" t="s">
+      <c r="AM1" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="AM1" s="65" t="s">
+      <c r="AN1" s="64" t="s">
         <v>493</v>
       </c>
-      <c r="AN1" s="65" t="s">
+      <c r="AO1" s="64" t="s">
         <v>494</v>
       </c>
-      <c r="AO1" s="65" t="s">
+      <c r="AP1" s="64" t="s">
         <v>495</v>
       </c>
-      <c r="AP1" s="65" t="s">
+      <c r="AQ1" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="AQ1" s="65" t="s">
+      <c r="AR1" s="64" t="s">
         <v>497</v>
       </c>
-      <c r="AR1" s="65" t="s">
+      <c r="AS1" s="64" t="s">
         <v>498</v>
       </c>
-      <c r="AS1" s="65" t="s">
+      <c r="AT1" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="AT1" s="65" t="s">
+      <c r="AU1" s="64" t="s">
         <v>500</v>
       </c>
-      <c r="AU1" s="65" t="s">
+      <c r="AV1" s="64" t="s">
         <v>501</v>
       </c>
-      <c r="AV1" s="65" t="s">
+    </row>
+    <row r="2" spans="1:48" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>502</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>503</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>187</v>
@@ -10966,135 +11075,135 @@
       <c r="D2" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="68" t="s">
         <v>425</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="73" t="s">
+      <c r="F2" s="68"/>
+      <c r="G2" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="71" t="s">
         <v>351</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="71" t="s">
+        <v>503</v>
+      </c>
+      <c r="J2" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="K2" s="73" t="s">
         <v>504</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="L2" s="73" t="s">
+        <v>505</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>506</v>
+      </c>
+      <c r="N2" s="76" t="s">
+        <v>507</v>
+      </c>
+      <c r="O2" s="76" t="s">
+        <v>508</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q2" s="73" t="s">
+        <v>510</v>
+      </c>
+      <c r="R2" s="73" t="s">
+        <v>511</v>
+      </c>
+      <c r="S2" s="73" t="s">
+        <v>512</v>
+      </c>
+      <c r="T2" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="U2" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="K2" s="74" t="s">
-        <v>505</v>
-      </c>
-      <c r="L2" s="74" t="s">
-        <v>506</v>
-      </c>
-      <c r="M2" s="74" t="s">
-        <v>507</v>
-      </c>
-      <c r="N2" s="77" t="s">
-        <v>508</v>
-      </c>
-      <c r="O2" s="77" t="s">
-        <v>509</v>
-      </c>
-      <c r="P2" s="77" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q2" s="74" t="s">
-        <v>511</v>
-      </c>
-      <c r="R2" s="74" t="s">
+      <c r="V2" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="W2" s="68" t="s">
+        <v>326</v>
+      </c>
+      <c r="X2" s="68" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y2" s="68" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z2" s="73" t="s">
+        <v>515</v>
+      </c>
+      <c r="AA2" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="AB2" s="73" t="s">
+        <v>517</v>
+      </c>
+      <c r="AC2" s="68" t="s">
+        <v>515</v>
+      </c>
+      <c r="AD2" s="68" t="s">
+        <v>516</v>
+      </c>
+      <c r="AE2" s="68" t="s">
+        <v>517</v>
+      </c>
+      <c r="AF2" s="74">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="AG2" s="74">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="AH2" s="75" t="s">
         <v>512</v>
       </c>
-      <c r="S2" s="74" t="s">
-        <v>513</v>
-      </c>
-      <c r="T2" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="U2" s="69" t="s">
-        <v>310</v>
-      </c>
-      <c r="V2" s="69" t="s">
-        <v>203</v>
-      </c>
-      <c r="W2" s="69" t="s">
-        <v>326</v>
-      </c>
-      <c r="X2" s="69" t="s">
-        <v>514</v>
-      </c>
-      <c r="Y2" s="69" t="s">
-        <v>515</v>
-      </c>
-      <c r="Z2" s="74" t="s">
-        <v>516</v>
-      </c>
-      <c r="AA2" s="74" t="s">
-        <v>517</v>
-      </c>
-      <c r="AB2" s="74" t="s">
+      <c r="AI2" s="69" t="s">
         <v>518</v>
       </c>
-      <c r="AC2" s="69" t="s">
-        <v>516</v>
-      </c>
-      <c r="AD2" s="69" t="s">
-        <v>517</v>
-      </c>
-      <c r="AE2" s="69" t="s">
-        <v>518</v>
-      </c>
-      <c r="AF2" s="75">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="AG2" s="75">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="AH2" s="76" t="s">
-        <v>513</v>
-      </c>
-      <c r="AI2" s="70" t="s">
+      <c r="AJ2" s="69" t="s">
         <v>519</v>
       </c>
-      <c r="AJ2" s="70" t="s">
+      <c r="AK2" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL2" s="77" t="s">
         <v>520</v>
       </c>
-      <c r="AK2" s="70" t="s">
+      <c r="AM2" s="77" t="s">
+        <v>521</v>
+      </c>
+      <c r="AN2" s="71" t="s">
+        <v>522</v>
+      </c>
+      <c r="AO2" s="71" t="s">
+        <v>523</v>
+      </c>
+      <c r="AP2" s="71" t="s">
+        <v>524</v>
+      </c>
+      <c r="AQ2" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR2" s="71" t="s">
+        <v>526</v>
+      </c>
+      <c r="AS2" s="71" t="s">
+        <v>527</v>
+      </c>
+      <c r="AT2" s="67" t="s">
         <v>336</v>
       </c>
-      <c r="AL2" s="78" t="s">
-        <v>521</v>
-      </c>
-      <c r="AM2" s="78" t="s">
-        <v>522</v>
-      </c>
-      <c r="AN2" s="72" t="s">
-        <v>523</v>
-      </c>
-      <c r="AO2" s="72" t="s">
-        <v>524</v>
-      </c>
-      <c r="AP2" s="72" t="s">
-        <v>525</v>
-      </c>
-      <c r="AQ2" s="72" t="s">
-        <v>526</v>
-      </c>
-      <c r="AR2" s="72" t="s">
-        <v>527</v>
-      </c>
-      <c r="AS2" s="72" t="s">
+      <c r="AU2" s="68" t="s">
         <v>528</v>
       </c>
-      <c r="AT2" s="68" t="s">
-        <v>336</v>
-      </c>
-      <c r="AU2" s="69" t="s">
+      <c r="AV2" s="68" t="s">
         <v>529</v>
-      </c>
-      <c r="AV2" s="69" t="s">
-        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -11118,15 +11227,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="80" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="80" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="80" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="14.5703125" style="34" customWidth="1"/>
     <col min="13" max="14" width="16.7109375" style="34" bestFit="1" customWidth="1"/>
@@ -11141,148 +11250,148 @@
     <col min="24" max="24" width="23.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="24.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="22.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="21.85546875" style="81" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" style="81" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="21.85546875" style="80" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" style="80" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="59.5703125" style="35" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="40" style="35" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="40" style="81" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="40" style="80" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="46" max="48" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="49" max="51" width="20.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="23.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="33.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="55" max="119" width="9.140625" style="83" customWidth="1"/>
-    <col min="120" max="16384" width="9.140625" style="83"/>
+    <col min="42" max="42" width="12.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="23.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="49" max="51" width="20.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="23.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="33.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="55" max="119" width="9.140625" style="82" customWidth="1"/>
+    <col min="120" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="79" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="78" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="83" t="s">
         <v>153</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="E1" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="84" t="s">
-        <v>393</v>
-      </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>533</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>534</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>395</v>
       </c>
       <c r="K1" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="O1" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="P1" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="Q1" s="30" t="s">
         <v>540</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="R1" s="30" t="s">
         <v>541</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="S1" s="83" t="s">
         <v>542</v>
-      </c>
-      <c r="S1" s="84" t="s">
-        <v>543</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>224</v>
       </c>
       <c r="U1" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="AC1" s="7" t="s">
-        <v>552</v>
-      </c>
       <c r="AD1" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AE1" s="7" t="s">
         <v>406</v>
       </c>
       <c r="AF1" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="AG1" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="AJ1" s="7" t="s">
-        <v>557</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>187</v>
@@ -11293,32 +11402,32 @@
       <c r="E2" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="99" t="s">
         <v>419</v>
       </c>
       <c r="G2" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="I2" s="33" t="s">
         <v>560</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="J2" s="79" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" s="84" t="s">
         <v>561</v>
       </c>
-      <c r="J2" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="K2" s="85" t="s">
-        <v>562</v>
-      </c>
-      <c r="L2" s="85" t="s">
-        <v>562</v>
-      </c>
-      <c r="M2" s="85" t="s">
-        <v>562</v>
-      </c>
-      <c r="N2" s="85" t="s">
-        <v>562</v>
+      <c r="L2" s="84" t="s">
+        <v>561</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>561</v>
+      </c>
+      <c r="N2" s="84" t="s">
+        <v>561</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>422</v>
@@ -11326,14 +11435,14 @@
       <c r="P2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="85" t="s">
+      <c r="Q2" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="R2" s="85" t="s">
+      <c r="R2" s="84" t="s">
+        <v>562</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>564</v>
       </c>
       <c r="T2" s="41" t="s">
         <v>118</v>
@@ -11363,38 +11472,38 @@
         <v>424</v>
       </c>
       <c r="AC2" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="AD2" s="33" t="s">
         <v>565</v>
-      </c>
-      <c r="AD2" s="33" t="s">
-        <v>566</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>425</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG2" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="AH2" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AK2" s="81"/>
+      <c r="AL2" s="81"/>
+    </row>
+    <row r="3" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
         <v>568</v>
       </c>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-    </row>
-    <row r="3" spans="1:38" s="81" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="B3" s="31" t="s">
         <v>569</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>570</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>187</v>
@@ -11405,32 +11514,32 @@
       <c r="E3" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="F3" s="100">
+      <c r="F3" s="99">
         <v>60003059</v>
       </c>
       <c r="G3" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="H3" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="I3" s="33" t="s">
         <v>560</v>
       </c>
-      <c r="I3" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="J3" s="80" t="s">
+      <c r="J3" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="K3" s="85" t="s">
+      <c r="K3" s="84" t="s">
+        <v>570</v>
+      </c>
+      <c r="L3" s="84" t="s">
+        <v>570</v>
+      </c>
+      <c r="M3" s="84" t="s">
+        <v>570</v>
+      </c>
+      <c r="N3" s="84" t="s">
         <v>571</v>
-      </c>
-      <c r="L3" s="85" t="s">
-        <v>571</v>
-      </c>
-      <c r="M3" s="85" t="s">
-        <v>571</v>
-      </c>
-      <c r="N3" s="85" t="s">
-        <v>572</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>436</v>
@@ -11438,11 +11547,11 @@
       <c r="P3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q3" s="85" t="s">
+      <c r="Q3" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="R3" s="85" t="s">
-        <v>573</v>
+      <c r="R3" s="84" t="s">
+        <v>572</v>
       </c>
       <c r="S3" s="3">
         <v>60003351</v>
@@ -11469,37 +11578,37 @@
         <v>128</v>
       </c>
       <c r="AA3" s="41" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>424</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AD3" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="AG3" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="AF3" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AH3" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AI3" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="AI3" s="10" t="s">
-        <v>579</v>
-      </c>
       <c r="AJ3" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="82"/>
+        <v>567</v>
+      </c>
+      <c r="AK3" s="81"/>
+      <c r="AL3" s="81"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
